--- a/data/cci/cci-platform-programme-mapping.xlsx
+++ b/data/cci/cci-platform-programme-mapping.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony.wilson/git/cci-vocabularies/data/cci/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony.wilson/git/cci-vocabularies2/data/cci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47166DC7-C27C-AD44-B4D7-994894AD6544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4070AF67-4B1E-7E4D-AC7D-A63F4B048C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{8D154693-AC08-D74A-B6AF-4F2BB450A9A8}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{D6294A95-F961-1A4F-9365-26DAE540CA74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="228">
   <si>
     <t>URI 1</t>
   </si>
@@ -719,6 +719,15 @@
   </si>
   <si>
     <t>plat_gpm</t>
+  </si>
+  <si>
+    <t>plat_sentinel6_prog</t>
+  </si>
+  <si>
+    <t>plat_sentinel6a</t>
+  </si>
+  <si>
+    <t>plat_sentinel6b</t>
   </si>
 </sst>
 </file>
@@ -943,7 +952,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
@@ -963,6 +972,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
@@ -992,27 +1004,28 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="20">
-    <cellStyle name="Accent" xfId="7" xr:uid="{A43466F9-29B8-7D4C-9EDD-C2D1291EE4EC}"/>
-    <cellStyle name="Accent 1" xfId="8" xr:uid="{AA64FC89-A1E8-FD46-B3BD-F5021D590BCD}"/>
-    <cellStyle name="Accent 2" xfId="9" xr:uid="{65F715B4-3008-8F41-B721-AD0B6C7E43DC}"/>
-    <cellStyle name="Accent 3" xfId="10" xr:uid="{8D8BF502-D265-DA45-84FE-9C4AFFC3B7A7}"/>
+  <cellStyles count="21">
+    <cellStyle name="Accent" xfId="7" xr:uid="{60F56625-14C4-3E4F-95E1-C1EFC4D7A21A}"/>
+    <cellStyle name="Accent 1" xfId="8" xr:uid="{9D424BB1-E377-AE49-8056-73B2E4EEBF85}"/>
+    <cellStyle name="Accent 2" xfId="9" xr:uid="{4A03D9FF-83A5-C84B-870D-C2FF77D0CCB8}"/>
+    <cellStyle name="Accent 3" xfId="10" xr:uid="{FC2E2C4E-C882-A445-98FF-3E9E81E3753D}"/>
     <cellStyle name="Bad" xfId="4" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Error" xfId="11" xr:uid="{86109ECC-F085-1E45-AF8B-3A00B8CFEB42}"/>
-    <cellStyle name="Footnote" xfId="12" xr:uid="{E0DA1165-564F-3643-A67B-B77AC4705A61}"/>
+    <cellStyle name="Error" xfId="11" xr:uid="{2DB113FD-7D7D-BA49-9DB5-C8AC9626AAD4}"/>
+    <cellStyle name="Footnote" xfId="12" xr:uid="{4FD8425F-F542-DE46-AC9E-B8E532930141}"/>
     <cellStyle name="Good" xfId="3" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading" xfId="13" xr:uid="{9AFDCADE-6BC5-494E-942C-4A0E647A1D32}"/>
+    <cellStyle name="Heading" xfId="13" xr:uid="{31731892-797F-D44C-8013-1E42B6230ED9}"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="14" xr:uid="{38A4F1AA-DD37-EB45-9A22-DC9C2158727F}"/>
+    <cellStyle name="Heading1" xfId="14" xr:uid="{F8C447CC-174F-9246-95BD-F1C1FF9936BA}"/>
+    <cellStyle name="Hyperlink" xfId="15" xr:uid="{A2E8B478-2914-A04A-BA6D-E381ACCB9014}"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="6" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="15" xr:uid="{8A1C2924-378F-914C-828E-6FAECEDBABA4}"/>
-    <cellStyle name="Result2" xfId="16" xr:uid="{14AAF820-E4D5-BB4D-AEE2-48389809EE6F}"/>
-    <cellStyle name="Status" xfId="17" xr:uid="{49B33925-F51B-344B-8911-7C8099133885}"/>
-    <cellStyle name="Text" xfId="18" xr:uid="{BFDFAC95-F82E-534E-9E11-A776D2022E90}"/>
-    <cellStyle name="Warning" xfId="19" xr:uid="{689AECFA-1E3F-BA48-A240-6BFAD778288A}"/>
+    <cellStyle name="Result" xfId="16" xr:uid="{2BC66C77-90BE-9541-AFEC-3D14355941E4}"/>
+    <cellStyle name="Result2" xfId="17" xr:uid="{582D40F7-1593-2748-AC64-771BB8B40E5B}"/>
+    <cellStyle name="Status" xfId="18" xr:uid="{6F6666DB-968F-3245-8EDD-7BC75217EF0F}"/>
+    <cellStyle name="Text" xfId="19" xr:uid="{BF9F4BB2-F253-E74D-9502-585DE5DC03AB}"/>
+    <cellStyle name="Warning" xfId="20" xr:uid="{8C5A0077-646D-CC46-AC47-F855B3AB58CA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1028,1031 +1041,1031 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D2348E9E-253B-1C4A-AB52-46DF2D2F1B04}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:AMF1048576" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ED93AD72-2C85-6843-9D02-DA075DF1CFD3}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:AMF1048576" headerRowCount="0" totalsRowShown="0">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AMF1048576">
     <sortCondition ref="A1:A1048576"/>
   </sortState>
   <tableColumns count="1020">
-    <tableColumn id="1" xr3:uid="{AB1FC59A-3312-F247-B85C-276356CA30AE}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{D012016D-270C-3749-9231-678215ABA001}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{8810E4FD-2B41-664E-9779-D6C0F4F76528}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{3F675983-B7BB-1341-B932-0FF9E7936FF3}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{D8A804BC-11C5-2F4D-8906-7828BC8EF4BE}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{7D30569B-5DAA-D34F-A472-D57F18C3D0EB}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{218A1E48-33FC-BB40-A5E1-2B7470F8AD57}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{7AD48448-17D1-4945-8E65-7DECFD44C6B6}" name="Column8"/>
-    <tableColumn id="9" xr3:uid="{3CF1FBB8-134A-6045-9CDE-39D174250D0B}" name="Column9"/>
-    <tableColumn id="10" xr3:uid="{448746FD-D9D4-0142-9C19-022D3639CD86}" name="Column10"/>
-    <tableColumn id="11" xr3:uid="{30B4D348-BF5A-AE4D-A524-FCEE7BF33132}" name="Column11"/>
-    <tableColumn id="12" xr3:uid="{41F29E68-DDFC-3241-BEAE-2523D50D8445}" name="Column12"/>
-    <tableColumn id="13" xr3:uid="{D16982FD-1F3B-7045-ADFA-7AA77D720763}" name="Column13"/>
-    <tableColumn id="14" xr3:uid="{558C121D-9FAD-9245-9D82-9707F0B6509D}" name="Column14"/>
-    <tableColumn id="15" xr3:uid="{076FCA8F-1319-6D45-A833-F2007D0B2397}" name="Column15"/>
-    <tableColumn id="16" xr3:uid="{BA5B9FB2-0CAB-9340-ADA5-F991EC340E30}" name="Column16"/>
-    <tableColumn id="17" xr3:uid="{7C16D789-0D35-A945-AE7B-FF45DDA92C93}" name="Column17"/>
-    <tableColumn id="18" xr3:uid="{E0B8E3E2-8D6C-D748-B14D-33C67B6042F3}" name="Column18"/>
-    <tableColumn id="19" xr3:uid="{901855FB-F630-864C-A9DC-CCF63120E752}" name="Column19"/>
-    <tableColumn id="20" xr3:uid="{A3F54B1E-607E-FC4A-A2F0-969A463928B8}" name="Column20"/>
-    <tableColumn id="21" xr3:uid="{1F3E5D9C-751C-3D42-82EA-A6AF8CC5F61A}" name="Column21"/>
-    <tableColumn id="22" xr3:uid="{9F33B77D-E86A-094B-8C79-2AFD6F30ADE8}" name="Column22"/>
-    <tableColumn id="23" xr3:uid="{F59D36B7-0330-A549-8E25-A8BB63BE24B1}" name="Column23"/>
-    <tableColumn id="24" xr3:uid="{977D06E5-5D31-304B-9712-CA270F3F1DA1}" name="Column24"/>
-    <tableColumn id="25" xr3:uid="{D6550207-791C-C548-A706-9C1D1F7DA8ED}" name="Column25"/>
-    <tableColumn id="26" xr3:uid="{A223D7BF-B14F-634E-9E69-4B12EF034B30}" name="Column26"/>
-    <tableColumn id="27" xr3:uid="{D4FB9497-9516-E94F-B504-4EE43B7BFA58}" name="Column27"/>
-    <tableColumn id="28" xr3:uid="{14C79ABE-DB94-1E48-8EC5-2E516A2F6C70}" name="Column28"/>
-    <tableColumn id="29" xr3:uid="{45C9B784-CBBE-1D48-BC99-1DA9F91D71EE}" name="Column29"/>
-    <tableColumn id="30" xr3:uid="{1CEEE90E-230B-F640-834D-2FB38C67D2D7}" name="Column30"/>
-    <tableColumn id="31" xr3:uid="{E4FF85AA-3E1D-E94F-BE7B-58F4731F9B47}" name="Column31"/>
-    <tableColumn id="32" xr3:uid="{9AC376D8-7F63-B849-B7AD-42200B225A69}" name="Column32"/>
-    <tableColumn id="33" xr3:uid="{7303DEA1-0B8F-D64B-9BAF-D36C35FC96B7}" name="Column33"/>
-    <tableColumn id="34" xr3:uid="{429B4220-AEEA-C140-A18F-F7C9492C6FD9}" name="Column34"/>
-    <tableColumn id="35" xr3:uid="{04B48509-3433-6347-9B9C-5FCC80038D1C}" name="Column35"/>
-    <tableColumn id="36" xr3:uid="{FE895689-F572-1347-834B-8F452370050C}" name="Column36"/>
-    <tableColumn id="37" xr3:uid="{BBB6650C-A38E-7043-80B5-813DADFA38CA}" name="Column37"/>
-    <tableColumn id="38" xr3:uid="{25954F74-CACA-FE46-9E64-65DF794E2922}" name="Column38"/>
-    <tableColumn id="39" xr3:uid="{FBF5F350-51FB-3241-A241-C3D272E93F89}" name="Column39"/>
-    <tableColumn id="40" xr3:uid="{D71BC27B-399D-0744-B5EC-21DC31333F2D}" name="Column40"/>
-    <tableColumn id="41" xr3:uid="{7C3CEE1C-6882-7147-8A3E-D4CFD3202EB6}" name="Column41"/>
-    <tableColumn id="42" xr3:uid="{DE8155D2-D7AC-0A4F-B72F-DE88AA4FE501}" name="Column42"/>
-    <tableColumn id="43" xr3:uid="{028116B2-5C81-264A-A903-8C7899C411EF}" name="Column43"/>
-    <tableColumn id="44" xr3:uid="{974C860E-A664-8649-9918-122E79760CAC}" name="Column44"/>
-    <tableColumn id="45" xr3:uid="{DD9A2A90-D49B-A446-A389-F624630A4D27}" name="Column45"/>
-    <tableColumn id="46" xr3:uid="{0D174A39-9BBA-5F41-BCDE-867B0775D084}" name="Column46"/>
-    <tableColumn id="47" xr3:uid="{9B5929C9-838A-7444-9CC5-358C9B8BD8CC}" name="Column47"/>
-    <tableColumn id="48" xr3:uid="{3F2583A9-5AE2-384C-A2A1-436639A4DA61}" name="Column48"/>
-    <tableColumn id="49" xr3:uid="{CB851531-62B0-CA43-A56B-62ED79756A84}" name="Column49"/>
-    <tableColumn id="50" xr3:uid="{F5A7B55A-F03F-4645-B4FE-7AB9C2E0CA40}" name="Column50"/>
-    <tableColumn id="51" xr3:uid="{A3EDA37A-4168-6642-909D-8FDE56D460A8}" name="Column51"/>
-    <tableColumn id="52" xr3:uid="{CEE09C89-F2A5-A24E-90EE-C13448CE00D2}" name="Column52"/>
-    <tableColumn id="53" xr3:uid="{3F3BF6FE-0630-4041-8CCC-2691189BB8DF}" name="Column53"/>
-    <tableColumn id="54" xr3:uid="{B062E24B-4813-544C-948E-686E0D62D484}" name="Column54"/>
-    <tableColumn id="55" xr3:uid="{04779216-1851-2144-AA80-F5276677EF37}" name="Column55"/>
-    <tableColumn id="56" xr3:uid="{CDF03D83-7AC2-4B49-AEBB-E0A9143A3429}" name="Column56"/>
-    <tableColumn id="57" xr3:uid="{5C735A21-5064-5E42-B50C-8A9ED23DB6BE}" name="Column57"/>
-    <tableColumn id="58" xr3:uid="{76867BC3-A66A-854D-8018-575FE1FE732E}" name="Column58"/>
-    <tableColumn id="59" xr3:uid="{AC6B0885-8252-F14C-A9D3-EB83E2F65340}" name="Column59"/>
-    <tableColumn id="60" xr3:uid="{3270B9A7-D836-A546-9588-437ED735FC8F}" name="Column60"/>
-    <tableColumn id="61" xr3:uid="{2AD780D6-F4D7-E44D-99F0-495CCA33F909}" name="Column61"/>
-    <tableColumn id="62" xr3:uid="{2190603D-4E82-B44B-A302-592DF3930569}" name="Column62"/>
-    <tableColumn id="63" xr3:uid="{02633D05-C5D2-2E48-97AF-ED37AAC8C8B8}" name="Column63"/>
-    <tableColumn id="64" xr3:uid="{285FEE14-598A-1C43-A28B-A31037EF098C}" name="Column64"/>
-    <tableColumn id="65" xr3:uid="{B0F84AD1-D00F-5544-AC6D-CA41E20CDC32}" name="Column65"/>
-    <tableColumn id="66" xr3:uid="{6179D875-3C79-2044-BAEB-E4F051E04EBA}" name="Column66"/>
-    <tableColumn id="67" xr3:uid="{876E9B8B-746A-0C49-8D8D-0681DD95E40A}" name="Column67"/>
-    <tableColumn id="68" xr3:uid="{22D7BCC4-A3C6-8E40-8A1E-672509E42FB8}" name="Column68"/>
-    <tableColumn id="69" xr3:uid="{1E6B87F5-2C0B-314B-80AE-D2266D6CE2AE}" name="Column69"/>
-    <tableColumn id="70" xr3:uid="{4CA019A9-BD16-3940-A372-3279321895E7}" name="Column70"/>
-    <tableColumn id="71" xr3:uid="{AC7D4164-9768-8D4E-83C3-04CF08C79C2C}" name="Column71"/>
-    <tableColumn id="72" xr3:uid="{07E26A5E-29FA-9948-A0EB-DEB1D49BA740}" name="Column72"/>
-    <tableColumn id="73" xr3:uid="{4FB9E2F9-EC93-9E47-86B9-F28A7AD3D11C}" name="Column73"/>
-    <tableColumn id="74" xr3:uid="{9676FEEA-B67B-164C-97B7-35536ABEFED1}" name="Column74"/>
-    <tableColumn id="75" xr3:uid="{2F8D968F-F1C3-E542-8C42-FD8F4BE94114}" name="Column75"/>
-    <tableColumn id="76" xr3:uid="{7934892D-7473-5F4C-B9FE-EF7DF7C3607C}" name="Column76"/>
-    <tableColumn id="77" xr3:uid="{42CDF558-E361-6546-BF63-C17F177C6DB2}" name="Column77"/>
-    <tableColumn id="78" xr3:uid="{EC3B21B1-653A-F441-A9E2-C65F939F967F}" name="Column78"/>
-    <tableColumn id="79" xr3:uid="{0EEFC6C6-36E8-E24D-A0DA-34D4303A5A36}" name="Column79"/>
-    <tableColumn id="80" xr3:uid="{1AB0503F-F09B-4E4A-97E8-837D0C4D5647}" name="Column80"/>
-    <tableColumn id="81" xr3:uid="{0FA9E89A-5850-B445-A579-0CE9DFF37EA1}" name="Column81"/>
-    <tableColumn id="82" xr3:uid="{66DFACBF-B4F4-2C4F-B118-ED957EF0A8FA}" name="Column82"/>
-    <tableColumn id="83" xr3:uid="{1E971B3D-F525-B543-9AB6-9195AED726CA}" name="Column83"/>
-    <tableColumn id="84" xr3:uid="{2222595C-89E9-6741-BB51-DAA10E0F1278}" name="Column84"/>
-    <tableColumn id="85" xr3:uid="{4256AD0C-45CB-F345-9F20-4B4F8D9B75E7}" name="Column85"/>
-    <tableColumn id="86" xr3:uid="{3F6E4FD8-BA4D-5B4B-8059-D5ED74930A4A}" name="Column86"/>
-    <tableColumn id="87" xr3:uid="{A3EEC20D-943D-5E4C-864A-9346FFA0250B}" name="Column87"/>
-    <tableColumn id="88" xr3:uid="{78D2A15E-E706-154B-996F-6794144D4F9D}" name="Column88"/>
-    <tableColumn id="89" xr3:uid="{47C87AE9-F300-8A43-AA96-C63649EAD514}" name="Column89"/>
-    <tableColumn id="90" xr3:uid="{E25CCFF1-66CC-6647-B721-5423B6F2D424}" name="Column90"/>
-    <tableColumn id="91" xr3:uid="{5317F8D0-4B6F-5C46-8A9F-6F797FD92855}" name="Column91"/>
-    <tableColumn id="92" xr3:uid="{C0EBCC68-2392-7148-B1FF-CA7F140A488C}" name="Column92"/>
-    <tableColumn id="93" xr3:uid="{603ED707-5E31-2C42-9E05-9122757C9A0A}" name="Column93"/>
-    <tableColumn id="94" xr3:uid="{4B57866E-40D7-C546-8E3B-DA9D8E352BDB}" name="Column94"/>
-    <tableColumn id="95" xr3:uid="{61B019F4-7989-1C4A-AB29-E68EA03A4517}" name="Column95"/>
-    <tableColumn id="96" xr3:uid="{0AEF45E6-F135-BA4E-BD53-A1B89A431EF1}" name="Column96"/>
-    <tableColumn id="97" xr3:uid="{3E1E3D60-8832-3F49-9FB0-85046C93FCF8}" name="Column97"/>
-    <tableColumn id="98" xr3:uid="{6EE65110-757D-A34B-A6A5-B027369EE61C}" name="Column98"/>
-    <tableColumn id="99" xr3:uid="{13629E64-E2EA-3942-873A-BD6647F904D8}" name="Column99"/>
-    <tableColumn id="100" xr3:uid="{9A9345F9-EB04-F44C-85D7-63D0E3178238}" name="Column100"/>
-    <tableColumn id="101" xr3:uid="{95C2BA74-FAF9-364A-A45A-25BA0E2A115E}" name="Column101"/>
-    <tableColumn id="102" xr3:uid="{6ECE92C3-7CB3-D848-AF1C-6AF45A4D8115}" name="Column102"/>
-    <tableColumn id="103" xr3:uid="{E9B2C45F-C97B-5344-A695-977A9055458B}" name="Column103"/>
-    <tableColumn id="104" xr3:uid="{CFAED0AA-FF0B-6141-A13D-06FB220DF2DD}" name="Column104"/>
-    <tableColumn id="105" xr3:uid="{07E32BAD-0113-CE4D-ABAD-67CC2D065165}" name="Column105"/>
-    <tableColumn id="106" xr3:uid="{41E50EB3-154D-3845-855F-47E26CC354EE}" name="Column106"/>
-    <tableColumn id="107" xr3:uid="{2430E49C-B0E1-C741-B191-A3EB46C2EB30}" name="Column107"/>
-    <tableColumn id="108" xr3:uid="{DC0D531E-7D4B-774D-8800-6CC7FA34006B}" name="Column108"/>
-    <tableColumn id="109" xr3:uid="{4636C2A4-0210-B24A-A06F-CD1810ACECAD}" name="Column109"/>
-    <tableColumn id="110" xr3:uid="{23B9E3C4-1A27-074C-B1FD-37191BC223B5}" name="Column110"/>
-    <tableColumn id="111" xr3:uid="{F2CA3A6E-EA00-7346-9E36-6D708E73CAD7}" name="Column111"/>
-    <tableColumn id="112" xr3:uid="{EDFA5C42-BCC7-F943-8630-4BE021BEE02E}" name="Column112"/>
-    <tableColumn id="113" xr3:uid="{CE9C7097-C5EF-3649-8736-454B81D79942}" name="Column113"/>
-    <tableColumn id="114" xr3:uid="{57BAF809-E614-5945-BCBC-F9EBD7A3A5D6}" name="Column114"/>
-    <tableColumn id="115" xr3:uid="{775C3D97-ABFB-B042-B118-421EE7080285}" name="Column115"/>
-    <tableColumn id="116" xr3:uid="{3EEA777D-C648-6740-8044-0DC539EDC7BB}" name="Column116"/>
-    <tableColumn id="117" xr3:uid="{46B7E35C-724C-044D-980F-5A6A1B341727}" name="Column117"/>
-    <tableColumn id="118" xr3:uid="{F18C18EC-849A-1341-A58F-7A06E0B08CE6}" name="Column118"/>
-    <tableColumn id="119" xr3:uid="{91AAFE9D-4E3A-7746-B569-A865D4175367}" name="Column119"/>
-    <tableColumn id="120" xr3:uid="{5AD8FDB5-51F6-4746-B362-8AD799585203}" name="Column120"/>
-    <tableColumn id="121" xr3:uid="{D4C3848B-00BD-064D-B3AF-B858A1CF3422}" name="Column121"/>
-    <tableColumn id="122" xr3:uid="{DF647C37-15CC-1645-A81A-44DA68B1B8AF}" name="Column122"/>
-    <tableColumn id="123" xr3:uid="{837E6A2F-CED6-F844-8320-CDE109177507}" name="Column123"/>
-    <tableColumn id="124" xr3:uid="{C73D5D9A-2BAA-BD49-89BB-9FE8C516DDF3}" name="Column124"/>
-    <tableColumn id="125" xr3:uid="{056C85B5-9382-F34E-A719-00344A5F74C9}" name="Column125"/>
-    <tableColumn id="126" xr3:uid="{3942FF6A-7043-6545-92A5-C24F3AFF7FDC}" name="Column126"/>
-    <tableColumn id="127" xr3:uid="{1FEB5B14-F4B0-6044-8843-C6FD3CB045A7}" name="Column127"/>
-    <tableColumn id="128" xr3:uid="{857A6517-37AA-9A4E-BA11-179796B09767}" name="Column128"/>
-    <tableColumn id="129" xr3:uid="{A86E3AD7-D527-1D40-9F80-5D9B97D935E0}" name="Column129"/>
-    <tableColumn id="130" xr3:uid="{5FE41C88-82C8-164F-9766-94BC006A6967}" name="Column130"/>
-    <tableColumn id="131" xr3:uid="{0F3D95D7-E492-984C-9915-C38C6B57E57B}" name="Column131"/>
-    <tableColumn id="132" xr3:uid="{10350CB0-0643-344E-BDBC-5BC8CCDDCEA5}" name="Column132"/>
-    <tableColumn id="133" xr3:uid="{AE678C1D-AD8D-5945-AFDB-7F1EA4427C2C}" name="Column133"/>
-    <tableColumn id="134" xr3:uid="{39028F1B-4EF0-A547-A7A4-055605973CF2}" name="Column134"/>
-    <tableColumn id="135" xr3:uid="{9326AA0C-5182-F54C-9BFC-FFBEBF6F8106}" name="Column135"/>
-    <tableColumn id="136" xr3:uid="{5DF22C7B-723A-E849-B98C-0B3E8306EEB3}" name="Column136"/>
-    <tableColumn id="137" xr3:uid="{C75370D3-C180-6546-8FEB-8FD2A5321299}" name="Column137"/>
-    <tableColumn id="138" xr3:uid="{36C12843-C66D-D540-816A-8D2CEF574A08}" name="Column138"/>
-    <tableColumn id="139" xr3:uid="{9D19E631-6CF7-8C4C-9576-900FF8CD0B89}" name="Column139"/>
-    <tableColumn id="140" xr3:uid="{1806C9EC-0EF0-D54C-9063-5683FE26C0AB}" name="Column140"/>
-    <tableColumn id="141" xr3:uid="{726B26F9-3339-0146-A6C5-1C88430F26EC}" name="Column141"/>
-    <tableColumn id="142" xr3:uid="{5F87596F-FE48-5345-A7EE-A5211F104823}" name="Column142"/>
-    <tableColumn id="143" xr3:uid="{A2DAF15F-1A72-C24F-8532-B07F811638C8}" name="Column143"/>
-    <tableColumn id="144" xr3:uid="{F328AD6E-71FC-234E-8AD2-6A94F43C3FCC}" name="Column144"/>
-    <tableColumn id="145" xr3:uid="{9C321913-4492-0749-95DA-CF5763CD6C9F}" name="Column145"/>
-    <tableColumn id="146" xr3:uid="{0EE348AD-37CC-D049-B7FE-1915B63BADDC}" name="Column146"/>
-    <tableColumn id="147" xr3:uid="{BFBB016C-D244-3940-8F65-9AFDA588C22E}" name="Column147"/>
-    <tableColumn id="148" xr3:uid="{E5047134-7D50-944C-95E3-C092331EF383}" name="Column148"/>
-    <tableColumn id="149" xr3:uid="{87A9E58B-3E23-6643-97D3-9B6F67E8594E}" name="Column149"/>
-    <tableColumn id="150" xr3:uid="{E5A2CA34-968F-CC4B-A223-604225F8264D}" name="Column150"/>
-    <tableColumn id="151" xr3:uid="{570ED5D6-B6CE-B648-967F-A669433E5237}" name="Column151"/>
-    <tableColumn id="152" xr3:uid="{56328429-6243-DE49-8CDE-9B95CE1E9329}" name="Column152"/>
-    <tableColumn id="153" xr3:uid="{74D03393-26AC-314C-BDD7-B7F947697A77}" name="Column153"/>
-    <tableColumn id="154" xr3:uid="{5E25CF17-5AA7-2143-A952-DE2929F39900}" name="Column154"/>
-    <tableColumn id="155" xr3:uid="{9F648DAF-BC12-CB4D-B16A-56CF0E8C3B37}" name="Column155"/>
-    <tableColumn id="156" xr3:uid="{87B1CAC7-4F63-3841-9BEB-ADC427AE0F42}" name="Column156"/>
-    <tableColumn id="157" xr3:uid="{7C6FE475-E490-3E4B-8B7E-61974C833E27}" name="Column157"/>
-    <tableColumn id="158" xr3:uid="{3CFA0F82-E974-A74C-9F81-D55AB6D4CE0E}" name="Column158"/>
-    <tableColumn id="159" xr3:uid="{F13A2D19-AC3C-0949-B08A-375E6BEAD648}" name="Column159"/>
-    <tableColumn id="160" xr3:uid="{F1DDB3EE-55D0-8643-8032-653A1F30B38B}" name="Column160"/>
-    <tableColumn id="161" xr3:uid="{C3B79893-A33A-8641-9550-08D7F05171E1}" name="Column161"/>
-    <tableColumn id="162" xr3:uid="{B5190778-8DEA-A94A-9D5F-FD52064216ED}" name="Column162"/>
-    <tableColumn id="163" xr3:uid="{35896CB0-D1C3-954E-81D9-075F297C42C6}" name="Column163"/>
-    <tableColumn id="164" xr3:uid="{7C7AFE6A-E697-8F48-95C8-58350CC72630}" name="Column164"/>
-    <tableColumn id="165" xr3:uid="{267F27E4-6387-D44F-83D6-5A40188EB1EF}" name="Column165"/>
-    <tableColumn id="166" xr3:uid="{47F00AFB-CDA0-644A-A615-06EA79452312}" name="Column166"/>
-    <tableColumn id="167" xr3:uid="{E92119E0-6F94-1749-9623-744FA379DEA7}" name="Column167"/>
-    <tableColumn id="168" xr3:uid="{D7A65FBA-16D7-7E4B-9581-7FD45F918CE7}" name="Column168"/>
-    <tableColumn id="169" xr3:uid="{63B642E4-9EBE-AB40-97D1-EA0C53B5D56D}" name="Column169"/>
-    <tableColumn id="170" xr3:uid="{462DF633-E770-E643-B7C7-F4CB1AAB60A0}" name="Column170"/>
-    <tableColumn id="171" xr3:uid="{7E37B33A-9E20-C144-B395-30201A3F7B6C}" name="Column171"/>
-    <tableColumn id="172" xr3:uid="{168926E6-AD0A-5347-8819-219079CEC6A8}" name="Column172"/>
-    <tableColumn id="173" xr3:uid="{846D60FF-E27F-4741-AFE1-3A13846DDCA9}" name="Column173"/>
-    <tableColumn id="174" xr3:uid="{0A5721C4-E99A-3740-BA2A-8AD13D7C5DA6}" name="Column174"/>
-    <tableColumn id="175" xr3:uid="{3785672B-E4EC-A14A-9D75-CFEC8158CAE2}" name="Column175"/>
-    <tableColumn id="176" xr3:uid="{BACDF556-66A3-DA47-9C1B-886BB3A14D20}" name="Column176"/>
-    <tableColumn id="177" xr3:uid="{D93235C4-7FCC-3C4D-8F70-1D8A9E6DC176}" name="Column177"/>
-    <tableColumn id="178" xr3:uid="{2E60C6A1-4D18-BB4D-B82E-8132096349F8}" name="Column178"/>
-    <tableColumn id="179" xr3:uid="{0C95F842-3C4F-5847-9E59-6E14E2F5D453}" name="Column179"/>
-    <tableColumn id="180" xr3:uid="{92B2F2DB-3D8E-CE42-91B9-3D703A641EBE}" name="Column180"/>
-    <tableColumn id="181" xr3:uid="{EFB29464-696F-5E41-8203-37BCD36F252A}" name="Column181"/>
-    <tableColumn id="182" xr3:uid="{404E8475-1298-2A4A-B340-46CE522B32E8}" name="Column182"/>
-    <tableColumn id="183" xr3:uid="{395334E4-C31A-7D4E-BA32-3999B6215DA9}" name="Column183"/>
-    <tableColumn id="184" xr3:uid="{C18F1324-D847-6646-B5EE-7088225495F3}" name="Column184"/>
-    <tableColumn id="185" xr3:uid="{67B85A00-D43F-384C-B7F6-A3C364F23A83}" name="Column185"/>
-    <tableColumn id="186" xr3:uid="{049134AD-6D07-F84D-9828-40D6E01F1037}" name="Column186"/>
-    <tableColumn id="187" xr3:uid="{24E9BE15-5218-7E40-A39A-E6F018BDFB34}" name="Column187"/>
-    <tableColumn id="188" xr3:uid="{716B6D58-B664-5B41-94BC-8F1A645A9CCA}" name="Column188"/>
-    <tableColumn id="189" xr3:uid="{9F3F9275-6D25-BA43-A06A-F545CA5AFE3F}" name="Column189"/>
-    <tableColumn id="190" xr3:uid="{188A9702-AF83-6640-9666-A39906FACB77}" name="Column190"/>
-    <tableColumn id="191" xr3:uid="{1FD1DAAB-340D-8244-A11B-C378A656B322}" name="Column191"/>
-    <tableColumn id="192" xr3:uid="{C447E5CE-B1B4-3047-9009-8628BAB9B2D6}" name="Column192"/>
-    <tableColumn id="193" xr3:uid="{591F093C-54C8-F440-ACE0-DD4029A983DE}" name="Column193"/>
-    <tableColumn id="194" xr3:uid="{CE8F7214-7F53-3148-A764-94C28C6FF0E3}" name="Column194"/>
-    <tableColumn id="195" xr3:uid="{31767627-E4A7-7344-8397-4574343DFCD6}" name="Column195"/>
-    <tableColumn id="196" xr3:uid="{023D7ED8-7014-0C46-A4C2-B0346A14E699}" name="Column196"/>
-    <tableColumn id="197" xr3:uid="{8C673245-7666-8144-B6ED-1E6D82AC056C}" name="Column197"/>
-    <tableColumn id="198" xr3:uid="{F1206F48-0DCA-E349-9029-DD33C9F28ECD}" name="Column198"/>
-    <tableColumn id="199" xr3:uid="{3AB08B43-88F5-B640-9E83-2D31BE8279E7}" name="Column199"/>
-    <tableColumn id="200" xr3:uid="{E79EF1A8-775D-C640-8C3A-D09C590154A9}" name="Column200"/>
-    <tableColumn id="201" xr3:uid="{40D82F77-5DAE-7645-9C80-ECF40FC6C48A}" name="Column201"/>
-    <tableColumn id="202" xr3:uid="{17804810-D92D-4D4F-AE58-28143B2AD171}" name="Column202"/>
-    <tableColumn id="203" xr3:uid="{1A59C371-7AD1-7741-9AE8-EC8D67918FE5}" name="Column203"/>
-    <tableColumn id="204" xr3:uid="{3EF095EE-A600-1344-8A74-1FDA3CC1ADB8}" name="Column204"/>
-    <tableColumn id="205" xr3:uid="{8A4C6BDB-3FA3-AB4F-B694-93134A501220}" name="Column205"/>
-    <tableColumn id="206" xr3:uid="{FF553B0E-BE60-7148-A22F-EEDD6DC3208E}" name="Column206"/>
-    <tableColumn id="207" xr3:uid="{BB80AF44-F439-9E44-9AF6-4E38C55416E8}" name="Column207"/>
-    <tableColumn id="208" xr3:uid="{F762B6F6-6068-0F46-880E-1CC1F15FDD36}" name="Column208"/>
-    <tableColumn id="209" xr3:uid="{A0B50215-DC26-5F46-8CC9-37153296F942}" name="Column209"/>
-    <tableColumn id="210" xr3:uid="{6740A6FC-E358-F94A-B734-F0B5377CC73B}" name="Column210"/>
-    <tableColumn id="211" xr3:uid="{4A8727E1-D0B2-8345-BADC-216314DD7152}" name="Column211"/>
-    <tableColumn id="212" xr3:uid="{EA63A05B-EF42-CB46-8CB5-ED1569D3B9BD}" name="Column212"/>
-    <tableColumn id="213" xr3:uid="{CB22B894-9DCA-2F47-9150-2CD028362159}" name="Column213"/>
-    <tableColumn id="214" xr3:uid="{4880BE73-6D05-4644-BFD1-64B62937D54D}" name="Column214"/>
-    <tableColumn id="215" xr3:uid="{9FB50B46-08AF-2F47-AD43-01DA9CEE4A41}" name="Column215"/>
-    <tableColumn id="216" xr3:uid="{FA6F26B3-F89F-9242-8C56-39756DAF2B5F}" name="Column216"/>
-    <tableColumn id="217" xr3:uid="{4ECD242B-A720-A941-9196-995B79F21523}" name="Column217"/>
-    <tableColumn id="218" xr3:uid="{AA6FB60D-A5F4-834E-8318-FFCC0F849863}" name="Column218"/>
-    <tableColumn id="219" xr3:uid="{F47D8C88-02FC-E54F-B54B-A68E5329692F}" name="Column219"/>
-    <tableColumn id="220" xr3:uid="{5D435094-F770-8F48-847E-EE5F799FAC77}" name="Column220"/>
-    <tableColumn id="221" xr3:uid="{B7BA125A-BD49-B64E-B481-F22C58DC93C9}" name="Column221"/>
-    <tableColumn id="222" xr3:uid="{6E083141-42DA-FF49-AA0C-56129FF94B7E}" name="Column222"/>
-    <tableColumn id="223" xr3:uid="{292BD8CB-D748-6A4D-B8C5-0C73CE7C4E12}" name="Column223"/>
-    <tableColumn id="224" xr3:uid="{25EC882E-5121-4A43-8187-B7FD3690F244}" name="Column224"/>
-    <tableColumn id="225" xr3:uid="{23B45ED0-06FB-EB44-9311-32540422D619}" name="Column225"/>
-    <tableColumn id="226" xr3:uid="{C75003F9-A891-FE4B-83B0-B367C7257F30}" name="Column226"/>
-    <tableColumn id="227" xr3:uid="{844A0104-0AB6-2045-B69B-D4F574C62948}" name="Column227"/>
-    <tableColumn id="228" xr3:uid="{B3AD09FB-9337-A844-92D4-26692F42A435}" name="Column228"/>
-    <tableColumn id="229" xr3:uid="{86229B1C-88BE-6A44-898E-85F42F042762}" name="Column229"/>
-    <tableColumn id="230" xr3:uid="{797CCFFD-13AD-8C42-A1E7-064EA369C3B4}" name="Column230"/>
-    <tableColumn id="231" xr3:uid="{79AD6AD5-F7E2-4743-9EFE-FCEC60B5CDDA}" name="Column231"/>
-    <tableColumn id="232" xr3:uid="{FD25FDD7-36CB-794E-BDE2-8E26BAF9A376}" name="Column232"/>
-    <tableColumn id="233" xr3:uid="{6ADCC324-0FEC-F84A-81CC-3B84DA354251}" name="Column233"/>
-    <tableColumn id="234" xr3:uid="{32B9ED07-A03D-A748-96F8-EBE6E41188E6}" name="Column234"/>
-    <tableColumn id="235" xr3:uid="{03AEBA87-45CC-0A46-8E68-A6705D2B8EF7}" name="Column235"/>
-    <tableColumn id="236" xr3:uid="{4E5251E6-22D1-C742-A870-8012E240DC90}" name="Column236"/>
-    <tableColumn id="237" xr3:uid="{0AB86E62-912A-F347-B67D-969BD78B8121}" name="Column237"/>
-    <tableColumn id="238" xr3:uid="{348A13F1-8F4A-AE4A-A971-B4EF592D9BFC}" name="Column238"/>
-    <tableColumn id="239" xr3:uid="{8C2C5579-7559-924C-BB7F-3D96F3BDF973}" name="Column239"/>
-    <tableColumn id="240" xr3:uid="{02EBEB6A-505F-0F4A-A1C4-DA3996367A98}" name="Column240"/>
-    <tableColumn id="241" xr3:uid="{BA73A26F-5838-EF49-AF96-6629FAE7DD33}" name="Column241"/>
-    <tableColumn id="242" xr3:uid="{C72C41C5-1B42-C148-9637-B42515EC8CA0}" name="Column242"/>
-    <tableColumn id="243" xr3:uid="{07D01E43-18DC-4C4C-AE2C-D1AF1744E88F}" name="Column243"/>
-    <tableColumn id="244" xr3:uid="{D18B8592-D674-534F-91DD-57B2123B15FE}" name="Column244"/>
-    <tableColumn id="245" xr3:uid="{09D968B4-CFB0-B44F-B2A4-170E6E08893B}" name="Column245"/>
-    <tableColumn id="246" xr3:uid="{254F86A7-DC0E-9F4B-8198-B9C1E036FA10}" name="Column246"/>
-    <tableColumn id="247" xr3:uid="{D6887143-53A7-9849-BA2E-B05BA51B01D2}" name="Column247"/>
-    <tableColumn id="248" xr3:uid="{23931A98-F7A3-2F43-9C57-C82AACF26728}" name="Column248"/>
-    <tableColumn id="249" xr3:uid="{1C8E45A7-1814-C44F-B78E-D753DD493D70}" name="Column249"/>
-    <tableColumn id="250" xr3:uid="{063E6EF1-2668-384C-B277-1B3097357F4C}" name="Column250"/>
-    <tableColumn id="251" xr3:uid="{ECF7DD1A-D227-D947-AF24-1D3A84656BAF}" name="Column251"/>
-    <tableColumn id="252" xr3:uid="{4E915A52-230B-7048-8C4F-E6E202613781}" name="Column252"/>
-    <tableColumn id="253" xr3:uid="{6CE9F1CF-E4AE-D74A-AE01-FDE3E284FCB1}" name="Column253"/>
-    <tableColumn id="254" xr3:uid="{2604D10C-6750-0A46-8840-025F5B7E8E45}" name="Column254"/>
-    <tableColumn id="255" xr3:uid="{A69472A2-E3DE-794E-B22E-C54CFB0167C5}" name="Column255"/>
-    <tableColumn id="256" xr3:uid="{334D5C49-8FC0-1947-9057-81A3B70C34C9}" name="Column256"/>
-    <tableColumn id="257" xr3:uid="{43AB4E75-734C-8248-82E7-B7D918606C60}" name="Column257"/>
-    <tableColumn id="258" xr3:uid="{B3AC3130-A6F7-B141-A99D-48C0000DC428}" name="Column258"/>
-    <tableColumn id="259" xr3:uid="{97772BB6-5B03-3643-95F7-8E7481932A0C}" name="Column259"/>
-    <tableColumn id="260" xr3:uid="{EFAAC1FC-CBE7-6A4A-BC52-8A21F179E006}" name="Column260"/>
-    <tableColumn id="261" xr3:uid="{B3835488-4106-4343-AA8C-3C89B62675C5}" name="Column261"/>
-    <tableColumn id="262" xr3:uid="{1B4D973B-1D68-AE4E-B79D-C3F342BF5678}" name="Column262"/>
-    <tableColumn id="263" xr3:uid="{A0E3021D-8051-BB49-800C-6AB2840BA388}" name="Column263"/>
-    <tableColumn id="264" xr3:uid="{7E7DEA96-E316-EC47-BB86-B8E365B43497}" name="Column264"/>
-    <tableColumn id="265" xr3:uid="{D751E368-C5C3-3844-99DE-7F35CACBFBE4}" name="Column265"/>
-    <tableColumn id="266" xr3:uid="{EAE54BF4-F474-BB41-B04B-0F193B2781B7}" name="Column266"/>
-    <tableColumn id="267" xr3:uid="{4136F73F-9F36-A349-B884-14B6413EAEF3}" name="Column267"/>
-    <tableColumn id="268" xr3:uid="{1C90ECE6-AD9A-FE46-8B92-7244183FD9E3}" name="Column268"/>
-    <tableColumn id="269" xr3:uid="{6F69009D-8BAE-1748-9BDA-7999735BE765}" name="Column269"/>
-    <tableColumn id="270" xr3:uid="{B94C517F-4A58-CC46-8574-952A9517B90F}" name="Column270"/>
-    <tableColumn id="271" xr3:uid="{AA64AF95-C65D-4C4A-AF8B-0E0911000821}" name="Column271"/>
-    <tableColumn id="272" xr3:uid="{BAD866EF-5916-B44D-8382-53CFC50F266D}" name="Column272"/>
-    <tableColumn id="273" xr3:uid="{3C77F8DC-2BA8-AF48-B03E-B0A80A3C81E0}" name="Column273"/>
-    <tableColumn id="274" xr3:uid="{510C6E6B-313E-0A47-8B9F-D3625584BB5C}" name="Column274"/>
-    <tableColumn id="275" xr3:uid="{E48A48D3-839B-4341-80AD-5812DA2F2A34}" name="Column275"/>
-    <tableColumn id="276" xr3:uid="{1F1A6145-B0EF-8849-BF5A-1DDB6D243D37}" name="Column276"/>
-    <tableColumn id="277" xr3:uid="{A1D46466-DB16-DE42-ACC0-DF26223FA181}" name="Column277"/>
-    <tableColumn id="278" xr3:uid="{350F3E35-00AB-3E40-A072-98E5CB8F5167}" name="Column278"/>
-    <tableColumn id="279" xr3:uid="{40082386-22CE-1D4A-9868-C68EBB67C5F5}" name="Column279"/>
-    <tableColumn id="280" xr3:uid="{D5B3927D-E6D4-6844-9E2A-29FF0A8CF3E5}" name="Column280"/>
-    <tableColumn id="281" xr3:uid="{3AC8489B-A319-F64F-9997-703EF4324A6B}" name="Column281"/>
-    <tableColumn id="282" xr3:uid="{4F0EF76A-21DA-4240-9B4D-7C2B130591D9}" name="Column282"/>
-    <tableColumn id="283" xr3:uid="{8BF4A34D-6EA7-0F4B-9ED9-1E2C63BB0899}" name="Column283"/>
-    <tableColumn id="284" xr3:uid="{E22CE957-46E2-644A-AFC6-D2B83B2535A6}" name="Column284"/>
-    <tableColumn id="285" xr3:uid="{B08DE4C8-4A0F-A741-A346-8B402502DB89}" name="Column285"/>
-    <tableColumn id="286" xr3:uid="{ADFF900D-4F31-A344-9658-37794A92EA6C}" name="Column286"/>
-    <tableColumn id="287" xr3:uid="{B1472537-7655-4E46-A46B-46ACFFC14760}" name="Column287"/>
-    <tableColumn id="288" xr3:uid="{D13D33E1-17A4-CD4E-A0DF-E363C6A58A8E}" name="Column288"/>
-    <tableColumn id="289" xr3:uid="{AD1FC9F5-A922-E04C-802E-23080476D333}" name="Column289"/>
-    <tableColumn id="290" xr3:uid="{82B727A0-CF7F-F74D-BBD4-64510955E19E}" name="Column290"/>
-    <tableColumn id="291" xr3:uid="{BD45DE9D-2E8E-CE47-8A7C-9147F572697A}" name="Column291"/>
-    <tableColumn id="292" xr3:uid="{7290138B-D9B2-FB44-A42C-54C36C42131C}" name="Column292"/>
-    <tableColumn id="293" xr3:uid="{9ACFA05A-88E4-EF4D-A3C3-45D8FC05B3D0}" name="Column293"/>
-    <tableColumn id="294" xr3:uid="{5D3F350F-AEE9-AF4B-8198-D44E6C75D31B}" name="Column294"/>
-    <tableColumn id="295" xr3:uid="{7C36F683-6663-CD4B-AAF5-3CF2DCFA09C4}" name="Column295"/>
-    <tableColumn id="296" xr3:uid="{47A1797E-F769-DD4F-ACA5-CB60CF05F200}" name="Column296"/>
-    <tableColumn id="297" xr3:uid="{E7B022D9-F431-764C-A5F5-4D2891AA5075}" name="Column297"/>
-    <tableColumn id="298" xr3:uid="{59257B5F-B095-5043-A0E2-D328A98D6000}" name="Column298"/>
-    <tableColumn id="299" xr3:uid="{AD542F72-ED3E-A646-BF32-E62764BEC753}" name="Column299"/>
-    <tableColumn id="300" xr3:uid="{95FD3AC9-79BC-B743-884B-5FD48997DF81}" name="Column300"/>
-    <tableColumn id="301" xr3:uid="{89BB78BE-2073-B94E-8445-D85EA12164E6}" name="Column301"/>
-    <tableColumn id="302" xr3:uid="{F03FDD6C-DFDB-B348-8F05-4845D44F2F4E}" name="Column302"/>
-    <tableColumn id="303" xr3:uid="{71039063-A7ED-604A-AEF6-45C7240F653C}" name="Column303"/>
-    <tableColumn id="304" xr3:uid="{1F937334-5A23-CC44-A146-CF32F3B2E41B}" name="Column304"/>
-    <tableColumn id="305" xr3:uid="{C6AD8385-77C4-D341-A8CE-16A922CBBA60}" name="Column305"/>
-    <tableColumn id="306" xr3:uid="{FBDA1513-AA43-414F-A8CC-A490DA378013}" name="Column306"/>
-    <tableColumn id="307" xr3:uid="{B58AF42C-BD3B-2345-951F-EBE3BBF54B9D}" name="Column307"/>
-    <tableColumn id="308" xr3:uid="{177C22AE-22FC-AE4A-861A-62D29C608CAE}" name="Column308"/>
-    <tableColumn id="309" xr3:uid="{7FA08755-BF74-8F4F-900C-4931672D48F0}" name="Column309"/>
-    <tableColumn id="310" xr3:uid="{CEA02C39-CE40-4F4B-9766-255B8C4E007A}" name="Column310"/>
-    <tableColumn id="311" xr3:uid="{404CC3CF-F073-BD44-818F-E701F9EFF57C}" name="Column311"/>
-    <tableColumn id="312" xr3:uid="{F341F79D-2BB1-FC4E-903D-CFD7EAF097AD}" name="Column312"/>
-    <tableColumn id="313" xr3:uid="{069C052C-7393-D34F-A81A-78B234DB7B5F}" name="Column313"/>
-    <tableColumn id="314" xr3:uid="{A5206634-51BB-BA41-ABA4-B8523E794EFF}" name="Column314"/>
-    <tableColumn id="315" xr3:uid="{15DA1886-CFF7-4B4B-97E0-99791FF3D555}" name="Column315"/>
-    <tableColumn id="316" xr3:uid="{11F9E100-04E3-654B-B09A-E492460578E1}" name="Column316"/>
-    <tableColumn id="317" xr3:uid="{7ABD643A-D0F2-754F-A6DF-CFCD7B3EC6A5}" name="Column317"/>
-    <tableColumn id="318" xr3:uid="{16628BEC-28A7-584B-98AD-7C7B5E38690A}" name="Column318"/>
-    <tableColumn id="319" xr3:uid="{6041023F-4D77-1A4E-B9A4-8C3794A6DB9F}" name="Column319"/>
-    <tableColumn id="320" xr3:uid="{42156770-4CAD-494D-AEDA-58A71D311C66}" name="Column320"/>
-    <tableColumn id="321" xr3:uid="{FC7DC366-7888-C041-ACD6-28333C1D9D92}" name="Column321"/>
-    <tableColumn id="322" xr3:uid="{98F59389-8704-5F49-A784-BC9E4AEDE02E}" name="Column322"/>
-    <tableColumn id="323" xr3:uid="{61A6E5EF-DC8E-3146-82A4-CAE6A04376E4}" name="Column323"/>
-    <tableColumn id="324" xr3:uid="{94B0C702-0210-324F-83D5-8E3BDC55E3DC}" name="Column324"/>
-    <tableColumn id="325" xr3:uid="{1E1F4806-3B6D-DA44-B653-2217B0B48FDA}" name="Column325"/>
-    <tableColumn id="326" xr3:uid="{897125B5-6A38-0A45-A204-EA68C8B2215C}" name="Column326"/>
-    <tableColumn id="327" xr3:uid="{0F0E30C3-C48E-2D40-B13D-EA7682C6AC62}" name="Column327"/>
-    <tableColumn id="328" xr3:uid="{C5F70FC2-7332-0246-9B29-68684B4DEFA6}" name="Column328"/>
-    <tableColumn id="329" xr3:uid="{1E110154-C99C-5041-90BE-150BA3C1A8DA}" name="Column329"/>
-    <tableColumn id="330" xr3:uid="{5BD5B529-A5E3-8A41-BFC3-B59D05417414}" name="Column330"/>
-    <tableColumn id="331" xr3:uid="{FD771409-D260-6643-9B2C-32F4D0DDBD1A}" name="Column331"/>
-    <tableColumn id="332" xr3:uid="{918F4097-5B9B-0841-A0FF-91E9B0CDE125}" name="Column332"/>
-    <tableColumn id="333" xr3:uid="{BE5E8398-C686-BA44-BF86-4C46FCD234A4}" name="Column333"/>
-    <tableColumn id="334" xr3:uid="{42A5AAE6-3573-D042-895A-EA2E3F588111}" name="Column334"/>
-    <tableColumn id="335" xr3:uid="{EB812EBD-1CA5-B944-97B2-D17332C4D724}" name="Column335"/>
-    <tableColumn id="336" xr3:uid="{F6ECB41C-58FC-7C4F-9E1E-F42D7B912206}" name="Column336"/>
-    <tableColumn id="337" xr3:uid="{D995FA5E-6EEC-F742-BBEE-B8DCF87C05C1}" name="Column337"/>
-    <tableColumn id="338" xr3:uid="{581551DB-CEB3-5341-8463-4AF8042D5A8A}" name="Column338"/>
-    <tableColumn id="339" xr3:uid="{6907939B-83F2-5446-8A44-13E25FEE83E6}" name="Column339"/>
-    <tableColumn id="340" xr3:uid="{3BB587F5-BC2E-8243-B1A8-FED99637ECBE}" name="Column340"/>
-    <tableColumn id="341" xr3:uid="{EBD2D121-FC4A-4B4E-8B1C-68E2AAD2297B}" name="Column341"/>
-    <tableColumn id="342" xr3:uid="{7AF74F61-0996-AB48-8D7B-7B6E346E8812}" name="Column342"/>
-    <tableColumn id="343" xr3:uid="{ADF8A7D9-E5D5-F945-BAC9-D05E2832553F}" name="Column343"/>
-    <tableColumn id="344" xr3:uid="{BB899E49-946D-5647-AE06-D2CE38FCE2BA}" name="Column344"/>
-    <tableColumn id="345" xr3:uid="{E06323A9-5B85-544B-BF2E-71767E573927}" name="Column345"/>
-    <tableColumn id="346" xr3:uid="{4BF7AEE7-37F5-5343-91C2-7D8C8E953D6D}" name="Column346"/>
-    <tableColumn id="347" xr3:uid="{A5AC2CCC-CEDD-054C-9531-CB4113DE5BD7}" name="Column347"/>
-    <tableColumn id="348" xr3:uid="{B52C0462-300E-354D-B9DF-1A084F380A40}" name="Column348"/>
-    <tableColumn id="349" xr3:uid="{49A59A7F-D8DF-6744-A360-7B9CE189606F}" name="Column349"/>
-    <tableColumn id="350" xr3:uid="{130F2ECF-49C9-A746-ACD4-DB0B6BA1D87E}" name="Column350"/>
-    <tableColumn id="351" xr3:uid="{00259B30-56B4-DF4A-8F1C-23FAE28F2739}" name="Column351"/>
-    <tableColumn id="352" xr3:uid="{B7789EEB-9320-C948-AF8B-ECD02427DD6C}" name="Column352"/>
-    <tableColumn id="353" xr3:uid="{612F3592-A61D-BF46-BBD8-943DAAA21857}" name="Column353"/>
-    <tableColumn id="354" xr3:uid="{9B62A0BD-4310-FF47-AE09-012D2ABB019B}" name="Column354"/>
-    <tableColumn id="355" xr3:uid="{FAC5DA7D-590D-004C-97A4-D49EED823E05}" name="Column355"/>
-    <tableColumn id="356" xr3:uid="{34F1041A-9C98-5E45-A433-A3C096EA0627}" name="Column356"/>
-    <tableColumn id="357" xr3:uid="{68C11A43-CAB4-0E41-AB5F-80848B53C19F}" name="Column357"/>
-    <tableColumn id="358" xr3:uid="{B68679C7-3622-B046-B3C4-07EB3B2D9E03}" name="Column358"/>
-    <tableColumn id="359" xr3:uid="{54419F16-DF44-2849-8E94-4A7078CA471A}" name="Column359"/>
-    <tableColumn id="360" xr3:uid="{4C862274-7EDD-AD4B-A0FA-AFDD07121019}" name="Column360"/>
-    <tableColumn id="361" xr3:uid="{E62317BD-3FA4-8945-A43F-D5081B7EFF90}" name="Column361"/>
-    <tableColumn id="362" xr3:uid="{9824F470-71B4-7D41-A753-2CC2EFDA5F06}" name="Column362"/>
-    <tableColumn id="363" xr3:uid="{7312CC7A-94D3-AE4E-975D-A0E2ECF47E25}" name="Column363"/>
-    <tableColumn id="364" xr3:uid="{2A13390F-C836-104A-B757-67EB32B6A81B}" name="Column364"/>
-    <tableColumn id="365" xr3:uid="{479D7457-7A40-9243-94A6-3100B38FEEAC}" name="Column365"/>
-    <tableColumn id="366" xr3:uid="{7AE26645-2D06-1943-8FBB-E60C13137485}" name="Column366"/>
-    <tableColumn id="367" xr3:uid="{AEFBD50E-3A44-E848-BAC2-7D0C5F213B37}" name="Column367"/>
-    <tableColumn id="368" xr3:uid="{5B92CFEC-C678-9549-9839-06ED81B2B077}" name="Column368"/>
-    <tableColumn id="369" xr3:uid="{53A408FB-A599-294E-BB5C-46229E5B4687}" name="Column369"/>
-    <tableColumn id="370" xr3:uid="{D1D84D40-959B-4648-B72D-7F11688004DD}" name="Column370"/>
-    <tableColumn id="371" xr3:uid="{2E71DD1B-C0EE-1C43-BD0D-70A8708223E2}" name="Column371"/>
-    <tableColumn id="372" xr3:uid="{CB071A5A-50E3-AC4F-BC0B-FA20366B0ACA}" name="Column372"/>
-    <tableColumn id="373" xr3:uid="{7DD3B1C3-C8EA-6845-9C87-81E9F2572021}" name="Column373"/>
-    <tableColumn id="374" xr3:uid="{FFE691AF-61C1-8349-9474-BA3623FB3E0F}" name="Column374"/>
-    <tableColumn id="375" xr3:uid="{03EE3471-7434-6A4D-893E-8A30B8C83FF6}" name="Column375"/>
-    <tableColumn id="376" xr3:uid="{19014C68-B2B4-4045-9C9A-4EC17AAC36F7}" name="Column376"/>
-    <tableColumn id="377" xr3:uid="{184921DC-B633-AB47-B171-ADD25EB8DED4}" name="Column377"/>
-    <tableColumn id="378" xr3:uid="{7427616F-7BB9-A94B-8C69-589BFF788B24}" name="Column378"/>
-    <tableColumn id="379" xr3:uid="{C9FEB16B-C0F2-1743-9944-44C0FD94D3D3}" name="Column379"/>
-    <tableColumn id="380" xr3:uid="{7C7F412F-7220-794E-BCDD-B721F61F30CE}" name="Column380"/>
-    <tableColumn id="381" xr3:uid="{A1E0A88E-8CB3-AB4B-B98B-47F56C70C9B5}" name="Column381"/>
-    <tableColumn id="382" xr3:uid="{B9146993-144E-0048-926E-694FBF12AF5F}" name="Column382"/>
-    <tableColumn id="383" xr3:uid="{42F9C91E-597F-534E-9050-6163C7264214}" name="Column383"/>
-    <tableColumn id="384" xr3:uid="{73FC620C-BA27-184E-8DEC-6F7499DB818F}" name="Column384"/>
-    <tableColumn id="385" xr3:uid="{22D29B49-A037-974A-8217-DCCF40CF9F4A}" name="Column385"/>
-    <tableColumn id="386" xr3:uid="{D0C54349-9D12-DB44-B36C-3D4DCD05BC22}" name="Column386"/>
-    <tableColumn id="387" xr3:uid="{46EFC407-08D2-1F46-ABB7-0D5D282FF390}" name="Column387"/>
-    <tableColumn id="388" xr3:uid="{F51261C1-34D7-6B4C-8AFE-FB4E2BDA40A8}" name="Column388"/>
-    <tableColumn id="389" xr3:uid="{8B041C69-E6B1-7242-8123-BDD2D57C59C2}" name="Column389"/>
-    <tableColumn id="390" xr3:uid="{7F62E9AF-3D73-344B-B854-FFB07D321C99}" name="Column390"/>
-    <tableColumn id="391" xr3:uid="{2127E3F3-5A46-1F43-8F0C-738FCFC023DC}" name="Column391"/>
-    <tableColumn id="392" xr3:uid="{126DBC5D-445F-DF49-9734-DD9715E110AC}" name="Column392"/>
-    <tableColumn id="393" xr3:uid="{7FEFD2A7-C7C2-9946-9D9A-6760C864A7F7}" name="Column393"/>
-    <tableColumn id="394" xr3:uid="{10FCF5E2-DA8D-9C42-A0D1-E806C0ECF90C}" name="Column394"/>
-    <tableColumn id="395" xr3:uid="{600C3F84-9DAE-2B45-A4BB-BE030A2CB82B}" name="Column395"/>
-    <tableColumn id="396" xr3:uid="{929F0CE2-788B-6D42-99D8-ADD1F51A7B47}" name="Column396"/>
-    <tableColumn id="397" xr3:uid="{B377362D-86CB-DC4F-BEE0-6D89862F359F}" name="Column397"/>
-    <tableColumn id="398" xr3:uid="{B277D0FD-D471-664D-ADF6-0D9179CFCD6B}" name="Column398"/>
-    <tableColumn id="399" xr3:uid="{6098EC52-CE54-0E49-91B2-552FE8E30EC7}" name="Column399"/>
-    <tableColumn id="400" xr3:uid="{60849AD3-D599-BF4F-ADDA-17B3118C7EAD}" name="Column400"/>
-    <tableColumn id="401" xr3:uid="{A0E27E21-DDD2-EE4E-954C-81B89E7505EC}" name="Column401"/>
-    <tableColumn id="402" xr3:uid="{712CD0B4-78F2-DD43-9634-FD41122D81F5}" name="Column402"/>
-    <tableColumn id="403" xr3:uid="{BA0F8C45-5F15-6C4B-9026-070DADF9FA12}" name="Column403"/>
-    <tableColumn id="404" xr3:uid="{3CCB1D07-0ADE-EC43-93D3-56D34B4FB989}" name="Column404"/>
-    <tableColumn id="405" xr3:uid="{3327B3A4-DA3D-6148-BC93-356DCA4844D7}" name="Column405"/>
-    <tableColumn id="406" xr3:uid="{13F4CA88-9BE6-254F-AA8D-94CBD78B5179}" name="Column406"/>
-    <tableColumn id="407" xr3:uid="{FEDF58F8-3A9C-B843-9EB6-9277D6D30C15}" name="Column407"/>
-    <tableColumn id="408" xr3:uid="{EA806579-0A9A-6F49-A9D8-EF70261DAC35}" name="Column408"/>
-    <tableColumn id="409" xr3:uid="{18D4BCB2-BE3E-DD44-9609-016239FDE442}" name="Column409"/>
-    <tableColumn id="410" xr3:uid="{0116D7D7-064A-374B-9180-2B19E99A23C5}" name="Column410"/>
-    <tableColumn id="411" xr3:uid="{507A079B-53C7-4443-80C8-94AE53D1658E}" name="Column411"/>
-    <tableColumn id="412" xr3:uid="{C83838F7-EFE2-0240-8966-E01A86A3B6B4}" name="Column412"/>
-    <tableColumn id="413" xr3:uid="{27AAB9A7-18C4-AB40-B135-492F4CBCF320}" name="Column413"/>
-    <tableColumn id="414" xr3:uid="{071D0D66-06A4-B14A-88F7-8FE9BCE12FB2}" name="Column414"/>
-    <tableColumn id="415" xr3:uid="{B28241FA-9393-E246-806C-DE34A9CE8179}" name="Column415"/>
-    <tableColumn id="416" xr3:uid="{CAAA1643-213C-A54E-85DA-6568CA7289AD}" name="Column416"/>
-    <tableColumn id="417" xr3:uid="{D7E3F114-A40F-974C-9E5D-0AC1A1F809BA}" name="Column417"/>
-    <tableColumn id="418" xr3:uid="{EFEB7B9A-C5F5-0848-987C-BB2EB14FC2A4}" name="Column418"/>
-    <tableColumn id="419" xr3:uid="{1BBA0AFF-2ACD-1B45-83BA-B057AED2132B}" name="Column419"/>
-    <tableColumn id="420" xr3:uid="{54633536-19B7-A441-A218-B8C8C9F004DF}" name="Column420"/>
-    <tableColumn id="421" xr3:uid="{870A88D0-260F-2243-8D5E-20A898E1E678}" name="Column421"/>
-    <tableColumn id="422" xr3:uid="{83BC951B-6162-BB48-A94B-C17EDE028283}" name="Column422"/>
-    <tableColumn id="423" xr3:uid="{978648A2-52FC-9E4F-B51B-E9A8635C1126}" name="Column423"/>
-    <tableColumn id="424" xr3:uid="{4B59233B-1097-2240-93C6-4FA25D255271}" name="Column424"/>
-    <tableColumn id="425" xr3:uid="{E1D8D1B9-2BA5-3D45-9695-65E6FEE874A5}" name="Column425"/>
-    <tableColumn id="426" xr3:uid="{4F2B8D19-2E64-9741-9227-6F0CDE6B2FE6}" name="Column426"/>
-    <tableColumn id="427" xr3:uid="{27C98913-0E45-8549-B2E8-1143F0F439A5}" name="Column427"/>
-    <tableColumn id="428" xr3:uid="{1E653D74-D884-AB4E-B732-D9D12E34C98F}" name="Column428"/>
-    <tableColumn id="429" xr3:uid="{86A8F49F-EBD1-6D40-862D-58E1F2FD757A}" name="Column429"/>
-    <tableColumn id="430" xr3:uid="{C1049B69-F35B-8244-84C4-86C6877DCE81}" name="Column430"/>
-    <tableColumn id="431" xr3:uid="{2804272B-3CB0-0649-9900-B2800DD7B887}" name="Column431"/>
-    <tableColumn id="432" xr3:uid="{80BD5575-4A4E-1446-988C-7B8250243368}" name="Column432"/>
-    <tableColumn id="433" xr3:uid="{B884FBE5-44FE-3245-BC9E-77033227AC28}" name="Column433"/>
-    <tableColumn id="434" xr3:uid="{4ED839DF-8264-ED42-B33C-D146E417D6F1}" name="Column434"/>
-    <tableColumn id="435" xr3:uid="{D8DCEF3F-69F6-0748-931B-BF417C771972}" name="Column435"/>
-    <tableColumn id="436" xr3:uid="{F3535242-F2CE-F943-8203-74A99AF7E967}" name="Column436"/>
-    <tableColumn id="437" xr3:uid="{4E0A3C55-A5F6-ED44-9A83-B7D6C3F885C0}" name="Column437"/>
-    <tableColumn id="438" xr3:uid="{6B75BF3A-FAE4-9743-A42D-66170DC059E2}" name="Column438"/>
-    <tableColumn id="439" xr3:uid="{D4011CAE-C938-CA47-A0AF-296336414574}" name="Column439"/>
-    <tableColumn id="440" xr3:uid="{9ACFA8F6-02E8-F74E-B2CE-684B9ACB5840}" name="Column440"/>
-    <tableColumn id="441" xr3:uid="{856DE7F9-27CD-184D-A9A9-15C3D8F37837}" name="Column441"/>
-    <tableColumn id="442" xr3:uid="{1E02933B-AAE6-C047-86F1-3C2025D63D5A}" name="Column442"/>
-    <tableColumn id="443" xr3:uid="{BABF2532-4B79-4B4A-80A7-B04C23A14EA5}" name="Column443"/>
-    <tableColumn id="444" xr3:uid="{0C22EE4C-F93E-5B44-8E85-959E7F4CC468}" name="Column444"/>
-    <tableColumn id="445" xr3:uid="{62CD8487-8910-1E46-BABB-4E9EADF80FBF}" name="Column445"/>
-    <tableColumn id="446" xr3:uid="{060DC4FB-44F8-7941-BEBC-44C8AAAB1A95}" name="Column446"/>
-    <tableColumn id="447" xr3:uid="{D14888A8-DB2F-FE44-9DEA-EB74F3510986}" name="Column447"/>
-    <tableColumn id="448" xr3:uid="{26146082-DAD3-A244-879B-B84AADA45F61}" name="Column448"/>
-    <tableColumn id="449" xr3:uid="{4C530F40-31AB-5A48-A1A7-4C303DDAC000}" name="Column449"/>
-    <tableColumn id="450" xr3:uid="{93F5BC1F-8955-B54E-8ACB-65F0460AF496}" name="Column450"/>
-    <tableColumn id="451" xr3:uid="{40DD4EFE-4A44-6946-9A57-A7AB0D4C7F14}" name="Column451"/>
-    <tableColumn id="452" xr3:uid="{1FD0C0EC-6BDD-2B4E-9FC4-93CE1D309FF7}" name="Column452"/>
-    <tableColumn id="453" xr3:uid="{549688CC-E706-D840-A378-E4B62B0EB719}" name="Column453"/>
-    <tableColumn id="454" xr3:uid="{FECEB83B-BC0D-6E45-9FF3-0E67B4552874}" name="Column454"/>
-    <tableColumn id="455" xr3:uid="{A1558DC0-3D5C-D24B-ACD4-FA259C0FF028}" name="Column455"/>
-    <tableColumn id="456" xr3:uid="{52C12D02-71D2-1346-84BC-547A9F079873}" name="Column456"/>
-    <tableColumn id="457" xr3:uid="{A83BBE34-0645-6449-9497-B5FA2FEE25F2}" name="Column457"/>
-    <tableColumn id="458" xr3:uid="{6D523D6C-D718-AB40-B4E2-925FF71D105C}" name="Column458"/>
-    <tableColumn id="459" xr3:uid="{DB3DF019-05A5-9F4F-8BB7-FBD7BA9F7639}" name="Column459"/>
-    <tableColumn id="460" xr3:uid="{4D807C06-0ED0-D24D-9B29-BFBC71F4C771}" name="Column460"/>
-    <tableColumn id="461" xr3:uid="{24E0FD14-BCD8-C24F-A5DC-EA86A92E6E1D}" name="Column461"/>
-    <tableColumn id="462" xr3:uid="{85FE433F-5E54-E04A-9E3E-2AE62D1E8127}" name="Column462"/>
-    <tableColumn id="463" xr3:uid="{11541446-A254-F64E-8D74-F46D26D34AC3}" name="Column463"/>
-    <tableColumn id="464" xr3:uid="{5FBD7FD2-B570-D641-932D-5C5D7A10A2C7}" name="Column464"/>
-    <tableColumn id="465" xr3:uid="{A76721AC-DBAA-4448-B57E-55BAA0CFDBF1}" name="Column465"/>
-    <tableColumn id="466" xr3:uid="{0613B8F8-4CD1-9E4E-A552-FD24F5E4892B}" name="Column466"/>
-    <tableColumn id="467" xr3:uid="{F9958E25-EFD2-0B42-B117-FCB6FEB30160}" name="Column467"/>
-    <tableColumn id="468" xr3:uid="{499BD7D2-6252-3043-87E6-61ED83AB60E5}" name="Column468"/>
-    <tableColumn id="469" xr3:uid="{54E47A08-6EFF-9244-8208-CB4DD84161B8}" name="Column469"/>
-    <tableColumn id="470" xr3:uid="{1985AF83-5864-D643-91C9-EED2F25BE0CF}" name="Column470"/>
-    <tableColumn id="471" xr3:uid="{6859DA1E-558E-0C49-81F0-32BE6EB23511}" name="Column471"/>
-    <tableColumn id="472" xr3:uid="{08CEF57C-F7BE-1A42-8B5D-224AD50ABEFC}" name="Column472"/>
-    <tableColumn id="473" xr3:uid="{27371879-CAD5-0F4C-8BDC-65FFBF88801C}" name="Column473"/>
-    <tableColumn id="474" xr3:uid="{958192A8-6EE5-D84A-ACAF-4D49B6EB168A}" name="Column474"/>
-    <tableColumn id="475" xr3:uid="{3CAD38B5-F233-914E-89EB-E5752C5A2A83}" name="Column475"/>
-    <tableColumn id="476" xr3:uid="{FD777F67-DE4C-B447-BA3F-DBD5EA5A1FFC}" name="Column476"/>
-    <tableColumn id="477" xr3:uid="{A613B186-9C83-BA41-BFC2-3040CAE5EB94}" name="Column477"/>
-    <tableColumn id="478" xr3:uid="{BBAEC1D1-ED4D-2E42-90A6-09978E5DFB7B}" name="Column478"/>
-    <tableColumn id="479" xr3:uid="{824600C0-1B2F-4641-A972-6D741CA94B1A}" name="Column479"/>
-    <tableColumn id="480" xr3:uid="{2FC9F4B3-56B2-5A49-B749-2506D959063E}" name="Column480"/>
-    <tableColumn id="481" xr3:uid="{2F0A7A7A-F2C6-254A-9974-8BDD2F6761FF}" name="Column481"/>
-    <tableColumn id="482" xr3:uid="{578F4966-9169-D342-8428-53CDA6120BAE}" name="Column482"/>
-    <tableColumn id="483" xr3:uid="{DDB1DCAB-2380-C546-B7A1-1F042262D6BA}" name="Column483"/>
-    <tableColumn id="484" xr3:uid="{F8165934-DC07-0241-B437-F69A773A93CA}" name="Column484"/>
-    <tableColumn id="485" xr3:uid="{BCE3697C-8E94-6849-B7B6-1462A267FC92}" name="Column485"/>
-    <tableColumn id="486" xr3:uid="{4A774831-DDF5-8C47-AF3B-535E7C0FAFC0}" name="Column486"/>
-    <tableColumn id="487" xr3:uid="{17BCB217-EB5A-BB43-B0C1-35E0C9157BF7}" name="Column487"/>
-    <tableColumn id="488" xr3:uid="{46C25758-1BFF-F44A-8283-6B9CA8565A2E}" name="Column488"/>
-    <tableColumn id="489" xr3:uid="{050C4841-5F0C-8F4D-B836-EB4CD836F487}" name="Column489"/>
-    <tableColumn id="490" xr3:uid="{77E175F3-3BC6-2E4E-BD64-D1B504271B2E}" name="Column490"/>
-    <tableColumn id="491" xr3:uid="{B3F99938-E34E-7649-9BF2-4EBE7B1E5823}" name="Column491"/>
-    <tableColumn id="492" xr3:uid="{08F64290-15F5-1444-B2CE-F0BBF39C56B7}" name="Column492"/>
-    <tableColumn id="493" xr3:uid="{2120E2A7-A54C-894C-9664-70DF2D12E219}" name="Column493"/>
-    <tableColumn id="494" xr3:uid="{E8EDAB68-B804-654F-997C-F78B9E8EB1E2}" name="Column494"/>
-    <tableColumn id="495" xr3:uid="{F88A7B69-2932-0641-86B1-55297F571823}" name="Column495"/>
-    <tableColumn id="496" xr3:uid="{EBCBE78E-7953-F043-BB93-42DD7434FA2F}" name="Column496"/>
-    <tableColumn id="497" xr3:uid="{FEC59717-C939-9343-903B-FDDF8512FC89}" name="Column497"/>
-    <tableColumn id="498" xr3:uid="{32DFB846-7A2B-9445-BE09-F9535005EF5C}" name="Column498"/>
-    <tableColumn id="499" xr3:uid="{ACA815F4-BCF6-DB46-AEEA-C72369DAE78D}" name="Column499"/>
-    <tableColumn id="500" xr3:uid="{A3E75C9B-043E-D54F-AE53-4F943D2BC695}" name="Column500"/>
-    <tableColumn id="501" xr3:uid="{4A1E1FF5-0E48-8B4A-A68F-A757FA16E929}" name="Column501"/>
-    <tableColumn id="502" xr3:uid="{3D6B8FF3-F58C-6041-A4B4-63637A042E68}" name="Column502"/>
-    <tableColumn id="503" xr3:uid="{9C0F942A-F90A-0B48-8E40-F7142491E101}" name="Column503"/>
-    <tableColumn id="504" xr3:uid="{FAE6802F-8D20-5943-AA3C-7B91309EB4B2}" name="Column504"/>
-    <tableColumn id="505" xr3:uid="{59DDE02F-2339-C34F-8185-CFC3BBB53B64}" name="Column505"/>
-    <tableColumn id="506" xr3:uid="{A854A8AF-8CEF-764E-9D4B-1A2AE6A6CA11}" name="Column506"/>
-    <tableColumn id="507" xr3:uid="{A52C9BE8-72E7-444F-BCCA-0F50A4760007}" name="Column507"/>
-    <tableColumn id="508" xr3:uid="{5B34564E-AFE3-6148-9A87-7A58C13D359A}" name="Column508"/>
-    <tableColumn id="509" xr3:uid="{7279D403-6A73-8B45-922F-B06ACA1CC7F3}" name="Column509"/>
-    <tableColumn id="510" xr3:uid="{9063D91B-58C0-734A-AF18-6D572FD3C2DC}" name="Column510"/>
-    <tableColumn id="511" xr3:uid="{D80740E5-96E8-7A42-9C5C-64CE5A9E1A8B}" name="Column511"/>
-    <tableColumn id="512" xr3:uid="{DDFE86C6-5455-4042-8284-FDC438B5609A}" name="Column512"/>
-    <tableColumn id="513" xr3:uid="{73C5246A-0C52-8344-97B9-2B9905904860}" name="Column513"/>
-    <tableColumn id="514" xr3:uid="{AC59C3A0-C902-2042-A06C-505D794EAEED}" name="Column514"/>
-    <tableColumn id="515" xr3:uid="{F27CBED6-9568-8E4B-8F5F-855B02313172}" name="Column515"/>
-    <tableColumn id="516" xr3:uid="{967518C5-7893-F74E-BFE0-286D2C2012BB}" name="Column516"/>
-    <tableColumn id="517" xr3:uid="{6783D09F-7CB9-584E-9200-892D3442AFE3}" name="Column517"/>
-    <tableColumn id="518" xr3:uid="{9193EE94-0158-8B41-992E-DDFBCF652BA9}" name="Column518"/>
-    <tableColumn id="519" xr3:uid="{00CB9BCE-296C-F042-9B8A-F4377D0C0F7A}" name="Column519"/>
-    <tableColumn id="520" xr3:uid="{053F6579-B759-FF4D-9482-3044BEB2A6C4}" name="Column520"/>
-    <tableColumn id="521" xr3:uid="{5304B64F-7645-1C46-8D37-56A2CF8A38C2}" name="Column521"/>
-    <tableColumn id="522" xr3:uid="{6EE2DEAF-A38A-4E4D-ADC5-774A72ECBC0B}" name="Column522"/>
-    <tableColumn id="523" xr3:uid="{C80ADDD6-DC49-E941-AA0F-9ACC9A9170C6}" name="Column523"/>
-    <tableColumn id="524" xr3:uid="{107B901A-FD80-8B40-BE8C-6E7A662FAE38}" name="Column524"/>
-    <tableColumn id="525" xr3:uid="{6A0BCAD0-14EA-A948-B9B9-21B3E1BF261B}" name="Column525"/>
-    <tableColumn id="526" xr3:uid="{C2166B06-D584-0B4D-84B3-E5D73BB5126F}" name="Column526"/>
-    <tableColumn id="527" xr3:uid="{AE2BC27C-7479-914A-AFE0-41597007983E}" name="Column527"/>
-    <tableColumn id="528" xr3:uid="{E9FF209F-D283-2743-A027-609421496187}" name="Column528"/>
-    <tableColumn id="529" xr3:uid="{2A871228-E095-3C43-8E45-C4C9F9286AFC}" name="Column529"/>
-    <tableColumn id="530" xr3:uid="{AEE45907-B753-AC41-AD75-7941F49BF85C}" name="Column530"/>
-    <tableColumn id="531" xr3:uid="{C885A5A6-45BE-234C-B611-CB4761277DA4}" name="Column531"/>
-    <tableColumn id="532" xr3:uid="{52D85BB6-39AF-CA4C-853B-7C018977BA3E}" name="Column532"/>
-    <tableColumn id="533" xr3:uid="{C4AA3A8E-B55D-5546-850F-72548F3B4862}" name="Column533"/>
-    <tableColumn id="534" xr3:uid="{CE8735F8-F678-6243-83A9-AA3596E4B003}" name="Column534"/>
-    <tableColumn id="535" xr3:uid="{741E9725-D97F-0641-B9DE-85982A6F42C6}" name="Column535"/>
-    <tableColumn id="536" xr3:uid="{5C43C452-0D59-D048-89FD-0FB7A7C69D33}" name="Column536"/>
-    <tableColumn id="537" xr3:uid="{1D293A30-C0D4-8D4A-B81C-1138F8C950EF}" name="Column537"/>
-    <tableColumn id="538" xr3:uid="{D0D522C6-8538-2246-BA16-8918957864B7}" name="Column538"/>
-    <tableColumn id="539" xr3:uid="{E6EC4E79-2016-034E-9889-054C6BD2EC5B}" name="Column539"/>
-    <tableColumn id="540" xr3:uid="{F448CB72-2C6B-594A-A82A-0257B3162100}" name="Column540"/>
-    <tableColumn id="541" xr3:uid="{8344DCBE-3DC9-254D-8726-14342F786D0D}" name="Column541"/>
-    <tableColumn id="542" xr3:uid="{4D3C20EC-3319-2C49-9C4E-84D50FAAB1AF}" name="Column542"/>
-    <tableColumn id="543" xr3:uid="{48423A6A-7CCF-704E-A05D-855BC3B37DFF}" name="Column543"/>
-    <tableColumn id="544" xr3:uid="{2FDFC0ED-F753-094A-AE3B-F5AB72CA4F71}" name="Column544"/>
-    <tableColumn id="545" xr3:uid="{A7BC3A11-9D0C-4C43-A040-091FAD911DFE}" name="Column545"/>
-    <tableColumn id="546" xr3:uid="{623F235E-14F5-D445-BE58-7BD3286864FF}" name="Column546"/>
-    <tableColumn id="547" xr3:uid="{07627411-04F3-FB4A-BA23-BCA1D68E4FE1}" name="Column547"/>
-    <tableColumn id="548" xr3:uid="{A0CE3F86-739F-DC4F-BF6A-4E68EE6FF6A6}" name="Column548"/>
-    <tableColumn id="549" xr3:uid="{48EFA8E8-8F14-9B4B-A89D-0768BB8C91E6}" name="Column549"/>
-    <tableColumn id="550" xr3:uid="{D8EDCAEC-32DB-C043-BE3E-EB61FD9F0C78}" name="Column550"/>
-    <tableColumn id="551" xr3:uid="{EC705914-2DC4-E646-BE44-CE43C4273CB9}" name="Column551"/>
-    <tableColumn id="552" xr3:uid="{8E1CF621-E256-1545-B90A-CE78ECA094D5}" name="Column552"/>
-    <tableColumn id="553" xr3:uid="{6BACF7DC-857F-D848-86B4-D172F4FFB988}" name="Column553"/>
-    <tableColumn id="554" xr3:uid="{080F2AC0-B089-C94E-9C5E-1016B03CE299}" name="Column554"/>
-    <tableColumn id="555" xr3:uid="{12656203-EBD8-D846-99AE-86BA4C9E4546}" name="Column555"/>
-    <tableColumn id="556" xr3:uid="{10D5D6DC-B8F6-6D4B-AF93-2CE7948E5C68}" name="Column556"/>
-    <tableColumn id="557" xr3:uid="{002FF9FA-7211-3E4E-986D-1D3BB1BC5ADF}" name="Column557"/>
-    <tableColumn id="558" xr3:uid="{E39F70B2-8CC3-D64E-9689-DBB8E1F965C7}" name="Column558"/>
-    <tableColumn id="559" xr3:uid="{D71C5392-893F-E746-9203-72CAA6265F48}" name="Column559"/>
-    <tableColumn id="560" xr3:uid="{B932FD70-31F6-CE4B-97B6-17D34EF9F1F7}" name="Column560"/>
-    <tableColumn id="561" xr3:uid="{6BF3761F-FBB7-FE4B-9C97-90A53EB7B6B4}" name="Column561"/>
-    <tableColumn id="562" xr3:uid="{30DCF06D-5783-5446-81FC-0FB82442906B}" name="Column562"/>
-    <tableColumn id="563" xr3:uid="{5D38D616-6169-C94E-977B-160801025DC2}" name="Column563"/>
-    <tableColumn id="564" xr3:uid="{60F1739C-415F-1C4F-94A3-9BB2B5560B12}" name="Column564"/>
-    <tableColumn id="565" xr3:uid="{25072D8A-CCA7-C341-AE6D-9B143413DAEC}" name="Column565"/>
-    <tableColumn id="566" xr3:uid="{CA9D1BAE-5E42-9848-8C05-FDA0E83A797C}" name="Column566"/>
-    <tableColumn id="567" xr3:uid="{E6CD307C-A107-344B-90DD-7C1333E11A1C}" name="Column567"/>
-    <tableColumn id="568" xr3:uid="{F474EE55-9AC3-E94E-987D-3BEFEA2F8AB6}" name="Column568"/>
-    <tableColumn id="569" xr3:uid="{23E873B1-8AA2-2540-84E6-A02A4A0AD10A}" name="Column569"/>
-    <tableColumn id="570" xr3:uid="{2AC8D96B-FD8F-0741-B4E3-69C29012B447}" name="Column570"/>
-    <tableColumn id="571" xr3:uid="{E4E499C0-064E-6646-A1F9-75B302A41E4A}" name="Column571"/>
-    <tableColumn id="572" xr3:uid="{3B9A8EF5-E1D1-7F4E-8C1C-9E90BFBCA36D}" name="Column572"/>
-    <tableColumn id="573" xr3:uid="{A2960703-1044-6F40-A2F2-70247729A1E6}" name="Column573"/>
-    <tableColumn id="574" xr3:uid="{9841454E-B587-0441-BE3F-D56B383057F4}" name="Column574"/>
-    <tableColumn id="575" xr3:uid="{6FBFCEC3-4E03-A842-9E05-F20278FE83A7}" name="Column575"/>
-    <tableColumn id="576" xr3:uid="{08DA4ECD-3EB8-9845-828A-26E5F84AA3BC}" name="Column576"/>
-    <tableColumn id="577" xr3:uid="{52CF8C52-2DFC-5E44-8FBC-4A22A8B0EEAC}" name="Column577"/>
-    <tableColumn id="578" xr3:uid="{CF5AAACB-2A62-ED4D-A832-16E2A5555D14}" name="Column578"/>
-    <tableColumn id="579" xr3:uid="{96AF0704-3539-D849-B906-BC6D41529E63}" name="Column579"/>
-    <tableColumn id="580" xr3:uid="{68A03CF1-62D7-A24B-9149-AC53C9FB493A}" name="Column580"/>
-    <tableColumn id="581" xr3:uid="{F7428992-3187-4D45-813C-182D6CE71F76}" name="Column581"/>
-    <tableColumn id="582" xr3:uid="{B21D0668-015D-E84F-A16D-A773D1DBED6A}" name="Column582"/>
-    <tableColumn id="583" xr3:uid="{71B18978-88DA-8743-B2E0-A2D7F61467EA}" name="Column583"/>
-    <tableColumn id="584" xr3:uid="{FBAE118E-17C6-5E45-8325-9AE9ECB3121E}" name="Column584"/>
-    <tableColumn id="585" xr3:uid="{ECDDD27E-38C6-C54E-9FFC-8AC3BA3D3D46}" name="Column585"/>
-    <tableColumn id="586" xr3:uid="{857130E7-E50B-7245-924E-36B322B7679F}" name="Column586"/>
-    <tableColumn id="587" xr3:uid="{8C6447FE-33F5-0A4E-B9F6-8BE5E42CCBE3}" name="Column587"/>
-    <tableColumn id="588" xr3:uid="{E428705B-EF0C-A342-AC5A-B8A9EEC05511}" name="Column588"/>
-    <tableColumn id="589" xr3:uid="{27D95571-6B57-3F4B-8E93-FECBD61E1BE3}" name="Column589"/>
-    <tableColumn id="590" xr3:uid="{EC0623EE-A85B-6B46-BCA1-3001210658A1}" name="Column590"/>
-    <tableColumn id="591" xr3:uid="{75823E23-39E9-994A-8802-CBEC0B25C740}" name="Column591"/>
-    <tableColumn id="592" xr3:uid="{970C8B11-4248-E642-9AF8-D243BB33304F}" name="Column592"/>
-    <tableColumn id="593" xr3:uid="{690029E3-55D9-4D46-B54F-8BD8A3CAC7B3}" name="Column593"/>
-    <tableColumn id="594" xr3:uid="{6135E821-3C2A-B649-BEFF-E90F38DC9241}" name="Column594"/>
-    <tableColumn id="595" xr3:uid="{71E3C124-D866-5A42-98E6-1D1D33300628}" name="Column595"/>
-    <tableColumn id="596" xr3:uid="{17F8F50F-5C26-C048-897A-3311C42832BA}" name="Column596"/>
-    <tableColumn id="597" xr3:uid="{D6BA05B8-8334-814B-9B28-71E091A4E651}" name="Column597"/>
-    <tableColumn id="598" xr3:uid="{3448F127-F460-1345-B893-29B269D2B1F1}" name="Column598"/>
-    <tableColumn id="599" xr3:uid="{12E52305-CE6E-1C48-8DC2-ED2B775C972C}" name="Column599"/>
-    <tableColumn id="600" xr3:uid="{A31319D6-3DC9-1245-86E7-C54266188878}" name="Column600"/>
-    <tableColumn id="601" xr3:uid="{43CDAF59-0E04-9C4B-AF14-0C6ADC141798}" name="Column601"/>
-    <tableColumn id="602" xr3:uid="{E0AAEE7B-39AE-D44F-9D69-8464EFDD14EF}" name="Column602"/>
-    <tableColumn id="603" xr3:uid="{0A0A57FE-1A33-1F46-BD44-6366B2FC9B64}" name="Column603"/>
-    <tableColumn id="604" xr3:uid="{1CD7DC8B-878C-484C-B3B2-C3FCDCE1BB00}" name="Column604"/>
-    <tableColumn id="605" xr3:uid="{EC6B789F-5C23-974E-AD90-53B7F7A8E81B}" name="Column605"/>
-    <tableColumn id="606" xr3:uid="{79752570-31E1-1E4E-9233-BF69AD516651}" name="Column606"/>
-    <tableColumn id="607" xr3:uid="{C9DD1C2D-C426-F940-B062-949F226A55F4}" name="Column607"/>
-    <tableColumn id="608" xr3:uid="{A83A785E-AA01-F448-8339-FCF099491DAA}" name="Column608"/>
-    <tableColumn id="609" xr3:uid="{7ACE111E-A2F3-334C-A2E8-512106B1F149}" name="Column609"/>
-    <tableColumn id="610" xr3:uid="{3233858E-0D53-934F-9EAC-3ACE4BCD6AF5}" name="Column610"/>
-    <tableColumn id="611" xr3:uid="{4F335026-9501-BE43-BDBE-18A1922F4B25}" name="Column611"/>
-    <tableColumn id="612" xr3:uid="{5D946391-6655-6340-918D-0D1C01B726C7}" name="Column612"/>
-    <tableColumn id="613" xr3:uid="{7B873B34-A715-C94B-B392-D27BAC203DAE}" name="Column613"/>
-    <tableColumn id="614" xr3:uid="{35132D1B-EF7F-5340-9E46-3EF12194289E}" name="Column614"/>
-    <tableColumn id="615" xr3:uid="{24F9D603-F852-4445-A27D-6CE82130414C}" name="Column615"/>
-    <tableColumn id="616" xr3:uid="{5ABC0C26-420B-ED4A-BC80-1E1B054A02AA}" name="Column616"/>
-    <tableColumn id="617" xr3:uid="{DD34F6BF-4A04-F440-B0ED-656F92B74AEA}" name="Column617"/>
-    <tableColumn id="618" xr3:uid="{2DF8599F-3C3D-BF46-9655-BDF209D72CEA}" name="Column618"/>
-    <tableColumn id="619" xr3:uid="{E45D7A1F-C773-F849-9AEF-0DA8AC6FC147}" name="Column619"/>
-    <tableColumn id="620" xr3:uid="{EC9E5B9B-5515-FB4A-BCAA-431F64A6C065}" name="Column620"/>
-    <tableColumn id="621" xr3:uid="{E9FC28AA-B84C-794B-8AF7-394D66746802}" name="Column621"/>
-    <tableColumn id="622" xr3:uid="{B1B8B5E0-EFB8-EA43-8B54-72DC30011204}" name="Column622"/>
-    <tableColumn id="623" xr3:uid="{5A5667DA-1506-C24C-8642-E2DD4026D7C5}" name="Column623"/>
-    <tableColumn id="624" xr3:uid="{842CEE98-78CC-C64D-8BAF-1C1F2B2BE932}" name="Column624"/>
-    <tableColumn id="625" xr3:uid="{4E6F73C0-04DE-A245-A80E-F9301AEAFE6D}" name="Column625"/>
-    <tableColumn id="626" xr3:uid="{7795782B-B682-014B-B081-6954AB86E89E}" name="Column626"/>
-    <tableColumn id="627" xr3:uid="{EF503A65-BB0B-C548-8518-4957F638567B}" name="Column627"/>
-    <tableColumn id="628" xr3:uid="{1547A421-DBB3-1F4E-A5FB-8030C9D55506}" name="Column628"/>
-    <tableColumn id="629" xr3:uid="{9BA6BC8D-8E43-2043-B0AC-33E44337158A}" name="Column629"/>
-    <tableColumn id="630" xr3:uid="{4729B4A0-2766-884E-9D5A-2D54A21F5FE1}" name="Column630"/>
-    <tableColumn id="631" xr3:uid="{F03CB5DF-5A81-9A4F-A48E-79F0A1BA7A9F}" name="Column631"/>
-    <tableColumn id="632" xr3:uid="{5E7332CE-68A5-AA48-A847-62F18F1FBB81}" name="Column632"/>
-    <tableColumn id="633" xr3:uid="{00F332DD-A01C-B344-9F2C-2F32C25441F4}" name="Column633"/>
-    <tableColumn id="634" xr3:uid="{7288788C-98D7-4E4C-9D30-57DB06911182}" name="Column634"/>
-    <tableColumn id="635" xr3:uid="{B9C2B652-D6FB-A344-943F-0CDAC67D8773}" name="Column635"/>
-    <tableColumn id="636" xr3:uid="{6DEE5D02-CA63-6A45-940D-610E63601914}" name="Column636"/>
-    <tableColumn id="637" xr3:uid="{25EB56EF-8B8E-7C44-99DA-50949C3C1D0D}" name="Column637"/>
-    <tableColumn id="638" xr3:uid="{6404F2E0-FA4E-434F-BA21-DC1AB1885123}" name="Column638"/>
-    <tableColumn id="639" xr3:uid="{B8FC2CF0-54F8-0746-BD33-1B740B26F10E}" name="Column639"/>
-    <tableColumn id="640" xr3:uid="{22513234-9044-8E44-BE40-6A2EAA9750AD}" name="Column640"/>
-    <tableColumn id="641" xr3:uid="{AEB4DB2A-F522-2A4D-AED7-8C0F264CE15C}" name="Column641"/>
-    <tableColumn id="642" xr3:uid="{C015EE0A-649B-704E-A527-5CF1393A8F8F}" name="Column642"/>
-    <tableColumn id="643" xr3:uid="{51B51A2F-48C2-644A-974E-B5306288DA85}" name="Column643"/>
-    <tableColumn id="644" xr3:uid="{F6B97F61-D216-DE47-9249-6E312F8CA569}" name="Column644"/>
-    <tableColumn id="645" xr3:uid="{F109BF6D-FF7B-284D-B5CB-01382BC04354}" name="Column645"/>
-    <tableColumn id="646" xr3:uid="{CBC69F5D-6686-A84B-B614-E7D200C28C70}" name="Column646"/>
-    <tableColumn id="647" xr3:uid="{379184CB-EC37-D14A-9AD2-7AF8DD7592F4}" name="Column647"/>
-    <tableColumn id="648" xr3:uid="{5FC6C68E-0290-E041-85C8-8D182A17AFDF}" name="Column648"/>
-    <tableColumn id="649" xr3:uid="{A01C6894-23DE-0048-82D9-E9ABE2CE399B}" name="Column649"/>
-    <tableColumn id="650" xr3:uid="{A8D09C1F-1A9F-084D-959D-002FA8E7D4AB}" name="Column650"/>
-    <tableColumn id="651" xr3:uid="{7D37A217-B69E-CB4C-9074-3B51426AD574}" name="Column651"/>
-    <tableColumn id="652" xr3:uid="{F8E02DBE-C7DD-3E4E-9088-C2299E9198BE}" name="Column652"/>
-    <tableColumn id="653" xr3:uid="{7A382C6D-07F4-F447-9133-32DDD5B0F336}" name="Column653"/>
-    <tableColumn id="654" xr3:uid="{8F76093B-5A9E-094B-AAA1-7AEAA31154A8}" name="Column654"/>
-    <tableColumn id="655" xr3:uid="{F762EF87-808C-474B-B208-71D40ED9091D}" name="Column655"/>
-    <tableColumn id="656" xr3:uid="{A05A26DB-1D77-BF4A-9AF1-C3971909217B}" name="Column656"/>
-    <tableColumn id="657" xr3:uid="{6985D39F-B716-5B4E-87BD-189B1D8CFA85}" name="Column657"/>
-    <tableColumn id="658" xr3:uid="{2F2FBDA6-370D-B04F-B52B-DF351D6ADFBB}" name="Column658"/>
-    <tableColumn id="659" xr3:uid="{E8F52DBD-0080-9747-B911-1EA69187C60B}" name="Column659"/>
-    <tableColumn id="660" xr3:uid="{2CC35C5F-A7C3-EE47-BAB8-9A30D883A4E8}" name="Column660"/>
-    <tableColumn id="661" xr3:uid="{660D2FF8-2798-5340-A1B7-7916EB6866F6}" name="Column661"/>
-    <tableColumn id="662" xr3:uid="{1B3FE43C-660A-FC47-A736-A910A0F90DC5}" name="Column662"/>
-    <tableColumn id="663" xr3:uid="{559D4A62-D1DD-D94B-9E25-3F7934EA1170}" name="Column663"/>
-    <tableColumn id="664" xr3:uid="{134DFFD0-484D-2B4B-9956-CBE3446BBFE0}" name="Column664"/>
-    <tableColumn id="665" xr3:uid="{321F2A8B-C1C1-A948-948F-8C71AD987E23}" name="Column665"/>
-    <tableColumn id="666" xr3:uid="{09B17CDB-4716-C94F-B290-578117243120}" name="Column666"/>
-    <tableColumn id="667" xr3:uid="{779D242E-02DC-CB4B-8ED0-4254D9165A3A}" name="Column667"/>
-    <tableColumn id="668" xr3:uid="{DE48DB9C-4AE9-414C-AFD6-5EE35CD81378}" name="Column668"/>
-    <tableColumn id="669" xr3:uid="{14FBD6D0-6D35-4148-9E3C-45FF3E185A65}" name="Column669"/>
-    <tableColumn id="670" xr3:uid="{EF9490EC-582E-A444-A725-F026541A7385}" name="Column670"/>
-    <tableColumn id="671" xr3:uid="{F8974E12-2DBE-9743-A62A-C2A32DC28230}" name="Column671"/>
-    <tableColumn id="672" xr3:uid="{4254C177-6E87-4647-AD61-983C06308445}" name="Column672"/>
-    <tableColumn id="673" xr3:uid="{B3992A29-58FA-8E46-A4B8-5F6169A9E21B}" name="Column673"/>
-    <tableColumn id="674" xr3:uid="{9C10B23C-4A3E-6045-A75C-BD87815D04F3}" name="Column674"/>
-    <tableColumn id="675" xr3:uid="{15C3BDE3-2F62-7047-81FD-3E5CC05047B2}" name="Column675"/>
-    <tableColumn id="676" xr3:uid="{2A7E7AE0-A765-4E42-B0AB-AE4A880ECB63}" name="Column676"/>
-    <tableColumn id="677" xr3:uid="{E5473F02-FD93-CA45-B07E-4997F82CB230}" name="Column677"/>
-    <tableColumn id="678" xr3:uid="{AFC1E77D-B2C3-D74B-879E-769E9663017D}" name="Column678"/>
-    <tableColumn id="679" xr3:uid="{E8FE6F49-B5EE-9A4C-95CD-1CF0A0B8393B}" name="Column679"/>
-    <tableColumn id="680" xr3:uid="{CA4DA032-B59E-AE47-90EB-E0A49E447294}" name="Column680"/>
-    <tableColumn id="681" xr3:uid="{033661DC-2C93-B846-A249-1620361BD0AE}" name="Column681"/>
-    <tableColumn id="682" xr3:uid="{C35FC4D0-912E-7B44-A1DD-D94E2799AA55}" name="Column682"/>
-    <tableColumn id="683" xr3:uid="{7F3FE38E-A9F4-FB44-BF94-84B97424E896}" name="Column683"/>
-    <tableColumn id="684" xr3:uid="{63B29174-AB96-BE45-BDC6-16701EFCFA75}" name="Column684"/>
-    <tableColumn id="685" xr3:uid="{89FC14EE-D966-BA42-83B5-DF70911692B2}" name="Column685"/>
-    <tableColumn id="686" xr3:uid="{4E36EFDF-6D53-F441-B60D-A3F33331B7C2}" name="Column686"/>
-    <tableColumn id="687" xr3:uid="{745D4D6B-8A8A-754B-91C2-AED3BD28356E}" name="Column687"/>
-    <tableColumn id="688" xr3:uid="{3475C026-AE6C-FB43-A8ED-6297877362B5}" name="Column688"/>
-    <tableColumn id="689" xr3:uid="{A04599D1-CE12-C34F-AA24-E84711D2A1B1}" name="Column689"/>
-    <tableColumn id="690" xr3:uid="{9B48757A-C070-2F41-8B6C-F74697F7AFB6}" name="Column690"/>
-    <tableColumn id="691" xr3:uid="{098F8FE7-9DAE-9D4E-9047-4A31EFA96C77}" name="Column691"/>
-    <tableColumn id="692" xr3:uid="{D4A68CAD-04C7-7648-81A5-0E69AC966AF3}" name="Column692"/>
-    <tableColumn id="693" xr3:uid="{34FB2F29-2987-6841-8FD3-3CAFB0E80352}" name="Column693"/>
-    <tableColumn id="694" xr3:uid="{F65927FB-207F-544D-BD20-0AEC04D94AA2}" name="Column694"/>
-    <tableColumn id="695" xr3:uid="{B9A5DA8D-700A-6947-82F0-214944B326F1}" name="Column695"/>
-    <tableColumn id="696" xr3:uid="{44AB873D-D78A-584C-ADCB-0C86EB880E3B}" name="Column696"/>
-    <tableColumn id="697" xr3:uid="{2E7315B8-0E9D-8A4D-B333-0DD3B5D6A282}" name="Column697"/>
-    <tableColumn id="698" xr3:uid="{147896A5-F2BF-BE42-9491-DCB43D20747D}" name="Column698"/>
-    <tableColumn id="699" xr3:uid="{45ECE788-05B3-A74D-8DD4-6B58F10F1BA9}" name="Column699"/>
-    <tableColumn id="700" xr3:uid="{01816B38-B35F-5E45-A5BF-9F324E208145}" name="Column700"/>
-    <tableColumn id="701" xr3:uid="{A557B365-6446-7A48-B7DF-590A36BC873E}" name="Column701"/>
-    <tableColumn id="702" xr3:uid="{02F52DD3-07B0-B84A-928A-031B169465D1}" name="Column702"/>
-    <tableColumn id="703" xr3:uid="{8994BA57-807F-9046-9F8E-87133921169C}" name="Column703"/>
-    <tableColumn id="704" xr3:uid="{3B5BDCAC-F2B4-7447-B860-A005C3254D92}" name="Column704"/>
-    <tableColumn id="705" xr3:uid="{ADD05DDB-790B-484D-8EE8-1A23664CE3EF}" name="Column705"/>
-    <tableColumn id="706" xr3:uid="{B1F73D78-B1AD-0D40-836F-2D8285CE4425}" name="Column706"/>
-    <tableColumn id="707" xr3:uid="{583CF88F-508D-4B46-819B-B353DF6CCA7D}" name="Column707"/>
-    <tableColumn id="708" xr3:uid="{B06D3272-37E6-E849-BA68-7D8CB02C08A8}" name="Column708"/>
-    <tableColumn id="709" xr3:uid="{538BD309-47C3-734F-9974-5C8C94E855D2}" name="Column709"/>
-    <tableColumn id="710" xr3:uid="{E58B7943-5E36-F341-9099-E4DD2D72C102}" name="Column710"/>
-    <tableColumn id="711" xr3:uid="{44AC45A5-A454-4D49-8285-3153271AF894}" name="Column711"/>
-    <tableColumn id="712" xr3:uid="{7063A21E-10B0-1E4F-ACEC-1F7A44160757}" name="Column712"/>
-    <tableColumn id="713" xr3:uid="{EC5F702A-B251-1B4B-910E-85B421C1DF7F}" name="Column713"/>
-    <tableColumn id="714" xr3:uid="{F47140B3-0B3B-034C-B408-48BF213C567B}" name="Column714"/>
-    <tableColumn id="715" xr3:uid="{0A810D79-79D9-E549-8DD6-6A7D1B491D07}" name="Column715"/>
-    <tableColumn id="716" xr3:uid="{A5EF9235-C5E3-CE44-BA95-CCE3EFBE85ED}" name="Column716"/>
-    <tableColumn id="717" xr3:uid="{32914899-D1D9-AB4E-800F-70CE8B2EB8ED}" name="Column717"/>
-    <tableColumn id="718" xr3:uid="{7D307414-8786-1944-8D10-F3638BC9F8D0}" name="Column718"/>
-    <tableColumn id="719" xr3:uid="{3391F94A-CBF8-5543-91DA-7C5DA0594A83}" name="Column719"/>
-    <tableColumn id="720" xr3:uid="{8255091E-0116-7042-980C-97F6BF3006C9}" name="Column720"/>
-    <tableColumn id="721" xr3:uid="{75DDCE89-DF54-624E-B687-3CD5AFA090AF}" name="Column721"/>
-    <tableColumn id="722" xr3:uid="{3536BC91-53D9-7A4B-8AF7-98DBD9D24C3B}" name="Column722"/>
-    <tableColumn id="723" xr3:uid="{54BE2EBB-57DB-974C-BAC8-C33503055DAD}" name="Column723"/>
-    <tableColumn id="724" xr3:uid="{2D5B671B-11EA-3544-A288-713D1A1B650F}" name="Column724"/>
-    <tableColumn id="725" xr3:uid="{F7FC5401-F3B7-A349-BB7E-3895E5115DE7}" name="Column725"/>
-    <tableColumn id="726" xr3:uid="{5F086EB0-4139-FD4C-AFBD-0827CC2FD357}" name="Column726"/>
-    <tableColumn id="727" xr3:uid="{CE6E7EC2-CBD8-104D-BA6E-039497A81472}" name="Column727"/>
-    <tableColumn id="728" xr3:uid="{E2864775-9D8F-C34D-A39D-59F65522213A}" name="Column728"/>
-    <tableColumn id="729" xr3:uid="{3196A27E-74D4-B544-A36B-A35FDD18D543}" name="Column729"/>
-    <tableColumn id="730" xr3:uid="{269BE1C8-01CF-394E-8F96-58B9DE149A0A}" name="Column730"/>
-    <tableColumn id="731" xr3:uid="{CA158F7D-4E82-434C-B121-8219AB98C515}" name="Column731"/>
-    <tableColumn id="732" xr3:uid="{D3D41CDF-2EA4-F34C-A8CA-0734A51C7AAD}" name="Column732"/>
-    <tableColumn id="733" xr3:uid="{EB20AC3F-6929-BC48-918B-919D9D2F9DEA}" name="Column733"/>
-    <tableColumn id="734" xr3:uid="{5F16BD31-D689-A040-89F4-28E98C91B74D}" name="Column734"/>
-    <tableColumn id="735" xr3:uid="{41F267E8-73EF-7B43-B1FE-ECCFF063128C}" name="Column735"/>
-    <tableColumn id="736" xr3:uid="{C4CCB665-031D-294B-B32F-7647B1C34198}" name="Column736"/>
-    <tableColumn id="737" xr3:uid="{6910A57B-D37D-4E4C-B633-9FA76BD75D91}" name="Column737"/>
-    <tableColumn id="738" xr3:uid="{C3E5F7E2-6306-2A40-B4E1-CB3C74E2772B}" name="Column738"/>
-    <tableColumn id="739" xr3:uid="{4DFF59AD-CA6F-7646-BCBF-008749E4ABD8}" name="Column739"/>
-    <tableColumn id="740" xr3:uid="{1E6E96BD-62E2-734C-8B75-36D785F51ACA}" name="Column740"/>
-    <tableColumn id="741" xr3:uid="{91F926E4-E567-6A4A-B918-3D90615727C3}" name="Column741"/>
-    <tableColumn id="742" xr3:uid="{1A7304A3-9DCE-F24F-AB27-AF977F8F7F21}" name="Column742"/>
-    <tableColumn id="743" xr3:uid="{BBE2C38D-5BAA-194F-8DE9-72CBFDC6E1D5}" name="Column743"/>
-    <tableColumn id="744" xr3:uid="{E5134752-0098-694B-99AB-CFDB270E740B}" name="Column744"/>
-    <tableColumn id="745" xr3:uid="{B9EB7E14-F0F4-F840-9BBE-0ACF63EC3058}" name="Column745"/>
-    <tableColumn id="746" xr3:uid="{1FAF9A4F-9925-EE4C-902B-0FF62ECE1C69}" name="Column746"/>
-    <tableColumn id="747" xr3:uid="{18644B2C-FB04-A245-AF5B-97C89933B64B}" name="Column747"/>
-    <tableColumn id="748" xr3:uid="{6EB48965-F1F0-6B47-B21C-6C26434A1103}" name="Column748"/>
-    <tableColumn id="749" xr3:uid="{DF6BC9C0-3FDF-5745-80DC-E928902B83C2}" name="Column749"/>
-    <tableColumn id="750" xr3:uid="{0793163B-69C9-7D46-977A-8690C1A90128}" name="Column750"/>
-    <tableColumn id="751" xr3:uid="{7AD2D52A-1CC5-D640-B9E3-AF67C7F4D341}" name="Column751"/>
-    <tableColumn id="752" xr3:uid="{0594CC1B-660D-054D-AAF2-A5F4E6052910}" name="Column752"/>
-    <tableColumn id="753" xr3:uid="{6277E10E-0B44-DA4B-9830-39B86915FA4A}" name="Column753"/>
-    <tableColumn id="754" xr3:uid="{B4D868B9-A3E3-9448-A422-DBAB0528562B}" name="Column754"/>
-    <tableColumn id="755" xr3:uid="{8E381076-28A7-3449-9B96-86FB1FC04494}" name="Column755"/>
-    <tableColumn id="756" xr3:uid="{A0565596-5A3A-8343-AC92-6EFFA46BC4CF}" name="Column756"/>
-    <tableColumn id="757" xr3:uid="{7A06DD21-B57D-DB4C-9E51-6964D4EB7BF7}" name="Column757"/>
-    <tableColumn id="758" xr3:uid="{1E18F63B-56B8-844C-9218-ECF5217FF95A}" name="Column758"/>
-    <tableColumn id="759" xr3:uid="{ECC44B23-97B0-2D4D-A79C-20EE13FDD84E}" name="Column759"/>
-    <tableColumn id="760" xr3:uid="{15A6B47D-45E8-0142-BECC-69DD44573B01}" name="Column760"/>
-    <tableColumn id="761" xr3:uid="{92544428-5CE4-1941-BE54-C2EEADEFA9E0}" name="Column761"/>
-    <tableColumn id="762" xr3:uid="{EBB94AD0-0B63-AF4F-BDAE-FD5234022E2F}" name="Column762"/>
-    <tableColumn id="763" xr3:uid="{FEB987B7-ABFF-5C4D-ACCE-2C0DCD0E2AEB}" name="Column763"/>
-    <tableColumn id="764" xr3:uid="{F3276B88-D545-F948-A24A-5210AD9CB11B}" name="Column764"/>
-    <tableColumn id="765" xr3:uid="{E7DC35A6-7AC8-354A-AA81-B935D19A710E}" name="Column765"/>
-    <tableColumn id="766" xr3:uid="{06CEF0CC-067A-C847-8189-74FF376D94F2}" name="Column766"/>
-    <tableColumn id="767" xr3:uid="{EBD86BA7-EC99-8E44-90D2-DB11078B92C8}" name="Column767"/>
-    <tableColumn id="768" xr3:uid="{680163BF-3110-1B41-98C9-E1F7E0DB6A3A}" name="Column768"/>
-    <tableColumn id="769" xr3:uid="{C3F4092F-5D4D-E448-85E4-9EA8D573EC61}" name="Column769"/>
-    <tableColumn id="770" xr3:uid="{DCBBD65C-3C1A-734B-A744-8AFCDE580118}" name="Column770"/>
-    <tableColumn id="771" xr3:uid="{615A2293-C6AB-5C45-AF90-50A28E10B552}" name="Column771"/>
-    <tableColumn id="772" xr3:uid="{12C64B19-FFEB-0748-9D76-3317759CF9BE}" name="Column772"/>
-    <tableColumn id="773" xr3:uid="{2C8B0CD3-0C03-0F4A-9311-6CAD59A2DB77}" name="Column773"/>
-    <tableColumn id="774" xr3:uid="{F80F2731-9A4C-014F-BAE6-2F3638E96DFC}" name="Column774"/>
-    <tableColumn id="775" xr3:uid="{F6977314-DB13-DC44-9D6D-F7964C093B89}" name="Column775"/>
-    <tableColumn id="776" xr3:uid="{836CF8F4-B0C6-6341-85B2-317F90C3EF18}" name="Column776"/>
-    <tableColumn id="777" xr3:uid="{F4AE250C-C93B-C943-AC5D-3EEBD3AF785B}" name="Column777"/>
-    <tableColumn id="778" xr3:uid="{A7922EB5-EEB5-2A4A-B98A-FBEB1B2E6FB9}" name="Column778"/>
-    <tableColumn id="779" xr3:uid="{75E92BB0-B85F-B140-86C1-25E3CC737EBF}" name="Column779"/>
-    <tableColumn id="780" xr3:uid="{F9D111DD-5C16-9B48-B57E-2C64CFBFA182}" name="Column780"/>
-    <tableColumn id="781" xr3:uid="{F8556A8C-9BE2-BC4A-A9BF-0003F9D47F63}" name="Column781"/>
-    <tableColumn id="782" xr3:uid="{BEA81BE8-EF4F-B344-AFFC-A6DBBD2E329C}" name="Column782"/>
-    <tableColumn id="783" xr3:uid="{CAD60A99-492B-0C4D-A992-372CF155A05A}" name="Column783"/>
-    <tableColumn id="784" xr3:uid="{5F1259FE-8CFA-EE44-AA4B-B50A214CD69F}" name="Column784"/>
-    <tableColumn id="785" xr3:uid="{C935E5B1-FC92-B647-A3A0-CD394E07D09B}" name="Column785"/>
-    <tableColumn id="786" xr3:uid="{EB784D2C-3109-534E-A0F6-3FBD3651CE53}" name="Column786"/>
-    <tableColumn id="787" xr3:uid="{208BFF9F-C113-0F4F-8C7F-CC0D1F91AC07}" name="Column787"/>
-    <tableColumn id="788" xr3:uid="{14AE4D4E-58E8-3C4E-A667-13BE7CE8B00E}" name="Column788"/>
-    <tableColumn id="789" xr3:uid="{66832C45-4088-FA42-B7C9-2FA962B2F754}" name="Column789"/>
-    <tableColumn id="790" xr3:uid="{0041E366-89C7-8943-863E-5D4518E30A37}" name="Column790"/>
-    <tableColumn id="791" xr3:uid="{EDE536C0-5388-874F-AEF9-8A2AB8416561}" name="Column791"/>
-    <tableColumn id="792" xr3:uid="{48BCE644-E676-B347-8583-7315805070B3}" name="Column792"/>
-    <tableColumn id="793" xr3:uid="{7C81358B-967B-A642-9490-397ADBA717B3}" name="Column793"/>
-    <tableColumn id="794" xr3:uid="{48830171-80D6-AE46-958B-ADA51A1F41D9}" name="Column794"/>
-    <tableColumn id="795" xr3:uid="{21434B76-5E08-CE49-90C0-CF74D665C8DD}" name="Column795"/>
-    <tableColumn id="796" xr3:uid="{10A4924E-43EF-F443-BEB4-3F3341545A72}" name="Column796"/>
-    <tableColumn id="797" xr3:uid="{F4E4B1D1-3267-DD46-BD6B-28B97C46699A}" name="Column797"/>
-    <tableColumn id="798" xr3:uid="{A158E000-FCCD-F646-A7DE-B82B526EF0BD}" name="Column798"/>
-    <tableColumn id="799" xr3:uid="{43B78C1E-4BDD-2046-8578-63A46108B588}" name="Column799"/>
-    <tableColumn id="800" xr3:uid="{304CC89C-5E88-C046-BF6B-82A19A3FF8AC}" name="Column800"/>
-    <tableColumn id="801" xr3:uid="{E21B6566-F845-BD4B-87B8-732336A5808C}" name="Column801"/>
-    <tableColumn id="802" xr3:uid="{B1EA5E6A-F45B-DD45-88D6-2E9DAD01247F}" name="Column802"/>
-    <tableColumn id="803" xr3:uid="{49FE3695-4859-CA4B-9778-2B25E8C3776C}" name="Column803"/>
-    <tableColumn id="804" xr3:uid="{04F1AFA0-A62F-ED44-9DA6-8456648060C1}" name="Column804"/>
-    <tableColumn id="805" xr3:uid="{D722C500-DA5B-6043-A535-E1313076D5B3}" name="Column805"/>
-    <tableColumn id="806" xr3:uid="{BFF73B78-3ECE-F949-A35C-E533A4B23052}" name="Column806"/>
-    <tableColumn id="807" xr3:uid="{AC03EAD9-1A6A-354C-BA77-9F10903EDD45}" name="Column807"/>
-    <tableColumn id="808" xr3:uid="{190D826D-6AD1-9B49-8CA2-D49E5FAA8F12}" name="Column808"/>
-    <tableColumn id="809" xr3:uid="{F3B21C01-82E7-7F42-9B35-C04F67CE64A1}" name="Column809"/>
-    <tableColumn id="810" xr3:uid="{790B5DE0-8BC7-9240-A0A6-1E5B07EC7003}" name="Column810"/>
-    <tableColumn id="811" xr3:uid="{AAE58538-B47F-424E-BCC3-4ACBEE9F1EDB}" name="Column811"/>
-    <tableColumn id="812" xr3:uid="{B62F2C8B-0DFD-6B41-B9AC-53A49B6715C2}" name="Column812"/>
-    <tableColumn id="813" xr3:uid="{1A5740CB-0F78-9448-B6C2-803CC48ACB89}" name="Column813"/>
-    <tableColumn id="814" xr3:uid="{170BE325-E391-D742-8706-AA63C0E5B970}" name="Column814"/>
-    <tableColumn id="815" xr3:uid="{5C12A0F4-FC48-C64C-B39E-6ED2355689BD}" name="Column815"/>
-    <tableColumn id="816" xr3:uid="{558D080C-A3A5-054B-B702-0116C47B8229}" name="Column816"/>
-    <tableColumn id="817" xr3:uid="{0D7780D2-676E-064E-B5F5-F7D2B7F103B5}" name="Column817"/>
-    <tableColumn id="818" xr3:uid="{7A147B4F-A9F8-564B-B1C2-3CA83B93FF89}" name="Column818"/>
-    <tableColumn id="819" xr3:uid="{08C7A21C-C448-A141-8519-F6953421A83A}" name="Column819"/>
-    <tableColumn id="820" xr3:uid="{7B4C2615-50CA-E84A-B61F-35C046C68563}" name="Column820"/>
-    <tableColumn id="821" xr3:uid="{EE711B29-114C-2146-9E36-2B0542EA738E}" name="Column821"/>
-    <tableColumn id="822" xr3:uid="{1F177467-DC21-CB45-9DE8-5B426E7AC2FF}" name="Column822"/>
-    <tableColumn id="823" xr3:uid="{9AE36833-1D3A-384A-9470-3D2F559DD668}" name="Column823"/>
-    <tableColumn id="824" xr3:uid="{28112A0F-957A-E84A-81B0-E9525DA60AB2}" name="Column824"/>
-    <tableColumn id="825" xr3:uid="{1462008B-86BC-4341-B84F-11C9F7707768}" name="Column825"/>
-    <tableColumn id="826" xr3:uid="{567356BB-8158-4348-BBFF-8B6439275A22}" name="Column826"/>
-    <tableColumn id="827" xr3:uid="{FA506E34-7C25-F94D-9428-D2FB9C4D32C0}" name="Column827"/>
-    <tableColumn id="828" xr3:uid="{7721F072-4282-B646-A3F8-D929B825F975}" name="Column828"/>
-    <tableColumn id="829" xr3:uid="{AADE5156-05BB-5549-A849-7D8F44D9A313}" name="Column829"/>
-    <tableColumn id="830" xr3:uid="{CC71D227-D55A-3F4A-AB02-4B441DAE7442}" name="Column830"/>
-    <tableColumn id="831" xr3:uid="{F0D04160-4E3F-A64F-9224-584D6040EAFF}" name="Column831"/>
-    <tableColumn id="832" xr3:uid="{F784C680-3D91-4A42-BD77-87576120FE29}" name="Column832"/>
-    <tableColumn id="833" xr3:uid="{AF8D1746-D827-6147-A822-CED973FF2210}" name="Column833"/>
-    <tableColumn id="834" xr3:uid="{F68D6462-228A-3A45-A8DC-1BC9E3D83244}" name="Column834"/>
-    <tableColumn id="835" xr3:uid="{AA151EBB-EF9A-9A4F-9ED0-13B4366C0B8D}" name="Column835"/>
-    <tableColumn id="836" xr3:uid="{BEEFAD6D-61C3-3A45-A6DC-E8FA136C39D5}" name="Column836"/>
-    <tableColumn id="837" xr3:uid="{59234ADC-EBA1-EF45-9BEF-FD3F433430E5}" name="Column837"/>
-    <tableColumn id="838" xr3:uid="{C6CC3EDE-76AE-1E4C-8815-023FE21C8015}" name="Column838"/>
-    <tableColumn id="839" xr3:uid="{D6EEBE82-DA34-4443-8A55-419ADEC66CD5}" name="Column839"/>
-    <tableColumn id="840" xr3:uid="{4FBFDAF4-6D5B-8C43-9140-B1CA997E6B25}" name="Column840"/>
-    <tableColumn id="841" xr3:uid="{ECBDCFCD-05DF-DC4D-98DB-11A635AA950D}" name="Column841"/>
-    <tableColumn id="842" xr3:uid="{09BAA3FE-0AA0-4043-82B0-134B6A24B6AC}" name="Column842"/>
-    <tableColumn id="843" xr3:uid="{CE0B31E8-787A-5941-81D7-8D709DF632D7}" name="Column843"/>
-    <tableColumn id="844" xr3:uid="{C3BEF351-58F3-EA45-8C38-FBC81EFFAC20}" name="Column844"/>
-    <tableColumn id="845" xr3:uid="{2A925A19-2ECB-B442-A2E1-1A7C2D27D54C}" name="Column845"/>
-    <tableColumn id="846" xr3:uid="{AC7ACB79-DB77-854E-A096-B6544426EB18}" name="Column846"/>
-    <tableColumn id="847" xr3:uid="{C559FF11-7259-3B4F-8A8E-B24B28FBD4C0}" name="Column847"/>
-    <tableColumn id="848" xr3:uid="{3DF582FB-37EC-984E-8E23-A9006D8C041E}" name="Column848"/>
-    <tableColumn id="849" xr3:uid="{8B08735E-9A61-0D42-B8B0-54ED14BFD8C6}" name="Column849"/>
-    <tableColumn id="850" xr3:uid="{F1892466-07F8-EE49-8E38-3CB89DD024E2}" name="Column850"/>
-    <tableColumn id="851" xr3:uid="{AD491FCD-D539-074E-B590-842A371575C6}" name="Column851"/>
-    <tableColumn id="852" xr3:uid="{D70BD6C2-F27D-2244-95EF-2C2C683FD187}" name="Column852"/>
-    <tableColumn id="853" xr3:uid="{819D579E-1F8F-5C4D-A48E-D4F0AF70D035}" name="Column853"/>
-    <tableColumn id="854" xr3:uid="{FB973A23-A654-A248-A558-30B238F06D0E}" name="Column854"/>
-    <tableColumn id="855" xr3:uid="{55537858-F696-C748-A78B-7B69EDFEA8DB}" name="Column855"/>
-    <tableColumn id="856" xr3:uid="{757E5EE8-8F26-5243-A346-C9BDE071DF33}" name="Column856"/>
-    <tableColumn id="857" xr3:uid="{634F70E1-43B6-1A47-930E-5E173DF678BC}" name="Column857"/>
-    <tableColumn id="858" xr3:uid="{D8EC5EAA-ACB7-214F-A241-FCE6C36E91A3}" name="Column858"/>
-    <tableColumn id="859" xr3:uid="{602EA4A2-4106-0046-BC11-AD46A0BB2494}" name="Column859"/>
-    <tableColumn id="860" xr3:uid="{32EE67C6-70A2-1B43-8BB3-DB923DEF9CA2}" name="Column860"/>
-    <tableColumn id="861" xr3:uid="{1535A3DE-CD59-004B-A0F8-1B24BDCC0538}" name="Column861"/>
-    <tableColumn id="862" xr3:uid="{B0C57DD0-1C79-7F4F-BFBD-960D744CDEE2}" name="Column862"/>
-    <tableColumn id="863" xr3:uid="{AD6B6A5F-96C6-2641-BBD9-BD8C5D2ED4F0}" name="Column863"/>
-    <tableColumn id="864" xr3:uid="{5CED165E-C0A9-BD47-91B3-7594D6316C36}" name="Column864"/>
-    <tableColumn id="865" xr3:uid="{917AEFCC-8ACD-7C4F-92BC-DF100DA0F3A1}" name="Column865"/>
-    <tableColumn id="866" xr3:uid="{8E079247-2F59-3243-B65A-4A3AA217DF0F}" name="Column866"/>
-    <tableColumn id="867" xr3:uid="{0A0797B0-F5C7-9747-8071-F595CDC3A53E}" name="Column867"/>
-    <tableColumn id="868" xr3:uid="{C70FA751-2CC1-EC4C-B774-638901033193}" name="Column868"/>
-    <tableColumn id="869" xr3:uid="{74C2CD5C-9490-864A-8418-4E18F89DFE72}" name="Column869"/>
-    <tableColumn id="870" xr3:uid="{8B18E9B0-C496-BF42-B58E-CDF7FCB4171E}" name="Column870"/>
-    <tableColumn id="871" xr3:uid="{113B26B6-8DB3-C147-BC7E-F1E6D28CC5ED}" name="Column871"/>
-    <tableColumn id="872" xr3:uid="{A45C6C14-6CCE-044A-99CD-562FD2AF5DC9}" name="Column872"/>
-    <tableColumn id="873" xr3:uid="{F0BAEC7F-2652-A645-9D0E-414441DFC524}" name="Column873"/>
-    <tableColumn id="874" xr3:uid="{6AD7BBC1-B151-A044-BA53-9FCA798A770E}" name="Column874"/>
-    <tableColumn id="875" xr3:uid="{2B889F17-DF04-5946-854A-0E4C1B25872D}" name="Column875"/>
-    <tableColumn id="876" xr3:uid="{A4460824-DF65-7942-A784-AD3E97F1FC66}" name="Column876"/>
-    <tableColumn id="877" xr3:uid="{320F63CE-9943-694C-98E5-0C219D4FE0BA}" name="Column877"/>
-    <tableColumn id="878" xr3:uid="{73B0993C-B9EC-6B49-94EA-D48E87E91753}" name="Column878"/>
-    <tableColumn id="879" xr3:uid="{F1B2C446-C60C-5844-8834-8CF48B1FF794}" name="Column879"/>
-    <tableColumn id="880" xr3:uid="{AA69FDAF-BD3C-1F4C-86B4-3EC29BFBCA33}" name="Column880"/>
-    <tableColumn id="881" xr3:uid="{AE749B22-6B0F-A044-931B-28CC47DCCF96}" name="Column881"/>
-    <tableColumn id="882" xr3:uid="{844E3D4C-E294-B443-ABE7-D3501AE05420}" name="Column882"/>
-    <tableColumn id="883" xr3:uid="{80AEACEE-06BB-A042-8882-19C2402F33F4}" name="Column883"/>
-    <tableColumn id="884" xr3:uid="{E1412340-152A-7B4F-9626-A7E894603C26}" name="Column884"/>
-    <tableColumn id="885" xr3:uid="{C20DA99D-8B1C-414A-8BFE-D5CA04F34C0E}" name="Column885"/>
-    <tableColumn id="886" xr3:uid="{2D227EEA-2515-A44E-A579-432D0F0AAD61}" name="Column886"/>
-    <tableColumn id="887" xr3:uid="{CF161B81-7CB1-FC45-85DC-9E5DDA79FD90}" name="Column887"/>
-    <tableColumn id="888" xr3:uid="{68121EEC-E3F3-FC46-8F8F-EC7762196D8B}" name="Column888"/>
-    <tableColumn id="889" xr3:uid="{F9E5F5BE-198A-2644-84A2-149FB2F224FF}" name="Column889"/>
-    <tableColumn id="890" xr3:uid="{E11CF882-ACFF-C849-86AB-DA7C628557C1}" name="Column890"/>
-    <tableColumn id="891" xr3:uid="{2EE39C50-FF73-004C-B54D-84E717B6718C}" name="Column891"/>
-    <tableColumn id="892" xr3:uid="{AA450C39-C063-C644-823A-39E961B80FEC}" name="Column892"/>
-    <tableColumn id="893" xr3:uid="{5EAB1DBE-1C14-4444-A2FB-39737B890ABD}" name="Column893"/>
-    <tableColumn id="894" xr3:uid="{851F0E5B-1B9D-ED4D-B8C7-B93B20E77925}" name="Column894"/>
-    <tableColumn id="895" xr3:uid="{14480BEE-7BD4-A047-BB3D-7781DABC7D11}" name="Column895"/>
-    <tableColumn id="896" xr3:uid="{ECD72E1A-63EC-D64B-91BE-937B81269CAB}" name="Column896"/>
-    <tableColumn id="897" xr3:uid="{094895B5-B42A-794B-A70F-2D3DACB4F84D}" name="Column897"/>
-    <tableColumn id="898" xr3:uid="{93840913-ACDB-F042-980A-45727B45671C}" name="Column898"/>
-    <tableColumn id="899" xr3:uid="{3A64F5B2-452E-5545-8A91-706D42020D90}" name="Column899"/>
-    <tableColumn id="900" xr3:uid="{F2D2F87B-7C4D-5B4F-8F0B-396CDFA86B0E}" name="Column900"/>
-    <tableColumn id="901" xr3:uid="{25487162-4E13-224D-B965-9CF061724E05}" name="Column901"/>
-    <tableColumn id="902" xr3:uid="{D075BE00-67A8-8740-AB4B-0632E5CF1BA3}" name="Column902"/>
-    <tableColumn id="903" xr3:uid="{B4DD856E-F225-2745-AB96-EC4322B81AE0}" name="Column903"/>
-    <tableColumn id="904" xr3:uid="{F4B13581-F802-A24A-ADFF-82EC81A62771}" name="Column904"/>
-    <tableColumn id="905" xr3:uid="{7661678C-187F-DE41-A2A4-81AB8000115C}" name="Column905"/>
-    <tableColumn id="906" xr3:uid="{F5CA623E-BF30-4942-998E-7F66CA24ABC6}" name="Column906"/>
-    <tableColumn id="907" xr3:uid="{C51203CE-5CA2-1941-BEA3-F6D14C3109D1}" name="Column907"/>
-    <tableColumn id="908" xr3:uid="{7E83F5AF-FC1E-3947-BC9D-95CBB09B75C3}" name="Column908"/>
-    <tableColumn id="909" xr3:uid="{C686C2B9-E2A8-4B45-A27B-455501A7A8FC}" name="Column909"/>
-    <tableColumn id="910" xr3:uid="{B1C4C57D-B113-1545-BA88-21E75AF13928}" name="Column910"/>
-    <tableColumn id="911" xr3:uid="{609ADC98-E673-2045-93A0-B6E97595C805}" name="Column911"/>
-    <tableColumn id="912" xr3:uid="{208DFC78-37C7-5B4B-B403-20152632DDBF}" name="Column912"/>
-    <tableColumn id="913" xr3:uid="{F5BEE9B2-B1B4-0D4D-8C85-5777E78C036E}" name="Column913"/>
-    <tableColumn id="914" xr3:uid="{36C3895E-0777-3B46-8FB4-301F0F9A1A8A}" name="Column914"/>
-    <tableColumn id="915" xr3:uid="{B1AF1FBF-83E1-1849-ACC4-DE547F6BDB81}" name="Column915"/>
-    <tableColumn id="916" xr3:uid="{A23D49CC-4744-A84D-8179-FEC034021769}" name="Column916"/>
-    <tableColumn id="917" xr3:uid="{C358E18C-2865-524A-B9EE-FE62850777C6}" name="Column917"/>
-    <tableColumn id="918" xr3:uid="{E85BDF6F-5926-C24B-8A40-9414C580171E}" name="Column918"/>
-    <tableColumn id="919" xr3:uid="{78C068E9-ADA5-4F43-93EA-C656DF10347E}" name="Column919"/>
-    <tableColumn id="920" xr3:uid="{22DAF05F-F3FE-A546-B03F-AA9521EE3901}" name="Column920"/>
-    <tableColumn id="921" xr3:uid="{C3E0164A-A8B1-D742-A301-D818146243AF}" name="Column921"/>
-    <tableColumn id="922" xr3:uid="{7939E09C-AAF7-7541-84F2-031860D5B523}" name="Column922"/>
-    <tableColumn id="923" xr3:uid="{FB4F2393-8C7C-D748-9E8C-179792055880}" name="Column923"/>
-    <tableColumn id="924" xr3:uid="{49C0A4F7-6186-924F-B0C6-037D3838D92D}" name="Column924"/>
-    <tableColumn id="925" xr3:uid="{27DF8710-AF02-F14E-B00F-9FE6BD5E6AB5}" name="Column925"/>
-    <tableColumn id="926" xr3:uid="{9B15065A-CAD2-6A41-9ED0-A5590AC83F92}" name="Column926"/>
-    <tableColumn id="927" xr3:uid="{DF2A2846-866C-C342-9804-DEC71929A14A}" name="Column927"/>
-    <tableColumn id="928" xr3:uid="{EEAA9881-EBCB-6A43-9FE8-11FE30F77B9D}" name="Column928"/>
-    <tableColumn id="929" xr3:uid="{3538C60D-781D-8947-9838-E8812575B7C1}" name="Column929"/>
-    <tableColumn id="930" xr3:uid="{785328CC-883C-844A-A819-6D2F902D4DD9}" name="Column930"/>
-    <tableColumn id="931" xr3:uid="{ABD1F60B-9489-FE40-A22C-60ACFD75C769}" name="Column931"/>
-    <tableColumn id="932" xr3:uid="{3E7BC64D-E65F-2641-AD99-5AC5281AFA3A}" name="Column932"/>
-    <tableColumn id="933" xr3:uid="{C299FCA5-D2A2-5E4B-ADD4-9CC4C004994F}" name="Column933"/>
-    <tableColumn id="934" xr3:uid="{A6D8AF7C-5903-B64E-A538-523EB395588C}" name="Column934"/>
-    <tableColumn id="935" xr3:uid="{EC52E243-4D6C-DC41-8655-09D659DFA99E}" name="Column935"/>
-    <tableColumn id="936" xr3:uid="{6D811CA4-C93B-2047-BDBD-E77C6BD3B8C4}" name="Column936"/>
-    <tableColumn id="937" xr3:uid="{0BA150B4-532C-4B4B-81CA-515C55E29940}" name="Column937"/>
-    <tableColumn id="938" xr3:uid="{0609DBE6-7344-D540-A5F5-A2F39886CF19}" name="Column938"/>
-    <tableColumn id="939" xr3:uid="{7C386B0E-1037-184D-98FE-AF6254579731}" name="Column939"/>
-    <tableColumn id="940" xr3:uid="{CF419A66-7597-F047-AE2A-3D04C644073F}" name="Column940"/>
-    <tableColumn id="941" xr3:uid="{42857CA4-FF6B-154E-B75A-7886965F8360}" name="Column941"/>
-    <tableColumn id="942" xr3:uid="{B1900A11-17DE-CD4F-A149-EB07F60FACA9}" name="Column942"/>
-    <tableColumn id="943" xr3:uid="{CA4FF207-EF26-6C45-8EFC-C7BE2A00DFF8}" name="Column943"/>
-    <tableColumn id="944" xr3:uid="{865A2EE8-9E83-5044-A2F6-C8D17CF1DA1C}" name="Column944"/>
-    <tableColumn id="945" xr3:uid="{C4A0B05B-7E76-6E45-970A-35DC2E120B90}" name="Column945"/>
-    <tableColumn id="946" xr3:uid="{AD2E6E25-FEA7-F54A-A196-8A6AAFCD71DF}" name="Column946"/>
-    <tableColumn id="947" xr3:uid="{A175C31B-5B83-964E-8A36-E8F624ACEBD7}" name="Column947"/>
-    <tableColumn id="948" xr3:uid="{921AFFFA-E3F3-DF4F-9180-12184223264D}" name="Column948"/>
-    <tableColumn id="949" xr3:uid="{ADFCE2A9-8FD3-924A-AFA4-B03AD8E66662}" name="Column949"/>
-    <tableColumn id="950" xr3:uid="{1AA4AE3F-5863-DF40-BF32-388714F7AD24}" name="Column950"/>
-    <tableColumn id="951" xr3:uid="{317E6465-9D28-0C47-BC71-3D66D617DDDF}" name="Column951"/>
-    <tableColumn id="952" xr3:uid="{86A18A39-F3BF-8A43-9D6C-7C62B01A119C}" name="Column952"/>
-    <tableColumn id="953" xr3:uid="{FC525F28-C583-AA48-ACAB-73C4D3476AF4}" name="Column953"/>
-    <tableColumn id="954" xr3:uid="{F908A801-EC27-7E44-A134-2C7BD6DD5F67}" name="Column954"/>
-    <tableColumn id="955" xr3:uid="{56FC434B-0FEA-4541-90B8-D6668692EEE1}" name="Column955"/>
-    <tableColumn id="956" xr3:uid="{D3C58F09-0714-524D-BD67-6ADB6DBC076A}" name="Column956"/>
-    <tableColumn id="957" xr3:uid="{DDCFEC43-6C06-A046-9E91-0A6F337B0D0D}" name="Column957"/>
-    <tableColumn id="958" xr3:uid="{F804B871-3434-7340-9C13-20C0EDFBE4CE}" name="Column958"/>
-    <tableColumn id="959" xr3:uid="{9E38F2BA-C4BA-0049-A5C4-ED027C5DF209}" name="Column959"/>
-    <tableColumn id="960" xr3:uid="{4F5A1BC6-9CC2-1941-B1F6-A8FC4F6838F7}" name="Column960"/>
-    <tableColumn id="961" xr3:uid="{0805B174-C3B2-7E47-9CE8-79159B8528E5}" name="Column961"/>
-    <tableColumn id="962" xr3:uid="{49A5F256-41C4-3E4E-9E3A-8CD79E7454B1}" name="Column962"/>
-    <tableColumn id="963" xr3:uid="{4036E08F-02B8-9747-BF1A-5A383EE1AEB7}" name="Column963"/>
-    <tableColumn id="964" xr3:uid="{0AF7CEBC-8002-2545-8B10-8380292BD76C}" name="Column964"/>
-    <tableColumn id="965" xr3:uid="{E2590430-C220-4648-9CD3-71AB8822161F}" name="Column965"/>
-    <tableColumn id="966" xr3:uid="{69646F99-562D-3C49-8D5C-85EBE5014428}" name="Column966"/>
-    <tableColumn id="967" xr3:uid="{DD463A07-5BB2-D746-A2E6-6626EDCD3161}" name="Column967"/>
-    <tableColumn id="968" xr3:uid="{AE750277-6AFF-6347-8389-CD8F4E1BD9F1}" name="Column968"/>
-    <tableColumn id="969" xr3:uid="{D083524B-E147-E149-B146-2F938A392B6D}" name="Column969"/>
-    <tableColumn id="970" xr3:uid="{652EC688-2941-CE42-B75D-A821862C18F9}" name="Column970"/>
-    <tableColumn id="971" xr3:uid="{31A9F1E6-9589-C140-879C-509696364F2F}" name="Column971"/>
-    <tableColumn id="972" xr3:uid="{7A6FA223-E7C2-F84D-9F88-0EDED3AFC504}" name="Column972"/>
-    <tableColumn id="973" xr3:uid="{0AE71F73-FC92-9645-907F-FE3DD43CCC6D}" name="Column973"/>
-    <tableColumn id="974" xr3:uid="{DA2A32B6-24E8-424B-99AF-0DE86B5F5E9E}" name="Column974"/>
-    <tableColumn id="975" xr3:uid="{EF504E68-57E2-9E49-B921-C9F34D139468}" name="Column975"/>
-    <tableColumn id="976" xr3:uid="{8C753A78-F1D2-C941-8A3E-F7F62BAB471E}" name="Column976"/>
-    <tableColumn id="977" xr3:uid="{A8D07095-139B-E04B-9365-968E4BD0BE4D}" name="Column977"/>
-    <tableColumn id="978" xr3:uid="{E57DBD8B-9000-F44E-9862-1A37CBD56ACD}" name="Column978"/>
-    <tableColumn id="979" xr3:uid="{AC412808-F3BC-6D44-884E-C56434DE5F2B}" name="Column979"/>
-    <tableColumn id="980" xr3:uid="{A6BB061D-62D0-7C4B-91B9-9D009FD42905}" name="Column980"/>
-    <tableColumn id="981" xr3:uid="{7D70FBE9-55BD-DA41-A815-B64989446F8E}" name="Column981"/>
-    <tableColumn id="982" xr3:uid="{1AFB350A-F7C4-EA44-900F-C91F0F8DFBBD}" name="Column982"/>
-    <tableColumn id="983" xr3:uid="{15E5FEC9-6E86-E74F-9A31-02E947DDAA7D}" name="Column983"/>
-    <tableColumn id="984" xr3:uid="{567375B4-35E0-A14E-8613-2F2ACB7AEDC2}" name="Column984"/>
-    <tableColumn id="985" xr3:uid="{6C8B1494-0F33-8446-B18E-A3931B898EA8}" name="Column985"/>
-    <tableColumn id="986" xr3:uid="{560E1E0F-E1FB-CB4A-8A3B-89B8FA561EAE}" name="Column986"/>
-    <tableColumn id="987" xr3:uid="{186EE7F1-B589-9C4A-8B46-9CA52BC28107}" name="Column987"/>
-    <tableColumn id="988" xr3:uid="{D4F9E991-4EB4-D647-8E78-3B89A3B5B8D7}" name="Column988"/>
-    <tableColumn id="989" xr3:uid="{B2B3018C-CBB5-6D47-B53D-33DE7A663953}" name="Column989"/>
-    <tableColumn id="990" xr3:uid="{C99EB8E3-2282-B04A-87DC-2EBB29A64333}" name="Column990"/>
-    <tableColumn id="991" xr3:uid="{D78531E5-08D7-ED4A-A27A-653CE6D119A3}" name="Column991"/>
-    <tableColumn id="992" xr3:uid="{770A395E-A491-D04F-A0C9-4BF11AC88936}" name="Column992"/>
-    <tableColumn id="993" xr3:uid="{EAD641E0-63C9-D343-9F57-5DF97A9751B3}" name="Column993"/>
-    <tableColumn id="994" xr3:uid="{E769E22D-33F4-DD4C-8A46-38191B1CDC85}" name="Column994"/>
-    <tableColumn id="995" xr3:uid="{2EBFCA73-3021-7141-9587-87B7E2EB09C6}" name="Column995"/>
-    <tableColumn id="996" xr3:uid="{A0735DFA-4EC6-2D4C-A1A0-987B7DE3755C}" name="Column996"/>
-    <tableColumn id="997" xr3:uid="{5D08CC2F-CDD5-4941-81C4-CE8866AEA711}" name="Column997"/>
-    <tableColumn id="998" xr3:uid="{DC9A3FDB-8C0C-8341-A25E-D1B7F86F63E4}" name="Column998"/>
-    <tableColumn id="999" xr3:uid="{7AAB2260-BF17-4C4A-B6D0-141FF8715DE0}" name="Column999"/>
-    <tableColumn id="1000" xr3:uid="{56E53E74-0D71-E44C-BECD-613CD38C9B7A}" name="Column1000"/>
-    <tableColumn id="1001" xr3:uid="{E92C5998-0CE7-5045-BE77-BEF227F2DB02}" name="Column1001"/>
-    <tableColumn id="1002" xr3:uid="{FDDEA302-2558-CE41-8664-2B635ADBAB1E}" name="Column1002"/>
-    <tableColumn id="1003" xr3:uid="{69732FAF-7829-7249-AEBB-0F80EABA2B24}" name="Column1003"/>
-    <tableColumn id="1004" xr3:uid="{3538D913-0D7C-B24A-9121-DA09845B8198}" name="Column1004"/>
-    <tableColumn id="1005" xr3:uid="{09451A26-57A0-3A4C-9F5B-DE5A06C5EF50}" name="Column1005"/>
-    <tableColumn id="1006" xr3:uid="{6190DA18-000A-1046-901C-32CD5E71DBB4}" name="Column1006"/>
-    <tableColumn id="1007" xr3:uid="{8FA4D0EC-BDA4-9845-97AC-CBAF603F894D}" name="Column1007"/>
-    <tableColumn id="1008" xr3:uid="{5D689B30-3A04-014B-9C6A-E1B64B392046}" name="Column1008"/>
-    <tableColumn id="1009" xr3:uid="{10CB26C0-D9E5-1C48-97AA-BE81F2CF4E91}" name="Column1009"/>
-    <tableColumn id="1010" xr3:uid="{7EEA441C-CBBC-164C-91D0-46FF805733D6}" name="Column1010"/>
-    <tableColumn id="1011" xr3:uid="{EB0B8F53-1C23-B046-82B7-730B718236B5}" name="Column1011"/>
-    <tableColumn id="1012" xr3:uid="{8ED79DA3-396F-984A-B0C7-442B621A9B40}" name="Column1012"/>
-    <tableColumn id="1013" xr3:uid="{5AA9A68F-1436-3B40-8A01-7C4047337D25}" name="Column1013"/>
-    <tableColumn id="1014" xr3:uid="{899117B2-8B89-9242-BACA-9F7EA10D751C}" name="Column1014"/>
-    <tableColumn id="1015" xr3:uid="{7B4BDD11-0CCC-4242-BCA3-71F39C498B4B}" name="Column1015"/>
-    <tableColumn id="1016" xr3:uid="{F71C46F4-8727-B345-A2E8-5B07DC15F0A2}" name="Column1016"/>
-    <tableColumn id="1017" xr3:uid="{0F63E99E-263A-8749-AC6F-5DC670E32E6A}" name="Column1017"/>
-    <tableColumn id="1018" xr3:uid="{1CB84F83-9471-EC4F-9454-FBC705FE9AAF}" name="Column1018"/>
-    <tableColumn id="1019" xr3:uid="{4281DCA0-F903-CD44-8D97-012F05FED990}" name="Column1019"/>
-    <tableColumn id="1020" xr3:uid="{83BCB6C4-2F90-C949-A8FE-59810E65EF5B}" name="Column1020"/>
+    <tableColumn id="1" xr3:uid="{E8691343-D769-6940-8613-EBC9ED19FD9A}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{AC574F75-8419-9D4B-B3A6-F6C9A26EED2A}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{39CBF25C-D6A4-1D45-9837-D894DF99E49A}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{D2299036-A992-6C4E-9F12-4081BC05C356}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{2F573A44-6B2E-FD4C-A060-F1D3A3935AE4}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{E8074697-4823-1345-8EE5-F07284BB0B42}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{C45802B0-24E5-8046-9713-31AC3BAB9D5E}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{338417D0-AF36-A340-A83C-1799CA05DC64}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{6EDC6B57-2DAD-B545-898B-E5274F67B2C3}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{D47EF8CC-52C6-C84D-9CB0-AA8EFE4506D3}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{F725B992-1255-8649-A46D-112434A3A9F6}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{5F75A6D5-4316-1047-A111-7FECFA4F337B}" name="Column12"/>
+    <tableColumn id="13" xr3:uid="{B8387453-DA0F-C847-9B6B-9D953A99FAD9}" name="Column13"/>
+    <tableColumn id="14" xr3:uid="{1183EB86-A3FA-9041-A720-AB7BCF2DB83F}" name="Column14"/>
+    <tableColumn id="15" xr3:uid="{75818A2D-33A0-164B-8200-BD8EEBB0239C}" name="Column15"/>
+    <tableColumn id="16" xr3:uid="{9DCCD6CE-1AD3-5644-8A70-EB4A68AF532A}" name="Column16"/>
+    <tableColumn id="17" xr3:uid="{34F65ABF-0762-F74F-B997-C862FF0A5DF9}" name="Column17"/>
+    <tableColumn id="18" xr3:uid="{89E1A911-4D2F-994E-9A3B-40983FF1D8DE}" name="Column18"/>
+    <tableColumn id="19" xr3:uid="{0A844C4F-81AF-F84E-8296-EBC6D6FE5CBE}" name="Column19"/>
+    <tableColumn id="20" xr3:uid="{A0556D18-0977-1D45-9295-4107DA16F259}" name="Column20"/>
+    <tableColumn id="21" xr3:uid="{C8F6A4C8-D678-4442-B270-2960F6B44951}" name="Column21"/>
+    <tableColumn id="22" xr3:uid="{39A509EA-3BB7-3D4E-A194-9F4B906122E1}" name="Column22"/>
+    <tableColumn id="23" xr3:uid="{EF430F25-ABD8-8E44-9A26-CC7426A72095}" name="Column23"/>
+    <tableColumn id="24" xr3:uid="{E55E35B5-0830-D448-A6BE-8252D0329CDB}" name="Column24"/>
+    <tableColumn id="25" xr3:uid="{521B9F95-BE8D-B34D-9C5B-EAFFB7A0E26D}" name="Column25"/>
+    <tableColumn id="26" xr3:uid="{9A3E68E5-7A37-CE44-8867-AE7C68439C8C}" name="Column26"/>
+    <tableColumn id="27" xr3:uid="{7056AFBC-2360-1547-9EC2-6C8EDFBD6003}" name="Column27"/>
+    <tableColumn id="28" xr3:uid="{14096844-F068-734F-AF92-0FEF9BA598ED}" name="Column28"/>
+    <tableColumn id="29" xr3:uid="{E4CF2C32-9008-F646-BFAF-DCC6A2A1E9F4}" name="Column29"/>
+    <tableColumn id="30" xr3:uid="{B0334EF8-1C43-0A40-92CE-53F150437C2E}" name="Column30"/>
+    <tableColumn id="31" xr3:uid="{3AD17059-F7D5-4B4C-802C-996E0F646F2F}" name="Column31"/>
+    <tableColumn id="32" xr3:uid="{7822234B-D49B-F645-A821-89D0E96199EA}" name="Column32"/>
+    <tableColumn id="33" xr3:uid="{D8722E3B-FD5C-D243-9F90-CFAD7E11A85E}" name="Column33"/>
+    <tableColumn id="34" xr3:uid="{1AEAC745-B4F6-6B4F-90B3-AA02CF21111B}" name="Column34"/>
+    <tableColumn id="35" xr3:uid="{6C01C953-825C-7C44-8781-F1ADF1F1EC2E}" name="Column35"/>
+    <tableColumn id="36" xr3:uid="{D3C5EA9B-6863-2A47-8F63-79448E00B694}" name="Column36"/>
+    <tableColumn id="37" xr3:uid="{F9AA98E5-DE08-2D4F-95AE-2FC13E52155C}" name="Column37"/>
+    <tableColumn id="38" xr3:uid="{069D8D35-92C7-0644-A297-70466506C628}" name="Column38"/>
+    <tableColumn id="39" xr3:uid="{711D74B2-DD75-C246-80E5-2FDE9A04982D}" name="Column39"/>
+    <tableColumn id="40" xr3:uid="{EDDD5DB8-8EA8-B14E-97C8-88EA147E1555}" name="Column40"/>
+    <tableColumn id="41" xr3:uid="{61EE1070-C0B5-E748-89EC-EFC1E1441851}" name="Column41"/>
+    <tableColumn id="42" xr3:uid="{D04D29A6-E023-314A-82B6-BF598BD90FFB}" name="Column42"/>
+    <tableColumn id="43" xr3:uid="{8D0A5E7F-E3A9-2240-ABA9-15331684F499}" name="Column43"/>
+    <tableColumn id="44" xr3:uid="{BF2C2175-85F2-F24C-BB87-7CF0065149FE}" name="Column44"/>
+    <tableColumn id="45" xr3:uid="{E0A2509A-4DE8-EA4E-A909-63E33B62A33D}" name="Column45"/>
+    <tableColumn id="46" xr3:uid="{BEAE5630-0332-BA43-91E6-75AE842C7F43}" name="Column46"/>
+    <tableColumn id="47" xr3:uid="{60F3B88A-5B66-2243-BC07-2777954BE567}" name="Column47"/>
+    <tableColumn id="48" xr3:uid="{ACB3C63B-C0D2-154F-80A6-94C1D4F569A4}" name="Column48"/>
+    <tableColumn id="49" xr3:uid="{2740D4D3-046B-E243-AAEE-F5567E01E1D4}" name="Column49"/>
+    <tableColumn id="50" xr3:uid="{7BDFA0D2-216C-E747-8DB5-4A4E95CE88CD}" name="Column50"/>
+    <tableColumn id="51" xr3:uid="{8015B24F-0B1E-FF41-9CFC-8DB12F0ED736}" name="Column51"/>
+    <tableColumn id="52" xr3:uid="{D4D03675-8226-3541-AFA9-EBEEA12E4E6D}" name="Column52"/>
+    <tableColumn id="53" xr3:uid="{E04B0025-A769-FC43-98A7-ADAEC74FDDA3}" name="Column53"/>
+    <tableColumn id="54" xr3:uid="{1ACD5E7F-AA2D-2045-B2A9-C9AF97E34E6E}" name="Column54"/>
+    <tableColumn id="55" xr3:uid="{42884D79-58BB-974D-BAA3-806295EF6248}" name="Column55"/>
+    <tableColumn id="56" xr3:uid="{6469E910-E96A-CE40-993B-9583317B1F48}" name="Column56"/>
+    <tableColumn id="57" xr3:uid="{0FFF2C36-CAF7-5849-837C-BE4657C677F1}" name="Column57"/>
+    <tableColumn id="58" xr3:uid="{32571E98-AF7E-1A48-83A6-11DB3B954BA4}" name="Column58"/>
+    <tableColumn id="59" xr3:uid="{736A2B04-B9DA-8E40-BD6D-E3D44A12D265}" name="Column59"/>
+    <tableColumn id="60" xr3:uid="{47ADFA8C-C0DB-D043-801A-B2F4DF475004}" name="Column60"/>
+    <tableColumn id="61" xr3:uid="{30CA7227-6D05-7C4D-A1B3-B2B3AEBB61AF}" name="Column61"/>
+    <tableColumn id="62" xr3:uid="{802AE479-B0D4-7944-BE73-B038985D9DE7}" name="Column62"/>
+    <tableColumn id="63" xr3:uid="{966F8C82-1251-F047-90B9-4481E643C853}" name="Column63"/>
+    <tableColumn id="64" xr3:uid="{D917D5A0-8BFB-2640-8307-6FF9B3660879}" name="Column64"/>
+    <tableColumn id="65" xr3:uid="{1DB7C785-B145-F54A-83D5-A7FCD30030C2}" name="Column65"/>
+    <tableColumn id="66" xr3:uid="{5994417B-9112-ED41-8D34-F3F6CE0B880E}" name="Column66"/>
+    <tableColumn id="67" xr3:uid="{49F2BCC9-4555-2D40-A4C3-D44A96034C5F}" name="Column67"/>
+    <tableColumn id="68" xr3:uid="{E5536B48-83F6-9147-8F43-B66005803337}" name="Column68"/>
+    <tableColumn id="69" xr3:uid="{6EDE582E-0558-FF48-B81D-D9F7D54A2321}" name="Column69"/>
+    <tableColumn id="70" xr3:uid="{3DD1CBF1-1231-0644-811B-6D8FD07F90DD}" name="Column70"/>
+    <tableColumn id="71" xr3:uid="{CAEB4142-B1F9-CF47-9526-85FFCDEDF38E}" name="Column71"/>
+    <tableColumn id="72" xr3:uid="{CD316E78-768B-2A43-89BD-28AF1B95550D}" name="Column72"/>
+    <tableColumn id="73" xr3:uid="{E2533FCE-529E-D34B-BE10-31C0CACE5DE8}" name="Column73"/>
+    <tableColumn id="74" xr3:uid="{3454BDC4-9F72-0C43-A229-8DCFE5B1371A}" name="Column74"/>
+    <tableColumn id="75" xr3:uid="{342393BD-0992-C94B-AD35-96378EA4B2E5}" name="Column75"/>
+    <tableColumn id="76" xr3:uid="{E9FB1458-0DA2-8246-8D85-BC7E72F4D986}" name="Column76"/>
+    <tableColumn id="77" xr3:uid="{C88FC935-B986-F446-A293-ECEEA89D7855}" name="Column77"/>
+    <tableColumn id="78" xr3:uid="{5B6C2567-14FF-3846-B1CE-11AD0FB0D27A}" name="Column78"/>
+    <tableColumn id="79" xr3:uid="{C06A9FDA-87AE-694E-8033-3BA53DA4051C}" name="Column79"/>
+    <tableColumn id="80" xr3:uid="{2AC15FCF-FF67-1B43-B0DB-538BAD292580}" name="Column80"/>
+    <tableColumn id="81" xr3:uid="{FF21E261-A041-4142-BDE4-20C3F7739AA6}" name="Column81"/>
+    <tableColumn id="82" xr3:uid="{2DBFFA35-A41A-AE4A-BDA8-522F5542CCE4}" name="Column82"/>
+    <tableColumn id="83" xr3:uid="{41C8F118-9717-694A-8804-D4486EC2257D}" name="Column83"/>
+    <tableColumn id="84" xr3:uid="{CB29974B-C07A-C345-A418-AF8D6F00A4ED}" name="Column84"/>
+    <tableColumn id="85" xr3:uid="{3453C9EA-6BFA-5A4C-9ABA-864756E5F0D8}" name="Column85"/>
+    <tableColumn id="86" xr3:uid="{24CA1F99-02B9-2949-8945-3BB21F35D054}" name="Column86"/>
+    <tableColumn id="87" xr3:uid="{5E27865E-C7A8-4B45-995E-A7DB9361B632}" name="Column87"/>
+    <tableColumn id="88" xr3:uid="{01EF17EB-E6CF-764B-8B2F-7D169CE7A706}" name="Column88"/>
+    <tableColumn id="89" xr3:uid="{63B75B0A-325B-3F46-B5CA-1F40DE25E5D2}" name="Column89"/>
+    <tableColumn id="90" xr3:uid="{23BEF974-7D58-3340-AA63-FA4F4B9A6F8B}" name="Column90"/>
+    <tableColumn id="91" xr3:uid="{66772C2D-1852-6144-ACDE-84685F7D687A}" name="Column91"/>
+    <tableColumn id="92" xr3:uid="{5DE6E9A1-AE4D-AD4C-AB55-23621C25C92E}" name="Column92"/>
+    <tableColumn id="93" xr3:uid="{7DA34FFE-3103-B74D-B4F7-6B54B9679E11}" name="Column93"/>
+    <tableColumn id="94" xr3:uid="{BCF2AC15-A7D1-9B42-ABF3-14D9C117E5DE}" name="Column94"/>
+    <tableColumn id="95" xr3:uid="{C3DE3CC8-DB1C-1547-ABAC-9A83C894347A}" name="Column95"/>
+    <tableColumn id="96" xr3:uid="{7561A5F3-5C61-5D49-A04F-C7C8DC04B518}" name="Column96"/>
+    <tableColumn id="97" xr3:uid="{6AC81C11-5BA9-9C4E-AC4A-82B01D889148}" name="Column97"/>
+    <tableColumn id="98" xr3:uid="{A9A58D2E-4BE3-5C41-9DB6-EB05489193C0}" name="Column98"/>
+    <tableColumn id="99" xr3:uid="{A3C0E31C-10B7-794C-A02D-E7FE9CA75846}" name="Column99"/>
+    <tableColumn id="100" xr3:uid="{0D38E8B0-46D5-4E4D-BF94-0F9256A33476}" name="Column100"/>
+    <tableColumn id="101" xr3:uid="{B1FD47E1-BF8D-3C42-A56F-4C84B3650EE7}" name="Column101"/>
+    <tableColumn id="102" xr3:uid="{94C6F850-B0F4-FE41-8CC7-9B96DEDA8F3A}" name="Column102"/>
+    <tableColumn id="103" xr3:uid="{7EEC530C-8D0F-D749-84FF-7F5B39FC3BF0}" name="Column103"/>
+    <tableColumn id="104" xr3:uid="{F0CFF0F4-0071-BD4C-BD87-A92DD26B1B46}" name="Column104"/>
+    <tableColumn id="105" xr3:uid="{13B86D6E-D709-6D45-9AE8-2168C416F67D}" name="Column105"/>
+    <tableColumn id="106" xr3:uid="{07F911B2-F90C-FB48-BC1E-3573EF39FC3C}" name="Column106"/>
+    <tableColumn id="107" xr3:uid="{648C378D-81A1-DC43-AE74-439520228074}" name="Column107"/>
+    <tableColumn id="108" xr3:uid="{DBAB68D2-95E4-004E-9463-4712FFBCA5F7}" name="Column108"/>
+    <tableColumn id="109" xr3:uid="{BC4A60CC-1B22-1C48-B582-AAFEB8D6FA1B}" name="Column109"/>
+    <tableColumn id="110" xr3:uid="{086978AC-9089-5646-8EE8-9CC9CFDF8959}" name="Column110"/>
+    <tableColumn id="111" xr3:uid="{E5EBEF50-ECB7-0D45-93B2-DBE298D315E9}" name="Column111"/>
+    <tableColumn id="112" xr3:uid="{5C8F5AB0-9098-6546-9026-15CAD8DF580C}" name="Column112"/>
+    <tableColumn id="113" xr3:uid="{91170BDD-5CC8-E84E-93DC-BB270A030AA2}" name="Column113"/>
+    <tableColumn id="114" xr3:uid="{66A07F39-0810-884A-BA99-6D5EB5CEACEF}" name="Column114"/>
+    <tableColumn id="115" xr3:uid="{C119E250-AB69-C64B-817F-8B413D2B3204}" name="Column115"/>
+    <tableColumn id="116" xr3:uid="{9590D790-9899-324D-9AEB-D291E6EEB05B}" name="Column116"/>
+    <tableColumn id="117" xr3:uid="{C348B189-5AAE-954C-A240-F4DA32706B75}" name="Column117"/>
+    <tableColumn id="118" xr3:uid="{3121D200-1C04-4141-BA75-84CB299E8189}" name="Column118"/>
+    <tableColumn id="119" xr3:uid="{14E1ACA9-B294-3C46-88F7-6B9101E926CD}" name="Column119"/>
+    <tableColumn id="120" xr3:uid="{B707A6A9-5ED3-284B-88B4-F781A5E529D9}" name="Column120"/>
+    <tableColumn id="121" xr3:uid="{2B6FBD9E-6A25-CE4D-87A7-FEA7BFC0E72B}" name="Column121"/>
+    <tableColumn id="122" xr3:uid="{7E133E0B-21B9-0E42-A225-C8878D2514E2}" name="Column122"/>
+    <tableColumn id="123" xr3:uid="{7EF15564-5974-8F42-A5EA-FB0FB1E189B9}" name="Column123"/>
+    <tableColumn id="124" xr3:uid="{6F76653E-EE18-5A40-B587-5A8130C90D48}" name="Column124"/>
+    <tableColumn id="125" xr3:uid="{9CA789E1-3B7F-7F44-B4DA-C4DAA49E805C}" name="Column125"/>
+    <tableColumn id="126" xr3:uid="{94F33247-CDB6-3842-9180-1C11DBFC7AEC}" name="Column126"/>
+    <tableColumn id="127" xr3:uid="{7783D52C-3940-FB4E-84AB-F8678B56DB31}" name="Column127"/>
+    <tableColumn id="128" xr3:uid="{D16548F8-BFBE-CC46-9561-C959A5823EB3}" name="Column128"/>
+    <tableColumn id="129" xr3:uid="{154E4B08-CA5F-4942-BDBB-452AFAE15202}" name="Column129"/>
+    <tableColumn id="130" xr3:uid="{9BE60701-B5A3-2E41-BA35-B17BC3D4726A}" name="Column130"/>
+    <tableColumn id="131" xr3:uid="{47478556-A077-DA4F-949D-B72765FD5701}" name="Column131"/>
+    <tableColumn id="132" xr3:uid="{F9B6E995-1814-6D44-9184-AC64EF61F04C}" name="Column132"/>
+    <tableColumn id="133" xr3:uid="{01FBEC5E-C37E-B845-A4BD-99658CE9FE58}" name="Column133"/>
+    <tableColumn id="134" xr3:uid="{21B7CCEE-74D1-FD47-9D8B-205CC81A18F7}" name="Column134"/>
+    <tableColumn id="135" xr3:uid="{E354370D-6D56-EE47-ADDE-E45692CD8BE3}" name="Column135"/>
+    <tableColumn id="136" xr3:uid="{E4DDA3E2-5D9E-4F45-A00E-4EE6CE0BDD92}" name="Column136"/>
+    <tableColumn id="137" xr3:uid="{AE1122DE-CE70-DD43-8F65-07BD3B1D1130}" name="Column137"/>
+    <tableColumn id="138" xr3:uid="{B6999E44-F7F0-C04D-9908-19472F8DC4C1}" name="Column138"/>
+    <tableColumn id="139" xr3:uid="{F697DC78-5786-9145-B5E1-7790616A0F61}" name="Column139"/>
+    <tableColumn id="140" xr3:uid="{14B59AF9-DCB4-7443-90D8-F68AFA02E093}" name="Column140"/>
+    <tableColumn id="141" xr3:uid="{11520DAD-9DA6-F243-8CC2-9CA29E437A06}" name="Column141"/>
+    <tableColumn id="142" xr3:uid="{135AFDD9-AE5D-E54B-9CD7-84263ABCD679}" name="Column142"/>
+    <tableColumn id="143" xr3:uid="{11004243-C6A5-8645-97AC-957C84F68EBE}" name="Column143"/>
+    <tableColumn id="144" xr3:uid="{4A9F13D9-B742-B94B-910C-611BCDC09A2A}" name="Column144"/>
+    <tableColumn id="145" xr3:uid="{BA87403C-6A27-4C4F-BBF8-B19E7AD1C9CA}" name="Column145"/>
+    <tableColumn id="146" xr3:uid="{80F1F435-E5F6-254C-B413-4229B259629D}" name="Column146"/>
+    <tableColumn id="147" xr3:uid="{6AA09862-6643-5044-9A97-D0708AFDEEDD}" name="Column147"/>
+    <tableColumn id="148" xr3:uid="{30B9C704-CDF0-C944-AC7A-5C134E4B0896}" name="Column148"/>
+    <tableColumn id="149" xr3:uid="{BFFD3DCA-E923-034F-8E8A-F058A589CBE5}" name="Column149"/>
+    <tableColumn id="150" xr3:uid="{5AA60C19-FABF-614A-9224-F2F6A3B6BB7D}" name="Column150"/>
+    <tableColumn id="151" xr3:uid="{8ADB6ECB-BA44-5E47-B21F-71AEB195275A}" name="Column151"/>
+    <tableColumn id="152" xr3:uid="{11233F33-197B-A746-910B-2BE4929E4565}" name="Column152"/>
+    <tableColumn id="153" xr3:uid="{E25AD75A-EE77-6648-928C-BC49B4C7B59C}" name="Column153"/>
+    <tableColumn id="154" xr3:uid="{263BFC4F-E5EF-1744-AAFE-5310CB4C6F32}" name="Column154"/>
+    <tableColumn id="155" xr3:uid="{7C459820-5B64-2647-A75B-77B47BFD2F18}" name="Column155"/>
+    <tableColumn id="156" xr3:uid="{E69AA976-E881-8146-A6E1-B17C0BE7C272}" name="Column156"/>
+    <tableColumn id="157" xr3:uid="{FABA6F4C-4FA9-354E-A175-225B31973052}" name="Column157"/>
+    <tableColumn id="158" xr3:uid="{28E9F633-EEBD-C24A-98A4-A6C710121CDF}" name="Column158"/>
+    <tableColumn id="159" xr3:uid="{B56A9AD8-E1F7-D647-BDA2-B533262F0236}" name="Column159"/>
+    <tableColumn id="160" xr3:uid="{5B7BBDEF-F1D2-B348-8D76-354164BB72CA}" name="Column160"/>
+    <tableColumn id="161" xr3:uid="{29AFB93E-0C98-A34D-8F79-B6551E30DE24}" name="Column161"/>
+    <tableColumn id="162" xr3:uid="{796A7A9C-946E-974E-A8DE-65023CFABD6D}" name="Column162"/>
+    <tableColumn id="163" xr3:uid="{BAAC3347-7284-6243-B164-9DAFC55A4C7C}" name="Column163"/>
+    <tableColumn id="164" xr3:uid="{4B8B1208-FB02-144A-83B3-E8D705FDDC3D}" name="Column164"/>
+    <tableColumn id="165" xr3:uid="{71598D27-5B89-3D48-9C9E-59F0535C04A9}" name="Column165"/>
+    <tableColumn id="166" xr3:uid="{5AAC83AA-63F7-454A-9679-C168034FA995}" name="Column166"/>
+    <tableColumn id="167" xr3:uid="{3252B9B3-8679-A84A-85CE-7A0662D73845}" name="Column167"/>
+    <tableColumn id="168" xr3:uid="{D5322899-138D-F643-8DFE-633AE11036D5}" name="Column168"/>
+    <tableColumn id="169" xr3:uid="{81F00519-C748-1641-A25F-66208C5E2AAC}" name="Column169"/>
+    <tableColumn id="170" xr3:uid="{3DE9F938-C770-214D-8E5A-7BAB155BF0E9}" name="Column170"/>
+    <tableColumn id="171" xr3:uid="{98BE6105-707C-1E49-8261-D62E7895E68D}" name="Column171"/>
+    <tableColumn id="172" xr3:uid="{B88C2B6B-8196-4C43-B962-49C8BA41D944}" name="Column172"/>
+    <tableColumn id="173" xr3:uid="{0D723D99-9E1A-D140-9036-28969248EFD2}" name="Column173"/>
+    <tableColumn id="174" xr3:uid="{73E4AF5D-A069-BA4B-8B8A-5A4EBF4CD560}" name="Column174"/>
+    <tableColumn id="175" xr3:uid="{40C6682E-3621-4D45-9F2B-49B7C6C521EC}" name="Column175"/>
+    <tableColumn id="176" xr3:uid="{0684859E-0665-6847-8B7B-6E59FA1A3E61}" name="Column176"/>
+    <tableColumn id="177" xr3:uid="{4248CECB-A61F-9544-8BD0-F485E6C20A87}" name="Column177"/>
+    <tableColumn id="178" xr3:uid="{AC8213CB-6CDB-0E43-8B11-16ABA507EBF2}" name="Column178"/>
+    <tableColumn id="179" xr3:uid="{5059F7A3-586F-EE42-9F06-D202FC308C65}" name="Column179"/>
+    <tableColumn id="180" xr3:uid="{1A8839B1-D575-B841-8F10-9DA986E94439}" name="Column180"/>
+    <tableColumn id="181" xr3:uid="{7CE483A1-BF60-7141-AFB3-A9EE0096AD23}" name="Column181"/>
+    <tableColumn id="182" xr3:uid="{7B079F77-4C10-784D-BEB4-03A060AE13B7}" name="Column182"/>
+    <tableColumn id="183" xr3:uid="{4062A230-4591-984F-AA6B-3E0EAB8E0065}" name="Column183"/>
+    <tableColumn id="184" xr3:uid="{65EBAD47-E2C3-A049-8728-D02BE430F397}" name="Column184"/>
+    <tableColumn id="185" xr3:uid="{9CBAB384-0C06-0F49-AB89-AE9270F2075B}" name="Column185"/>
+    <tableColumn id="186" xr3:uid="{F575BC16-D1C6-3A40-B2F3-3A4E359C694D}" name="Column186"/>
+    <tableColumn id="187" xr3:uid="{8B5AC70B-19C6-374E-AA13-B257C774CEA3}" name="Column187"/>
+    <tableColumn id="188" xr3:uid="{139FD0E5-01F8-6146-8E04-06D7E1AE4066}" name="Column188"/>
+    <tableColumn id="189" xr3:uid="{A263E875-D537-B14A-B1E9-22554E3127F1}" name="Column189"/>
+    <tableColumn id="190" xr3:uid="{DC3080A4-EE7B-2A4D-98C5-087FEABAA014}" name="Column190"/>
+    <tableColumn id="191" xr3:uid="{9351D046-1901-B14E-A2B0-56B50A11A0AD}" name="Column191"/>
+    <tableColumn id="192" xr3:uid="{3EA5278E-B7B2-0940-8368-F695FC023141}" name="Column192"/>
+    <tableColumn id="193" xr3:uid="{B8FAFA41-029B-E044-9B48-4A8400B34872}" name="Column193"/>
+    <tableColumn id="194" xr3:uid="{0C0D41AE-C7F2-6F45-82BB-CA8318AB3B77}" name="Column194"/>
+    <tableColumn id="195" xr3:uid="{CADDF410-2747-1F49-B109-E89720F2E523}" name="Column195"/>
+    <tableColumn id="196" xr3:uid="{559176DB-3A91-EC42-9F1D-0C1A81952256}" name="Column196"/>
+    <tableColumn id="197" xr3:uid="{DCD6EEE3-37CD-094C-8D1D-6D5458AAD1E8}" name="Column197"/>
+    <tableColumn id="198" xr3:uid="{EFCA2B08-0FED-8143-AEFF-77E9197DCAEA}" name="Column198"/>
+    <tableColumn id="199" xr3:uid="{562D64E8-9BD9-574F-B65C-613ECFC11E08}" name="Column199"/>
+    <tableColumn id="200" xr3:uid="{EEED9B5B-E5E6-8242-9502-ED7BF6AECACA}" name="Column200"/>
+    <tableColumn id="201" xr3:uid="{7955E2B8-E3E7-1B43-9965-17DCDC959485}" name="Column201"/>
+    <tableColumn id="202" xr3:uid="{EB0FA0E4-143D-F54B-AB46-94CE61CC5061}" name="Column202"/>
+    <tableColumn id="203" xr3:uid="{1659D881-406D-A940-8FC1-E3C1C6E38FD2}" name="Column203"/>
+    <tableColumn id="204" xr3:uid="{37CAD5AA-32CF-354C-9517-2D7678992619}" name="Column204"/>
+    <tableColumn id="205" xr3:uid="{6BC87DFE-D4D7-9645-945C-CDF7B7A7F3CC}" name="Column205"/>
+    <tableColumn id="206" xr3:uid="{456A508D-5D45-7647-9411-ECC0E39CBE0A}" name="Column206"/>
+    <tableColumn id="207" xr3:uid="{DA6F0F13-4A9D-1F44-94BE-EC3A3DDC45DA}" name="Column207"/>
+    <tableColumn id="208" xr3:uid="{D38C8D4C-8879-4A46-88C7-D2DF33CB49D4}" name="Column208"/>
+    <tableColumn id="209" xr3:uid="{0E64EF48-0CB3-E34A-ADA4-BB0C9DD53907}" name="Column209"/>
+    <tableColumn id="210" xr3:uid="{177D9615-AECE-7945-8990-D6A9591A8359}" name="Column210"/>
+    <tableColumn id="211" xr3:uid="{EE1E5FAD-60E8-BC45-A322-666BDA0455AE}" name="Column211"/>
+    <tableColumn id="212" xr3:uid="{E4B62711-F957-4547-915E-70019EF24778}" name="Column212"/>
+    <tableColumn id="213" xr3:uid="{1E0489A5-139D-9A41-9A84-DBA797F1D51D}" name="Column213"/>
+    <tableColumn id="214" xr3:uid="{1A13F828-73AC-5540-9EA5-47E00253DCBC}" name="Column214"/>
+    <tableColumn id="215" xr3:uid="{C5BCA9AB-59A3-9C48-B4AF-AAAFB5B3569D}" name="Column215"/>
+    <tableColumn id="216" xr3:uid="{F352B02C-1BE9-B84D-B909-E95A43764CDA}" name="Column216"/>
+    <tableColumn id="217" xr3:uid="{09BD78AF-379B-A046-847C-5CE0A54F1CC0}" name="Column217"/>
+    <tableColumn id="218" xr3:uid="{A660CF19-2E5D-E74C-B4FD-5CAE963DFD7C}" name="Column218"/>
+    <tableColumn id="219" xr3:uid="{6AACBB99-862F-CA41-9EF3-8B5AA4A06ACC}" name="Column219"/>
+    <tableColumn id="220" xr3:uid="{D406FA81-AA22-144F-81B9-DF63D488F4D7}" name="Column220"/>
+    <tableColumn id="221" xr3:uid="{EC2C199D-4F92-8A44-8A67-1B003FEA5FC8}" name="Column221"/>
+    <tableColumn id="222" xr3:uid="{8BE848D6-9482-9C44-B247-F45C91A92A73}" name="Column222"/>
+    <tableColumn id="223" xr3:uid="{0F6149B7-7F4F-B140-952A-5580C03E37CD}" name="Column223"/>
+    <tableColumn id="224" xr3:uid="{A74E1439-6E6A-814A-9D7C-2D3724AF36A0}" name="Column224"/>
+    <tableColumn id="225" xr3:uid="{88F40EBF-E1E8-704E-BAAB-9C706C19F020}" name="Column225"/>
+    <tableColumn id="226" xr3:uid="{74B855E1-2B42-724B-AC77-46D933FDF442}" name="Column226"/>
+    <tableColumn id="227" xr3:uid="{29CA6DCC-8624-D84F-BC89-6590DFC933DA}" name="Column227"/>
+    <tableColumn id="228" xr3:uid="{7A542EF2-20A7-3E48-98BF-B106D5F368DF}" name="Column228"/>
+    <tableColumn id="229" xr3:uid="{F122EEF9-54B9-544B-A346-78292A6A1456}" name="Column229"/>
+    <tableColumn id="230" xr3:uid="{836D16A4-5C6D-F84A-923F-EA638B738348}" name="Column230"/>
+    <tableColumn id="231" xr3:uid="{0D847AB4-C0D7-1849-B386-C2C1A5955F72}" name="Column231"/>
+    <tableColumn id="232" xr3:uid="{99B2403C-20E3-134B-9F21-60A1D932BDFE}" name="Column232"/>
+    <tableColumn id="233" xr3:uid="{04830A34-5F90-7641-A244-1F2BB8903DD9}" name="Column233"/>
+    <tableColumn id="234" xr3:uid="{B47F4325-6C37-4645-A98E-D0F834C70B52}" name="Column234"/>
+    <tableColumn id="235" xr3:uid="{561815C9-7CED-6847-93BF-8204C5492E33}" name="Column235"/>
+    <tableColumn id="236" xr3:uid="{56DDA00B-084D-2F47-BCB2-A6990E8D4A27}" name="Column236"/>
+    <tableColumn id="237" xr3:uid="{4C1B5B9E-161E-C04F-BFB6-6EF741228F5A}" name="Column237"/>
+    <tableColumn id="238" xr3:uid="{39F4CBDD-8ACB-424F-BB8A-1D2046C9F6BF}" name="Column238"/>
+    <tableColumn id="239" xr3:uid="{37B6DB13-ABA1-CA4D-8FD7-42C51E4F23CF}" name="Column239"/>
+    <tableColumn id="240" xr3:uid="{F6022531-A9B0-074A-9965-C9187C5878C1}" name="Column240"/>
+    <tableColumn id="241" xr3:uid="{A727E7C1-A0E4-8A45-AD31-594783DB3672}" name="Column241"/>
+    <tableColumn id="242" xr3:uid="{E24FF3FA-4C64-8C43-B7B3-AC9EE427A59B}" name="Column242"/>
+    <tableColumn id="243" xr3:uid="{7C49FC44-7090-5047-B0A9-DEB50BE1EC20}" name="Column243"/>
+    <tableColumn id="244" xr3:uid="{A3E6173E-B765-044C-B8CD-9242ADA85A7D}" name="Column244"/>
+    <tableColumn id="245" xr3:uid="{D0AAD766-EA0A-6249-B527-4D056F6FD45A}" name="Column245"/>
+    <tableColumn id="246" xr3:uid="{AB220D97-8F26-B944-A0FA-CFE4BC7ADF6A}" name="Column246"/>
+    <tableColumn id="247" xr3:uid="{05DB24F5-30BF-C549-8D38-0FA77908821C}" name="Column247"/>
+    <tableColumn id="248" xr3:uid="{E659A529-A9EC-A043-ADD7-3F73C0CB741D}" name="Column248"/>
+    <tableColumn id="249" xr3:uid="{9DD602C9-4BE5-8C4C-8ACF-8F2D81E3AA33}" name="Column249"/>
+    <tableColumn id="250" xr3:uid="{07F8680E-5C87-114E-B155-D4A745B7F7FC}" name="Column250"/>
+    <tableColumn id="251" xr3:uid="{BAEFF16E-7C3E-414D-82D4-0AE06BD2F1F9}" name="Column251"/>
+    <tableColumn id="252" xr3:uid="{E7AA9371-1FC8-EF4E-BFA8-B13A3512C9DE}" name="Column252"/>
+    <tableColumn id="253" xr3:uid="{31BB678A-4BB0-1945-B2B2-FB6B97197F7D}" name="Column253"/>
+    <tableColumn id="254" xr3:uid="{AAE1C93D-083E-0B4C-BF40-462A54C6277F}" name="Column254"/>
+    <tableColumn id="255" xr3:uid="{48BC3A6B-6AB7-E449-9FD3-AFBD37B467F8}" name="Column255"/>
+    <tableColumn id="256" xr3:uid="{CD225647-703B-EE47-939A-3C329F7B5A4C}" name="Column256"/>
+    <tableColumn id="257" xr3:uid="{BB3E4EE2-4FF3-CC4E-B783-91EA84CBF98E}" name="Column257"/>
+    <tableColumn id="258" xr3:uid="{40B348CF-A88C-394C-B8D5-A21F1542B199}" name="Column258"/>
+    <tableColumn id="259" xr3:uid="{10F44CBF-CF37-6347-8E1C-83C12A7383AC}" name="Column259"/>
+    <tableColumn id="260" xr3:uid="{8BC314CE-285C-C748-8FAC-FA18CE646983}" name="Column260"/>
+    <tableColumn id="261" xr3:uid="{E95658CB-1AA2-F940-AD2F-164544B17903}" name="Column261"/>
+    <tableColumn id="262" xr3:uid="{8E8D1DB6-031B-574A-B078-7D5B4B4347A0}" name="Column262"/>
+    <tableColumn id="263" xr3:uid="{2B100943-2F4F-C94E-A09C-C98E24D8FAE2}" name="Column263"/>
+    <tableColumn id="264" xr3:uid="{80139583-C015-4240-88B7-0CDE3084D76F}" name="Column264"/>
+    <tableColumn id="265" xr3:uid="{D7520D60-564C-5A42-832B-DAE72D2D3ED4}" name="Column265"/>
+    <tableColumn id="266" xr3:uid="{E83EB9E3-2EC9-2448-92CA-0B667860D869}" name="Column266"/>
+    <tableColumn id="267" xr3:uid="{D9B9C0CD-AC1C-554B-800B-CC635E59CD17}" name="Column267"/>
+    <tableColumn id="268" xr3:uid="{3135084C-6FEF-4B48-90A3-B3DE95A673F1}" name="Column268"/>
+    <tableColumn id="269" xr3:uid="{C0C1F251-DFB0-A541-BAF9-402C277D902B}" name="Column269"/>
+    <tableColumn id="270" xr3:uid="{1EC929DA-1994-D943-AE60-94BBEB1873C8}" name="Column270"/>
+    <tableColumn id="271" xr3:uid="{30A83480-5240-3C4D-AC5B-C5AF8EB7A3B5}" name="Column271"/>
+    <tableColumn id="272" xr3:uid="{2C85E5E0-8252-F140-92C1-328AB0409E79}" name="Column272"/>
+    <tableColumn id="273" xr3:uid="{67A0A4E5-3498-BB48-AAAB-940F0D63F945}" name="Column273"/>
+    <tableColumn id="274" xr3:uid="{DFF6DDFE-C3A1-CE41-9E5E-6B8DC0240633}" name="Column274"/>
+    <tableColumn id="275" xr3:uid="{C6AE891C-8909-734B-941C-D08C34DB460F}" name="Column275"/>
+    <tableColumn id="276" xr3:uid="{916DC53F-C6AB-7D44-B60B-87F08D8D375C}" name="Column276"/>
+    <tableColumn id="277" xr3:uid="{4DF40454-CB18-564F-9937-B1AE53FC7D08}" name="Column277"/>
+    <tableColumn id="278" xr3:uid="{8A79C431-AF85-004C-B264-4654C600F25D}" name="Column278"/>
+    <tableColumn id="279" xr3:uid="{21EC99DD-B097-B64E-BEFC-DDC00FAC6588}" name="Column279"/>
+    <tableColumn id="280" xr3:uid="{0B5F9FE4-55A7-5C47-AD94-795E1C759BB9}" name="Column280"/>
+    <tableColumn id="281" xr3:uid="{40312F63-3178-AB40-BCD6-D7B6B255D03A}" name="Column281"/>
+    <tableColumn id="282" xr3:uid="{F3F158B1-87C5-4047-8B5C-1846C446B964}" name="Column282"/>
+    <tableColumn id="283" xr3:uid="{D1E99E47-C2F4-7E4B-B480-131DC3FCFEE2}" name="Column283"/>
+    <tableColumn id="284" xr3:uid="{B3BD0E1F-1D30-654F-887C-2CFC0767CD3A}" name="Column284"/>
+    <tableColumn id="285" xr3:uid="{45FF022B-33C3-7744-BC13-574A35AFEE9B}" name="Column285"/>
+    <tableColumn id="286" xr3:uid="{D3B60F73-8866-5E44-B502-EEBA69E925E4}" name="Column286"/>
+    <tableColumn id="287" xr3:uid="{B607F0F7-3792-EF4E-8D08-7F6639AFC206}" name="Column287"/>
+    <tableColumn id="288" xr3:uid="{923AF52A-161F-884D-A0FD-39640D452018}" name="Column288"/>
+    <tableColumn id="289" xr3:uid="{6122EC07-D10C-BC44-A545-8ACA88A21CBC}" name="Column289"/>
+    <tableColumn id="290" xr3:uid="{31AC9E66-9801-F147-ACCF-95BD5504E9BB}" name="Column290"/>
+    <tableColumn id="291" xr3:uid="{77275DE5-9F9A-6945-AC8F-BB117569FAC4}" name="Column291"/>
+    <tableColumn id="292" xr3:uid="{F3807DA1-1C9C-7F4C-A88D-28EF62A9F422}" name="Column292"/>
+    <tableColumn id="293" xr3:uid="{6B5005C0-A8B3-0342-B32A-9EC0191F72EA}" name="Column293"/>
+    <tableColumn id="294" xr3:uid="{6DECB463-7B6A-BF4B-A5AF-B86FB848B5DD}" name="Column294"/>
+    <tableColumn id="295" xr3:uid="{476FF98E-8C14-4148-A412-CA9BB6798CB4}" name="Column295"/>
+    <tableColumn id="296" xr3:uid="{C4D1FF23-29BE-2647-B9A3-E6CD62B82F18}" name="Column296"/>
+    <tableColumn id="297" xr3:uid="{0624944E-6B28-DD47-AEF2-81F249841E79}" name="Column297"/>
+    <tableColumn id="298" xr3:uid="{F1E05A0C-7909-A34B-A5A1-F9D035170A1E}" name="Column298"/>
+    <tableColumn id="299" xr3:uid="{3FF18811-928B-444B-9749-9E2C8F1C6DCA}" name="Column299"/>
+    <tableColumn id="300" xr3:uid="{6044DD6D-B91E-4C4C-BDFB-BCB878120004}" name="Column300"/>
+    <tableColumn id="301" xr3:uid="{071449D7-83D4-5C49-9C57-FEAD72FA237E}" name="Column301"/>
+    <tableColumn id="302" xr3:uid="{CECBC202-BD9E-5C41-9429-47189A8E3528}" name="Column302"/>
+    <tableColumn id="303" xr3:uid="{CACCE0C3-05D5-244E-BF01-B1C3153437DF}" name="Column303"/>
+    <tableColumn id="304" xr3:uid="{2BAF1434-11E1-634C-966D-71C1AC6B2B55}" name="Column304"/>
+    <tableColumn id="305" xr3:uid="{DD79D9F0-1365-7E44-B7DF-A2B72CD39138}" name="Column305"/>
+    <tableColumn id="306" xr3:uid="{67292993-CF78-6749-961D-BF1533AF81F2}" name="Column306"/>
+    <tableColumn id="307" xr3:uid="{CE345B91-04A9-BC4D-A85F-0D54C5C63B11}" name="Column307"/>
+    <tableColumn id="308" xr3:uid="{DC90187A-0807-A142-AA3C-2E699FD878D9}" name="Column308"/>
+    <tableColumn id="309" xr3:uid="{8D0EF027-776B-DF45-BE60-3E22D77A5C52}" name="Column309"/>
+    <tableColumn id="310" xr3:uid="{B7287C27-A25B-3947-A53C-66C59D832C70}" name="Column310"/>
+    <tableColumn id="311" xr3:uid="{89C6E5EB-5B3E-004C-8084-74A542658F59}" name="Column311"/>
+    <tableColumn id="312" xr3:uid="{62D3685F-5197-DA40-9DB0-FED9EA15EC6E}" name="Column312"/>
+    <tableColumn id="313" xr3:uid="{57B384D7-BC14-D648-BEEA-092401C45E96}" name="Column313"/>
+    <tableColumn id="314" xr3:uid="{93C46B21-E1E2-374C-8DA4-76D40AC16318}" name="Column314"/>
+    <tableColumn id="315" xr3:uid="{E63C0792-AEE3-884B-AD61-C3365C571B24}" name="Column315"/>
+    <tableColumn id="316" xr3:uid="{3C1FABF5-4490-8242-8EF3-8BE8B9CAC1A2}" name="Column316"/>
+    <tableColumn id="317" xr3:uid="{EA44140F-BDC7-CB43-89D1-F631B98E4A27}" name="Column317"/>
+    <tableColumn id="318" xr3:uid="{0453F2FF-DA8F-9B48-89BF-E790D9DFC936}" name="Column318"/>
+    <tableColumn id="319" xr3:uid="{BD9E2D43-50C6-AE44-821A-E116B178F1D3}" name="Column319"/>
+    <tableColumn id="320" xr3:uid="{665FF535-86A3-0746-ADA3-D567D57A58EB}" name="Column320"/>
+    <tableColumn id="321" xr3:uid="{AE3B619D-2DA1-C543-A153-F87642700241}" name="Column321"/>
+    <tableColumn id="322" xr3:uid="{784946DE-13B9-D648-A621-32E2696E6514}" name="Column322"/>
+    <tableColumn id="323" xr3:uid="{177FAC43-69D0-1149-A76F-CDF89798500E}" name="Column323"/>
+    <tableColumn id="324" xr3:uid="{233BF7A7-4BB6-B642-BDCE-064F625729C2}" name="Column324"/>
+    <tableColumn id="325" xr3:uid="{344D731B-82F4-8C4F-8022-48FC9086BDC1}" name="Column325"/>
+    <tableColumn id="326" xr3:uid="{F77D918E-3940-614D-ACC7-002DE56EF146}" name="Column326"/>
+    <tableColumn id="327" xr3:uid="{B78A1537-C72E-0B4F-B9E0-23464DC612B1}" name="Column327"/>
+    <tableColumn id="328" xr3:uid="{4178CE87-D52D-6146-9765-4AAEE14548F9}" name="Column328"/>
+    <tableColumn id="329" xr3:uid="{946CF41F-08B7-CE4B-AB7B-A970A8B2757C}" name="Column329"/>
+    <tableColumn id="330" xr3:uid="{A2FBDE47-F5BC-4B45-AEA6-C18058D82930}" name="Column330"/>
+    <tableColumn id="331" xr3:uid="{2B2EF140-0E36-604A-9379-F5D634646787}" name="Column331"/>
+    <tableColumn id="332" xr3:uid="{7BA531AD-7A72-5B42-A48E-8C20F32305E1}" name="Column332"/>
+    <tableColumn id="333" xr3:uid="{58951A89-4966-CD45-9B55-A061EAD760AE}" name="Column333"/>
+    <tableColumn id="334" xr3:uid="{4F6D1339-3893-2549-8B58-6F1E13F4AD67}" name="Column334"/>
+    <tableColumn id="335" xr3:uid="{CE4F1D08-D3A0-4042-A6D6-16C3BFDBE361}" name="Column335"/>
+    <tableColumn id="336" xr3:uid="{C8DB59F2-B3F5-B64F-899C-B765DE0E171C}" name="Column336"/>
+    <tableColumn id="337" xr3:uid="{FA0D7915-184B-CE4F-A117-5A7AEBBBA135}" name="Column337"/>
+    <tableColumn id="338" xr3:uid="{DC04FAE3-4C3C-C54E-8040-2EF2B33BE09B}" name="Column338"/>
+    <tableColumn id="339" xr3:uid="{6FF5872F-E257-8347-B20F-E01414ED3A32}" name="Column339"/>
+    <tableColumn id="340" xr3:uid="{AD018419-28E7-0742-833F-78CAC5261A70}" name="Column340"/>
+    <tableColumn id="341" xr3:uid="{D2BFD504-218F-014B-B5B0-C5B45D03503E}" name="Column341"/>
+    <tableColumn id="342" xr3:uid="{AB612831-81AE-5244-B0F3-B74EBDB6E979}" name="Column342"/>
+    <tableColumn id="343" xr3:uid="{DFCEF41B-F0F5-6146-B905-A93B7AEF3D5C}" name="Column343"/>
+    <tableColumn id="344" xr3:uid="{127F35D6-6AE7-2145-8C4B-C4D5D36DC75A}" name="Column344"/>
+    <tableColumn id="345" xr3:uid="{13DD0C8F-F7E5-7D40-9A50-19B3ED55C202}" name="Column345"/>
+    <tableColumn id="346" xr3:uid="{8D611D32-13FA-2640-A865-E8FF32FD30AF}" name="Column346"/>
+    <tableColumn id="347" xr3:uid="{4F7ADD5F-F77F-404E-9FCE-A85212BCEA29}" name="Column347"/>
+    <tableColumn id="348" xr3:uid="{DCDFD2B8-05BE-E346-B125-194DADF4FD96}" name="Column348"/>
+    <tableColumn id="349" xr3:uid="{DB14CA89-FDCA-BB48-A546-CB92A3397028}" name="Column349"/>
+    <tableColumn id="350" xr3:uid="{A5197FC6-A8B9-FE49-A238-56ECA7A2AA25}" name="Column350"/>
+    <tableColumn id="351" xr3:uid="{D49741E5-91AA-A74C-981B-C1A1DE94F721}" name="Column351"/>
+    <tableColumn id="352" xr3:uid="{3F452978-14E0-6B4D-B3B4-163986B83340}" name="Column352"/>
+    <tableColumn id="353" xr3:uid="{B030F3BF-9E32-D043-B87C-48E9746EAC46}" name="Column353"/>
+    <tableColumn id="354" xr3:uid="{C61371A2-1290-FE4E-A2D6-F018C6BD7869}" name="Column354"/>
+    <tableColumn id="355" xr3:uid="{22FDAB6E-9D75-CC45-9051-3669C1914AD6}" name="Column355"/>
+    <tableColumn id="356" xr3:uid="{17588369-5554-6D4A-A3A0-C554E049F4B8}" name="Column356"/>
+    <tableColumn id="357" xr3:uid="{67FB7E4C-FE99-4346-B01D-C36160FA34E8}" name="Column357"/>
+    <tableColumn id="358" xr3:uid="{CF363338-57E2-C742-930F-98DD1C327CCA}" name="Column358"/>
+    <tableColumn id="359" xr3:uid="{FE79126B-FC20-3C41-B793-837C26C955F5}" name="Column359"/>
+    <tableColumn id="360" xr3:uid="{A7A7B997-51CF-F34A-A4F4-897F790A57AC}" name="Column360"/>
+    <tableColumn id="361" xr3:uid="{7D102001-DC55-2148-9DF0-00A1FCEC19C3}" name="Column361"/>
+    <tableColumn id="362" xr3:uid="{87C069F1-50BF-214B-843A-403236FAF78F}" name="Column362"/>
+    <tableColumn id="363" xr3:uid="{FF842E99-1F76-3847-BE99-339D60E5BF76}" name="Column363"/>
+    <tableColumn id="364" xr3:uid="{0CBCF261-7548-7F48-9184-2B2E2389996D}" name="Column364"/>
+    <tableColumn id="365" xr3:uid="{6248F57A-796D-A047-868A-95821204BAF4}" name="Column365"/>
+    <tableColumn id="366" xr3:uid="{2436C441-7D45-0B42-9A03-9CBF9BAD2B96}" name="Column366"/>
+    <tableColumn id="367" xr3:uid="{9A0AE546-06E7-7C40-9B4E-F10BA87C0B65}" name="Column367"/>
+    <tableColumn id="368" xr3:uid="{32BEE899-592B-7241-A609-711A6C15628B}" name="Column368"/>
+    <tableColumn id="369" xr3:uid="{1701DD55-E7CE-094A-B3F7-84918D48265A}" name="Column369"/>
+    <tableColumn id="370" xr3:uid="{9A674857-1648-D04B-ABE6-803756EF31AA}" name="Column370"/>
+    <tableColumn id="371" xr3:uid="{3E380ECC-B802-DD46-A7A8-8E1479983E9E}" name="Column371"/>
+    <tableColumn id="372" xr3:uid="{8CC05407-B093-FD49-96D8-E91E374F8416}" name="Column372"/>
+    <tableColumn id="373" xr3:uid="{6921F777-CDCC-C740-80C3-508D33D01B52}" name="Column373"/>
+    <tableColumn id="374" xr3:uid="{8EDD7F0B-82E6-B041-B912-228B7770C949}" name="Column374"/>
+    <tableColumn id="375" xr3:uid="{CAFD1548-8997-584D-B46D-45375760B701}" name="Column375"/>
+    <tableColumn id="376" xr3:uid="{53D95749-6C4A-0543-9772-649561E7537F}" name="Column376"/>
+    <tableColumn id="377" xr3:uid="{758B6DCB-D389-8D4A-9CBB-11AD41CC6095}" name="Column377"/>
+    <tableColumn id="378" xr3:uid="{64A96D93-A1BD-9246-916B-88A20484CDE5}" name="Column378"/>
+    <tableColumn id="379" xr3:uid="{EA9A4AB6-61D8-5542-A683-88542305BF1B}" name="Column379"/>
+    <tableColumn id="380" xr3:uid="{BD76B09C-A49F-FF41-B33E-8389E5DFE18A}" name="Column380"/>
+    <tableColumn id="381" xr3:uid="{4196B8DC-0DB4-084B-B935-4E19B6C26A9A}" name="Column381"/>
+    <tableColumn id="382" xr3:uid="{049803C9-FEEF-D54F-B671-E5CD812F7510}" name="Column382"/>
+    <tableColumn id="383" xr3:uid="{8043E94B-F653-6641-BD4E-38411B92E7B1}" name="Column383"/>
+    <tableColumn id="384" xr3:uid="{27B9013E-9EAC-284B-9897-6D9B8855E4CA}" name="Column384"/>
+    <tableColumn id="385" xr3:uid="{046DE979-7C6B-C941-843A-0C79E69218A5}" name="Column385"/>
+    <tableColumn id="386" xr3:uid="{05110D50-B25B-1545-A837-CFC0D16CFEB0}" name="Column386"/>
+    <tableColumn id="387" xr3:uid="{123F3387-B1E0-F44B-82B7-630C504B8D3E}" name="Column387"/>
+    <tableColumn id="388" xr3:uid="{1897E2A8-29A2-374C-A516-D4AB6FD42561}" name="Column388"/>
+    <tableColumn id="389" xr3:uid="{3E522A03-0996-3441-9A68-7948B4B0558E}" name="Column389"/>
+    <tableColumn id="390" xr3:uid="{E4CB1745-9F60-2C49-8C04-182013A36B35}" name="Column390"/>
+    <tableColumn id="391" xr3:uid="{0E40D18C-69BB-A34B-9254-ED3A4CA46ACC}" name="Column391"/>
+    <tableColumn id="392" xr3:uid="{7D385C3D-761F-FF43-B304-89CABC418CBE}" name="Column392"/>
+    <tableColumn id="393" xr3:uid="{E94817CC-1C48-094C-B7F1-E23A3DCAA143}" name="Column393"/>
+    <tableColumn id="394" xr3:uid="{F094E65A-51F3-1D45-BEAC-DA92160249FA}" name="Column394"/>
+    <tableColumn id="395" xr3:uid="{8CBE0DCF-FFA6-BD4A-A8AC-1431D318D16B}" name="Column395"/>
+    <tableColumn id="396" xr3:uid="{47C7AFB0-9BA1-AA43-A8A2-7C39E42BD35B}" name="Column396"/>
+    <tableColumn id="397" xr3:uid="{4D401A90-8368-8B46-A28F-3B2636888683}" name="Column397"/>
+    <tableColumn id="398" xr3:uid="{D9E17EEC-98F6-0740-A6A2-5049810B1D60}" name="Column398"/>
+    <tableColumn id="399" xr3:uid="{73E62ACF-0223-6D41-81CD-E53454550011}" name="Column399"/>
+    <tableColumn id="400" xr3:uid="{ABF34791-73F7-1D42-9015-2041732D7060}" name="Column400"/>
+    <tableColumn id="401" xr3:uid="{6FF89D17-05D2-6A43-AE07-BF2D7039B434}" name="Column401"/>
+    <tableColumn id="402" xr3:uid="{7E67E263-6925-7D45-ADBC-79D733C035E5}" name="Column402"/>
+    <tableColumn id="403" xr3:uid="{EF0C7219-8F46-C94E-8C3F-035EE3ECF112}" name="Column403"/>
+    <tableColumn id="404" xr3:uid="{F9A13907-CC33-AF42-BE25-807CA79AA8A5}" name="Column404"/>
+    <tableColumn id="405" xr3:uid="{93C9C92E-FE7E-1F4C-B099-80707D5B8434}" name="Column405"/>
+    <tableColumn id="406" xr3:uid="{11E1BA47-1B62-4F48-9B85-E6D6433DAD6B}" name="Column406"/>
+    <tableColumn id="407" xr3:uid="{E44E8BEF-3DE6-D647-AB2B-65E7B06C38A1}" name="Column407"/>
+    <tableColumn id="408" xr3:uid="{8D7EC80D-D6C5-8543-B2BB-61CDF8574580}" name="Column408"/>
+    <tableColumn id="409" xr3:uid="{D2292E45-7BA3-624C-8EE5-CA691C20D8EC}" name="Column409"/>
+    <tableColumn id="410" xr3:uid="{A7B474A6-D454-2942-A19C-0E8994B0952E}" name="Column410"/>
+    <tableColumn id="411" xr3:uid="{4C554D77-9BFD-1648-B0B0-80A350547174}" name="Column411"/>
+    <tableColumn id="412" xr3:uid="{F9C77725-1430-C941-BD01-615A548B572E}" name="Column412"/>
+    <tableColumn id="413" xr3:uid="{F41CA0DC-3EF8-3844-BBF0-4187820D267C}" name="Column413"/>
+    <tableColumn id="414" xr3:uid="{27CB557B-8DCE-7843-8798-95AA8067200F}" name="Column414"/>
+    <tableColumn id="415" xr3:uid="{091A3358-ED51-FF43-87D2-5250A4A2A6A3}" name="Column415"/>
+    <tableColumn id="416" xr3:uid="{04ACF243-A5E5-D040-9440-E6407DC1C602}" name="Column416"/>
+    <tableColumn id="417" xr3:uid="{E823EB46-2D19-8741-AAA9-0C71C43DC4BE}" name="Column417"/>
+    <tableColumn id="418" xr3:uid="{A31778E5-C56A-504D-AA06-E05ABE70C44A}" name="Column418"/>
+    <tableColumn id="419" xr3:uid="{E0933129-BC10-094C-917C-82E1341BBC08}" name="Column419"/>
+    <tableColumn id="420" xr3:uid="{F908F842-6970-C64C-A45C-409DCBE2F3B0}" name="Column420"/>
+    <tableColumn id="421" xr3:uid="{0BDD1BD4-CC86-F549-A45B-C8D6175D119E}" name="Column421"/>
+    <tableColumn id="422" xr3:uid="{0AAD98B8-1731-0941-9C2F-D4143C05226F}" name="Column422"/>
+    <tableColumn id="423" xr3:uid="{DD21E753-CDE9-C14D-B6F0-99133D18C628}" name="Column423"/>
+    <tableColumn id="424" xr3:uid="{52D94AB2-8C9F-C049-A1AD-CAD1F493EE19}" name="Column424"/>
+    <tableColumn id="425" xr3:uid="{1F6C386B-15A4-D64E-AFBA-D9E67005D2ED}" name="Column425"/>
+    <tableColumn id="426" xr3:uid="{76020142-398C-1E42-BB90-1042E7B8968C}" name="Column426"/>
+    <tableColumn id="427" xr3:uid="{8D072171-223A-7246-8882-B26B5A49F698}" name="Column427"/>
+    <tableColumn id="428" xr3:uid="{56AB3392-961B-554D-A197-BED8261D4DC7}" name="Column428"/>
+    <tableColumn id="429" xr3:uid="{87B085B6-914C-C34C-BA7D-33A058924700}" name="Column429"/>
+    <tableColumn id="430" xr3:uid="{B78A7F88-6E74-3840-A7C0-20668BD8F657}" name="Column430"/>
+    <tableColumn id="431" xr3:uid="{EB288119-A006-1C48-A09E-6AD3A5B19239}" name="Column431"/>
+    <tableColumn id="432" xr3:uid="{A5D71119-60D8-AA48-8DA5-B4D238DADD4E}" name="Column432"/>
+    <tableColumn id="433" xr3:uid="{A02560D9-391D-F940-84C6-0508DE117FCB}" name="Column433"/>
+    <tableColumn id="434" xr3:uid="{05FA7D20-46E1-8E48-873E-BC08AF67F84D}" name="Column434"/>
+    <tableColumn id="435" xr3:uid="{E67183D8-44EC-9042-AE04-50B3014BCEDC}" name="Column435"/>
+    <tableColumn id="436" xr3:uid="{40E9AF42-681B-5F49-9F19-1A02CDD6F6C4}" name="Column436"/>
+    <tableColumn id="437" xr3:uid="{3CED4B3D-6ED5-4249-85BB-D8391A1B576E}" name="Column437"/>
+    <tableColumn id="438" xr3:uid="{E5D8DDA4-84E4-4948-983D-2FC1B59BD214}" name="Column438"/>
+    <tableColumn id="439" xr3:uid="{FB8084D6-76EB-8545-B3FE-3081002BA471}" name="Column439"/>
+    <tableColumn id="440" xr3:uid="{19677EFD-92DF-344F-98F2-F296D227C7EE}" name="Column440"/>
+    <tableColumn id="441" xr3:uid="{81DDDA67-42F0-D443-AFE1-742C974105A4}" name="Column441"/>
+    <tableColumn id="442" xr3:uid="{986EF2B6-B536-B843-8BC5-38E26B0D5DE3}" name="Column442"/>
+    <tableColumn id="443" xr3:uid="{FFF068AA-6C68-C64C-9945-C008D0B433F1}" name="Column443"/>
+    <tableColumn id="444" xr3:uid="{C64AB49D-4D7A-7C49-AC2E-F125A777DBD6}" name="Column444"/>
+    <tableColumn id="445" xr3:uid="{F850CC72-533E-CA40-94E7-6F2F0DA69A56}" name="Column445"/>
+    <tableColumn id="446" xr3:uid="{20A90EEC-28FD-ED42-931D-879C3EB65C85}" name="Column446"/>
+    <tableColumn id="447" xr3:uid="{F2F3A77F-5122-9045-A0FF-FF76A2834C23}" name="Column447"/>
+    <tableColumn id="448" xr3:uid="{8A78EEFD-5EBC-954F-9D82-8280FA12472F}" name="Column448"/>
+    <tableColumn id="449" xr3:uid="{EB5299C8-2FD8-AE44-B19A-7238E30D3742}" name="Column449"/>
+    <tableColumn id="450" xr3:uid="{52B29CDA-3A94-CF43-ADF0-924707C0D972}" name="Column450"/>
+    <tableColumn id="451" xr3:uid="{88C3295C-1312-A945-B970-EFC95D7C0225}" name="Column451"/>
+    <tableColumn id="452" xr3:uid="{6DB6587C-351B-B247-961D-B924249E7296}" name="Column452"/>
+    <tableColumn id="453" xr3:uid="{780CF297-ECF1-594A-87CA-D63ED41186E3}" name="Column453"/>
+    <tableColumn id="454" xr3:uid="{485C14BD-E53D-414D-874A-25792652D581}" name="Column454"/>
+    <tableColumn id="455" xr3:uid="{B0786EF0-7BC9-AF4E-829B-A0E35BB5BB7A}" name="Column455"/>
+    <tableColumn id="456" xr3:uid="{C5FE2FF9-CFB0-C044-AAD9-23FDF3F49DBE}" name="Column456"/>
+    <tableColumn id="457" xr3:uid="{6E629C4D-3978-AF40-9A48-87497636B480}" name="Column457"/>
+    <tableColumn id="458" xr3:uid="{89B69770-BCD3-8049-BEF7-4FD5053E21E5}" name="Column458"/>
+    <tableColumn id="459" xr3:uid="{BB373998-B4DC-C249-A37E-F3938F88748A}" name="Column459"/>
+    <tableColumn id="460" xr3:uid="{0E9B5154-5D56-3349-A6D0-0B0AB2E4F41D}" name="Column460"/>
+    <tableColumn id="461" xr3:uid="{D72F68B8-B3BE-FA42-A7AA-EEEF51ED40E5}" name="Column461"/>
+    <tableColumn id="462" xr3:uid="{5B8F8AB9-9CED-EE44-87EA-2B4789F5AA8E}" name="Column462"/>
+    <tableColumn id="463" xr3:uid="{144D1628-62D5-D540-803B-7596C234D837}" name="Column463"/>
+    <tableColumn id="464" xr3:uid="{AE5FB4FD-6C88-7243-9D61-CA774AC28699}" name="Column464"/>
+    <tableColumn id="465" xr3:uid="{4E06D6AD-005F-7040-B513-AB9363597746}" name="Column465"/>
+    <tableColumn id="466" xr3:uid="{C86098AC-4FB6-2648-A3D4-00E9386DA0C7}" name="Column466"/>
+    <tableColumn id="467" xr3:uid="{3C726679-E1F1-DF40-8E50-AC8121F2B937}" name="Column467"/>
+    <tableColumn id="468" xr3:uid="{E7525312-C319-9E49-B404-894791EC60AC}" name="Column468"/>
+    <tableColumn id="469" xr3:uid="{14F7E929-2D5B-C142-B7E3-291BED01D91F}" name="Column469"/>
+    <tableColumn id="470" xr3:uid="{883598D0-8EB4-DE4C-AB43-AA4A7B5DD92C}" name="Column470"/>
+    <tableColumn id="471" xr3:uid="{05F58502-98DA-6043-AC32-AAD3DE74FFE1}" name="Column471"/>
+    <tableColumn id="472" xr3:uid="{38776470-E8D9-B440-8CE5-1AC826070FB6}" name="Column472"/>
+    <tableColumn id="473" xr3:uid="{09A980CB-3ECC-DA4D-9926-F1E75C60FE74}" name="Column473"/>
+    <tableColumn id="474" xr3:uid="{8DC8F8C4-04EB-AE46-8FD0-DE0B114DC983}" name="Column474"/>
+    <tableColumn id="475" xr3:uid="{6831B4AD-113B-4D4B-99F3-9E2D1601F618}" name="Column475"/>
+    <tableColumn id="476" xr3:uid="{EE98CCA1-FA88-AC4E-AA17-788CA77D374E}" name="Column476"/>
+    <tableColumn id="477" xr3:uid="{24462253-9A0D-764B-80AA-8ADD61057244}" name="Column477"/>
+    <tableColumn id="478" xr3:uid="{37D569F4-85F4-AD43-97CC-9CE9DB05705E}" name="Column478"/>
+    <tableColumn id="479" xr3:uid="{D0483ACF-9927-4E4D-8FED-82F0F083BC89}" name="Column479"/>
+    <tableColumn id="480" xr3:uid="{9C2F4DD4-D9AA-DC4A-A247-AA399C6A6684}" name="Column480"/>
+    <tableColumn id="481" xr3:uid="{1C0C8789-68C5-B14A-A1CE-5436B83EB0C7}" name="Column481"/>
+    <tableColumn id="482" xr3:uid="{12DA7C40-ECB1-DE45-AE05-B707664E9CF3}" name="Column482"/>
+    <tableColumn id="483" xr3:uid="{B93BA272-A94F-054F-8A34-4651AC5BBA7A}" name="Column483"/>
+    <tableColumn id="484" xr3:uid="{B4ED59C9-FDCF-114F-B97E-76A94C3131FE}" name="Column484"/>
+    <tableColumn id="485" xr3:uid="{93D1C33E-AA24-6B40-A2B8-2F1FE54B5C13}" name="Column485"/>
+    <tableColumn id="486" xr3:uid="{319B9FC4-584F-4548-99A9-D3121792E331}" name="Column486"/>
+    <tableColumn id="487" xr3:uid="{C9C915BD-DD8B-044B-AC40-DC12CC254561}" name="Column487"/>
+    <tableColumn id="488" xr3:uid="{2D7385A8-CF5E-1D4A-A8E1-830BA6D82879}" name="Column488"/>
+    <tableColumn id="489" xr3:uid="{EB768391-16F9-6249-97B7-9FA092D2C247}" name="Column489"/>
+    <tableColumn id="490" xr3:uid="{F29DAAB3-6E65-A642-830F-3D0C6CC7A023}" name="Column490"/>
+    <tableColumn id="491" xr3:uid="{93177DD7-BD69-284E-96B3-F23AC8DAAD73}" name="Column491"/>
+    <tableColumn id="492" xr3:uid="{84112558-67A9-6A4A-8DC6-88CB2CA1501F}" name="Column492"/>
+    <tableColumn id="493" xr3:uid="{3CA0F333-9432-9A42-8A8A-3EA43752FEAA}" name="Column493"/>
+    <tableColumn id="494" xr3:uid="{8AB5C0A8-BD18-724F-A091-4A0A9FDBB5CF}" name="Column494"/>
+    <tableColumn id="495" xr3:uid="{C3D71A0B-DC9C-2D4A-9D17-185293520AEB}" name="Column495"/>
+    <tableColumn id="496" xr3:uid="{18BA337B-8B68-BC42-9624-086A91365C28}" name="Column496"/>
+    <tableColumn id="497" xr3:uid="{D8193740-4A81-4D4E-82E6-1274075DB49B}" name="Column497"/>
+    <tableColumn id="498" xr3:uid="{C1B1C385-97D1-624A-8A64-4026E18AE44B}" name="Column498"/>
+    <tableColumn id="499" xr3:uid="{327C1D00-CD25-2543-8CC0-BE4E5DF3A404}" name="Column499"/>
+    <tableColumn id="500" xr3:uid="{39FB5F5D-327B-2F49-902F-8FF8C405AAFD}" name="Column500"/>
+    <tableColumn id="501" xr3:uid="{937F6DC0-D0C3-814D-87D5-7009B6426C54}" name="Column501"/>
+    <tableColumn id="502" xr3:uid="{5C652E25-5314-6045-A1FE-1203F35B7FBF}" name="Column502"/>
+    <tableColumn id="503" xr3:uid="{245E8B6B-7F2D-2549-9B1F-115042FBDCDB}" name="Column503"/>
+    <tableColumn id="504" xr3:uid="{518782C9-607D-DB49-A1E9-0214E46DC43E}" name="Column504"/>
+    <tableColumn id="505" xr3:uid="{846612F8-06ED-7142-969A-2C7D381EF737}" name="Column505"/>
+    <tableColumn id="506" xr3:uid="{DA01249E-275C-CE4C-86C9-60C5775FA146}" name="Column506"/>
+    <tableColumn id="507" xr3:uid="{542E2ED1-1058-614B-96A1-5F22C01B619E}" name="Column507"/>
+    <tableColumn id="508" xr3:uid="{53FEFC69-0CE8-CF45-B50E-47287AEE1E9E}" name="Column508"/>
+    <tableColumn id="509" xr3:uid="{730D0DBC-2558-4447-87F2-3D07BB0873C2}" name="Column509"/>
+    <tableColumn id="510" xr3:uid="{12AE0DFE-DC99-9141-9586-92862B8FC0F6}" name="Column510"/>
+    <tableColumn id="511" xr3:uid="{C9B24FEE-D827-2C48-921D-A39169D79823}" name="Column511"/>
+    <tableColumn id="512" xr3:uid="{6212A11B-FBBC-4B4D-B0CE-3CF439F9DA8C}" name="Column512"/>
+    <tableColumn id="513" xr3:uid="{2E5041B4-B06B-D54D-B71C-848ED0CCAF6D}" name="Column513"/>
+    <tableColumn id="514" xr3:uid="{8CF7BF8F-3F20-5644-A6D5-D882D0006114}" name="Column514"/>
+    <tableColumn id="515" xr3:uid="{A970C5BA-2438-0F4E-8FFB-7D3FCF9F04EC}" name="Column515"/>
+    <tableColumn id="516" xr3:uid="{B4E1790A-F48F-4A41-BBC3-43B1FB52D867}" name="Column516"/>
+    <tableColumn id="517" xr3:uid="{FEC39A7B-4CBD-5444-8670-C23EA7C16C89}" name="Column517"/>
+    <tableColumn id="518" xr3:uid="{B09CE820-ACFA-674B-95EE-328D897930C0}" name="Column518"/>
+    <tableColumn id="519" xr3:uid="{93A973E4-6F9D-0045-BB7F-ADCBE90FC575}" name="Column519"/>
+    <tableColumn id="520" xr3:uid="{95B5FCB3-A273-9F40-9010-BC73EA45C0D9}" name="Column520"/>
+    <tableColumn id="521" xr3:uid="{84F34554-A375-3944-811C-438A2B662B60}" name="Column521"/>
+    <tableColumn id="522" xr3:uid="{215A4E80-7354-2E44-8BA6-8C2CABECC38B}" name="Column522"/>
+    <tableColumn id="523" xr3:uid="{4B65E522-3055-7A45-86CF-011D94A566A3}" name="Column523"/>
+    <tableColumn id="524" xr3:uid="{31098268-3F3E-824F-81D7-55E2B0873C85}" name="Column524"/>
+    <tableColumn id="525" xr3:uid="{91DF59E0-5415-4B4C-866C-7DA60B91966D}" name="Column525"/>
+    <tableColumn id="526" xr3:uid="{3C71B310-701D-054A-9D21-7D6DA11FF8BC}" name="Column526"/>
+    <tableColumn id="527" xr3:uid="{71666A6E-BAE7-924D-AFCB-ED69730CA750}" name="Column527"/>
+    <tableColumn id="528" xr3:uid="{DD4CAD7C-E4FF-7E40-8011-67321F7D8D8A}" name="Column528"/>
+    <tableColumn id="529" xr3:uid="{7A5B8292-5147-BD48-A76D-C36C51866851}" name="Column529"/>
+    <tableColumn id="530" xr3:uid="{B01239E6-FEF8-D44F-A419-B519BF62336B}" name="Column530"/>
+    <tableColumn id="531" xr3:uid="{D9771754-3F4A-D745-883F-5833DD271E92}" name="Column531"/>
+    <tableColumn id="532" xr3:uid="{FAD85749-AD0C-6942-868D-A59E473302A7}" name="Column532"/>
+    <tableColumn id="533" xr3:uid="{EC641DB9-AC83-E74C-B70D-EC7717659E84}" name="Column533"/>
+    <tableColumn id="534" xr3:uid="{9B744AAA-746B-BF4E-AE60-78DBD76BCEDA}" name="Column534"/>
+    <tableColumn id="535" xr3:uid="{DDD3B5E1-D618-7743-8E35-67C035DDF79E}" name="Column535"/>
+    <tableColumn id="536" xr3:uid="{CCB1226E-3FA9-CB46-A2A4-644305BA3E4C}" name="Column536"/>
+    <tableColumn id="537" xr3:uid="{4022C1C4-F9A2-B64C-B553-47CC69933691}" name="Column537"/>
+    <tableColumn id="538" xr3:uid="{51427D29-487E-D14B-8436-63336618827A}" name="Column538"/>
+    <tableColumn id="539" xr3:uid="{D75839A8-E451-A846-BDD9-7C2E7A9BBDC9}" name="Column539"/>
+    <tableColumn id="540" xr3:uid="{9BE1B03B-70AB-E14F-A0E8-3ABDE532D8A8}" name="Column540"/>
+    <tableColumn id="541" xr3:uid="{74983CC0-7FDA-5B45-8A4B-68757E69DECE}" name="Column541"/>
+    <tableColumn id="542" xr3:uid="{8E82107C-C4D3-2D49-923C-4E1233696207}" name="Column542"/>
+    <tableColumn id="543" xr3:uid="{F7E1C820-B10D-FE40-9F61-1A605BE7B6E1}" name="Column543"/>
+    <tableColumn id="544" xr3:uid="{CC50FDB5-C1D9-1347-B4BA-1E520019BC20}" name="Column544"/>
+    <tableColumn id="545" xr3:uid="{5CDEA877-6AB7-BA41-A748-3EE194CA5A2F}" name="Column545"/>
+    <tableColumn id="546" xr3:uid="{B859BD5E-2E78-784D-8F72-551BBA27D594}" name="Column546"/>
+    <tableColumn id="547" xr3:uid="{016F7C61-0B20-CC45-939E-9C8946100753}" name="Column547"/>
+    <tableColumn id="548" xr3:uid="{B1EFD12C-7ADE-4141-A972-9B562F712ECA}" name="Column548"/>
+    <tableColumn id="549" xr3:uid="{16F4A987-F7FF-A547-9C1E-30547766CCDA}" name="Column549"/>
+    <tableColumn id="550" xr3:uid="{EC3D5BB5-F784-5943-ADB5-9B7BB4BC6CF2}" name="Column550"/>
+    <tableColumn id="551" xr3:uid="{9D16E202-09CA-B843-860F-885580FA047B}" name="Column551"/>
+    <tableColumn id="552" xr3:uid="{8FED4131-416D-8944-B553-E7EE21FB4D34}" name="Column552"/>
+    <tableColumn id="553" xr3:uid="{861AECB8-5DCF-7C4E-AA6C-4BC4D7A14293}" name="Column553"/>
+    <tableColumn id="554" xr3:uid="{3475AC3A-3BF5-FB4C-AFFB-CDF081C12DAA}" name="Column554"/>
+    <tableColumn id="555" xr3:uid="{6854A868-7A21-3648-940F-8CC93301979E}" name="Column555"/>
+    <tableColumn id="556" xr3:uid="{A20A7CB1-92F1-794B-AD73-DEEC39EA7104}" name="Column556"/>
+    <tableColumn id="557" xr3:uid="{9EE30746-89AB-E649-8F23-5AAC1619EF50}" name="Column557"/>
+    <tableColumn id="558" xr3:uid="{B2DF64AC-33F2-C148-A57C-9170A7C17D00}" name="Column558"/>
+    <tableColumn id="559" xr3:uid="{2035CED1-9245-1445-8EED-C864239CEB46}" name="Column559"/>
+    <tableColumn id="560" xr3:uid="{896C04AD-EAB3-7B4A-A112-8B300217AE07}" name="Column560"/>
+    <tableColumn id="561" xr3:uid="{4218853D-32E6-8A4C-88F8-8962EB3EDE79}" name="Column561"/>
+    <tableColumn id="562" xr3:uid="{B62BB006-7DA5-9B44-8880-DEF987C9780B}" name="Column562"/>
+    <tableColumn id="563" xr3:uid="{54FFB2A2-BA22-2A46-8CAF-D8E8874CA46F}" name="Column563"/>
+    <tableColumn id="564" xr3:uid="{B9591DA9-85DB-B74F-816D-FD32D4F3D251}" name="Column564"/>
+    <tableColumn id="565" xr3:uid="{CC158B88-A239-6F47-B5F6-DBC4A63028FC}" name="Column565"/>
+    <tableColumn id="566" xr3:uid="{01A20988-01A9-6F40-BE50-9BBD886A2A55}" name="Column566"/>
+    <tableColumn id="567" xr3:uid="{2CEC2EC5-26D3-DC4D-B3A1-F7DACE395D88}" name="Column567"/>
+    <tableColumn id="568" xr3:uid="{0D5AB999-55B3-5B41-8290-92D18D1810C4}" name="Column568"/>
+    <tableColumn id="569" xr3:uid="{11F1D4AF-1DE9-2E4C-BFF8-15A622BA10C6}" name="Column569"/>
+    <tableColumn id="570" xr3:uid="{A034D33D-641E-1A44-A992-4DA152F4A573}" name="Column570"/>
+    <tableColumn id="571" xr3:uid="{9DF46634-1A8E-8E45-A29F-80CF6E6EC5CF}" name="Column571"/>
+    <tableColumn id="572" xr3:uid="{8376AE4A-2C14-C443-B777-D8BCA9FBFABB}" name="Column572"/>
+    <tableColumn id="573" xr3:uid="{0AA640C4-F967-B844-867A-42BAF51DE347}" name="Column573"/>
+    <tableColumn id="574" xr3:uid="{A0966228-0187-2747-8EC3-32D9A3EC627B}" name="Column574"/>
+    <tableColumn id="575" xr3:uid="{EADEFF54-38D2-0D4A-829D-6403817CB413}" name="Column575"/>
+    <tableColumn id="576" xr3:uid="{06B08D28-7EE3-524A-BA97-65E4E8255ED1}" name="Column576"/>
+    <tableColumn id="577" xr3:uid="{A49E99CD-7FCD-F140-AC93-A549F03F9928}" name="Column577"/>
+    <tableColumn id="578" xr3:uid="{D09FD694-D61F-A04E-814B-844022C84368}" name="Column578"/>
+    <tableColumn id="579" xr3:uid="{2A8E0F76-3D77-5B40-900C-27171D9D6139}" name="Column579"/>
+    <tableColumn id="580" xr3:uid="{0D1A46DA-A273-5542-A62A-62EC46D9DDCE}" name="Column580"/>
+    <tableColumn id="581" xr3:uid="{69B97AE8-04A7-0049-8315-442DFB06F100}" name="Column581"/>
+    <tableColumn id="582" xr3:uid="{94A5C489-A98C-D04A-BE92-BE0549F68457}" name="Column582"/>
+    <tableColumn id="583" xr3:uid="{7614806E-7134-7342-B187-375958B711CB}" name="Column583"/>
+    <tableColumn id="584" xr3:uid="{06A21FA1-1F31-6D42-A813-AC31E9A1B920}" name="Column584"/>
+    <tableColumn id="585" xr3:uid="{4F185D25-540C-7242-967A-E6F57E8AD0E2}" name="Column585"/>
+    <tableColumn id="586" xr3:uid="{1738BEAF-A6EC-5B4A-AC46-0557D6A9614D}" name="Column586"/>
+    <tableColumn id="587" xr3:uid="{231BF4C8-FE82-5349-A189-F525C9AFBF48}" name="Column587"/>
+    <tableColumn id="588" xr3:uid="{1C993752-C13B-7F4B-A661-1F6577F58E06}" name="Column588"/>
+    <tableColumn id="589" xr3:uid="{E3C464C0-8091-7E47-A087-E3E07D65BCFF}" name="Column589"/>
+    <tableColumn id="590" xr3:uid="{31FE30DC-D86E-FE44-AE6A-6386397998DD}" name="Column590"/>
+    <tableColumn id="591" xr3:uid="{B447429E-770D-864F-B248-6919FD60A52A}" name="Column591"/>
+    <tableColumn id="592" xr3:uid="{F2C073FB-BEF5-5D4E-A548-BFA4A2CE6389}" name="Column592"/>
+    <tableColumn id="593" xr3:uid="{57F9031D-3032-184E-A8EE-FE50DD1C10A5}" name="Column593"/>
+    <tableColumn id="594" xr3:uid="{1AF4ACCC-3C20-9B49-BECE-88E2C723F872}" name="Column594"/>
+    <tableColumn id="595" xr3:uid="{57493C30-49DD-D146-B56B-7EC5256C1131}" name="Column595"/>
+    <tableColumn id="596" xr3:uid="{1164EBE7-B59C-334C-B942-990726F6B5B6}" name="Column596"/>
+    <tableColumn id="597" xr3:uid="{A223CCCA-3337-E448-A917-6EDD0901A517}" name="Column597"/>
+    <tableColumn id="598" xr3:uid="{D6498564-6326-D245-81C0-89BF219A47A5}" name="Column598"/>
+    <tableColumn id="599" xr3:uid="{0E41EC8C-9913-5E47-8BE0-65805A62D1E8}" name="Column599"/>
+    <tableColumn id="600" xr3:uid="{A0400AEA-AA3B-AF4D-BFBA-C79423A1939A}" name="Column600"/>
+    <tableColumn id="601" xr3:uid="{7F51B175-6AA5-DD4B-B40F-7E8BD84AB199}" name="Column601"/>
+    <tableColumn id="602" xr3:uid="{86EFE13E-191A-E24D-9504-D5D0DF8D12D5}" name="Column602"/>
+    <tableColumn id="603" xr3:uid="{E0898F68-146D-3C4D-A7B5-EBBBD327B5B9}" name="Column603"/>
+    <tableColumn id="604" xr3:uid="{DFD69AE9-D506-F742-870D-CC6302B1C5EF}" name="Column604"/>
+    <tableColumn id="605" xr3:uid="{FAB11A43-70ED-924E-A813-D362D478F758}" name="Column605"/>
+    <tableColumn id="606" xr3:uid="{323040F2-4CCE-EF4D-BD1A-CAA616518273}" name="Column606"/>
+    <tableColumn id="607" xr3:uid="{20441DE5-B8C7-124F-B45F-C9CAECF32357}" name="Column607"/>
+    <tableColumn id="608" xr3:uid="{499DC6A9-0CC6-C24A-9350-EFE8A7FDFFA4}" name="Column608"/>
+    <tableColumn id="609" xr3:uid="{158AC5DA-BC18-C745-B523-7D80D9000E89}" name="Column609"/>
+    <tableColumn id="610" xr3:uid="{3698D2CF-C076-ED48-9E39-456CA4A863FE}" name="Column610"/>
+    <tableColumn id="611" xr3:uid="{BAB14DBF-3081-754D-83E4-657E3CD6E481}" name="Column611"/>
+    <tableColumn id="612" xr3:uid="{A7D7EF93-E062-ED4E-8643-388920FF886A}" name="Column612"/>
+    <tableColumn id="613" xr3:uid="{2E5E56BF-EBE5-564B-859B-E0C4AFE7A6F9}" name="Column613"/>
+    <tableColumn id="614" xr3:uid="{4D2A665C-A475-EC4F-A9D1-75BC831E589B}" name="Column614"/>
+    <tableColumn id="615" xr3:uid="{7A8987E5-23CD-6843-B88D-600982CFC902}" name="Column615"/>
+    <tableColumn id="616" xr3:uid="{26C8C763-0105-2D42-B57F-2E1EF5C92D9A}" name="Column616"/>
+    <tableColumn id="617" xr3:uid="{C7347C26-C52F-5F4D-A03D-9A222F8FAA2A}" name="Column617"/>
+    <tableColumn id="618" xr3:uid="{A0472C61-83E4-8142-8CDF-5EE787A9F5BE}" name="Column618"/>
+    <tableColumn id="619" xr3:uid="{4BEE606D-C250-1B4D-B042-631038AA0546}" name="Column619"/>
+    <tableColumn id="620" xr3:uid="{1D466E44-480B-5E4A-A23E-EA008224EBC5}" name="Column620"/>
+    <tableColumn id="621" xr3:uid="{797F5D57-0EA3-4849-B50A-49A1BBF9C479}" name="Column621"/>
+    <tableColumn id="622" xr3:uid="{2B60EC69-379F-BA45-96EC-33D02D7CA843}" name="Column622"/>
+    <tableColumn id="623" xr3:uid="{1DCA3F37-1C0F-9441-BF5B-26E1006CB83B}" name="Column623"/>
+    <tableColumn id="624" xr3:uid="{4C101E27-D159-1746-994F-3B57B44A38EA}" name="Column624"/>
+    <tableColumn id="625" xr3:uid="{8FD85851-9E51-5F45-93BD-C0762C91D6F4}" name="Column625"/>
+    <tableColumn id="626" xr3:uid="{6518B246-4821-0349-A2DC-3173E1F8E0C9}" name="Column626"/>
+    <tableColumn id="627" xr3:uid="{924D5874-E284-C54A-A976-A69C16654D49}" name="Column627"/>
+    <tableColumn id="628" xr3:uid="{F8C0E09A-806A-8B4B-8C0B-0948A39B11A0}" name="Column628"/>
+    <tableColumn id="629" xr3:uid="{A28F42A0-2F72-F945-A13F-DAC638F380F7}" name="Column629"/>
+    <tableColumn id="630" xr3:uid="{28B92A91-F9D2-B048-861F-EF72ABC3B501}" name="Column630"/>
+    <tableColumn id="631" xr3:uid="{2CE2D980-CB03-B940-81D5-7E304BF2CBF1}" name="Column631"/>
+    <tableColumn id="632" xr3:uid="{A66A2983-1F28-C74B-8D80-E01C0A469BBA}" name="Column632"/>
+    <tableColumn id="633" xr3:uid="{3FB0D0A5-5B21-5148-9B74-4F78E73AC12E}" name="Column633"/>
+    <tableColumn id="634" xr3:uid="{60AFF4DE-F324-F140-B5ED-DBC8A8598BA8}" name="Column634"/>
+    <tableColumn id="635" xr3:uid="{4F8F23B7-1F3D-4F4C-B907-9E63C71186D7}" name="Column635"/>
+    <tableColumn id="636" xr3:uid="{203BD81A-15FE-1E45-B88D-AAB5C4B4101C}" name="Column636"/>
+    <tableColumn id="637" xr3:uid="{03240F7F-1F7C-0C41-8607-0D6AE09BC114}" name="Column637"/>
+    <tableColumn id="638" xr3:uid="{EE049570-8AC4-974D-ABCE-7C49590B5E73}" name="Column638"/>
+    <tableColumn id="639" xr3:uid="{2FA41480-A1DB-DF43-8DCE-C7C1E7145914}" name="Column639"/>
+    <tableColumn id="640" xr3:uid="{6364DE22-8FDC-F045-81B8-9E35578429AF}" name="Column640"/>
+    <tableColumn id="641" xr3:uid="{5F271AD1-EB5D-3649-BE6C-35B940899466}" name="Column641"/>
+    <tableColumn id="642" xr3:uid="{E50F48E2-7C15-DA4D-8541-6FA06B2313CE}" name="Column642"/>
+    <tableColumn id="643" xr3:uid="{8B3E8EB7-5F49-8C48-AAA9-2FBF5B7CE0BD}" name="Column643"/>
+    <tableColumn id="644" xr3:uid="{DDDC726C-DB4F-5648-B543-0A19506B2618}" name="Column644"/>
+    <tableColumn id="645" xr3:uid="{0F450E73-160F-864B-A20F-13142FDB0642}" name="Column645"/>
+    <tableColumn id="646" xr3:uid="{8414A928-F117-CD42-9D55-579B88432C22}" name="Column646"/>
+    <tableColumn id="647" xr3:uid="{69CFFACA-E85D-794D-8CF9-3E5CFACA3530}" name="Column647"/>
+    <tableColumn id="648" xr3:uid="{F048003E-458E-7C4B-A80E-EBD66F5610C2}" name="Column648"/>
+    <tableColumn id="649" xr3:uid="{0A1D2776-BAEA-E143-A578-AA069B39EFF8}" name="Column649"/>
+    <tableColumn id="650" xr3:uid="{C3A23641-BA1D-8C4B-8CF8-4438CC22AC5B}" name="Column650"/>
+    <tableColumn id="651" xr3:uid="{5962F9D3-23EF-E04D-A4C6-5F97AEFD4A06}" name="Column651"/>
+    <tableColumn id="652" xr3:uid="{C509FACA-F78C-9446-A4A0-9BF853990AC3}" name="Column652"/>
+    <tableColumn id="653" xr3:uid="{7344D95E-6CFE-514F-874F-DABB984EDC5E}" name="Column653"/>
+    <tableColumn id="654" xr3:uid="{C4E0C13B-AE7A-FA41-B33E-5CFF511A27E1}" name="Column654"/>
+    <tableColumn id="655" xr3:uid="{FF39D4BA-B537-A74F-89C3-E6B4DE566A0B}" name="Column655"/>
+    <tableColumn id="656" xr3:uid="{D42C76BB-9D50-834C-9A70-61E1BF1901B1}" name="Column656"/>
+    <tableColumn id="657" xr3:uid="{E0AE7B2F-B3C1-BD43-A7EE-BB006F45C5D6}" name="Column657"/>
+    <tableColumn id="658" xr3:uid="{E4B1F5A6-94E0-FE4D-B8C7-48E4E8690208}" name="Column658"/>
+    <tableColumn id="659" xr3:uid="{17B0CA21-9F93-D449-A0CC-F6E9DF0FC18B}" name="Column659"/>
+    <tableColumn id="660" xr3:uid="{E52619A2-079E-C040-9861-E4A479FFFA93}" name="Column660"/>
+    <tableColumn id="661" xr3:uid="{C89D70D8-D474-C344-9710-75DC9CF81970}" name="Column661"/>
+    <tableColumn id="662" xr3:uid="{E6918FAF-4347-B049-9C02-B7EA163B390B}" name="Column662"/>
+    <tableColumn id="663" xr3:uid="{7E231AF4-4025-0540-93B2-8869FE7A483D}" name="Column663"/>
+    <tableColumn id="664" xr3:uid="{91670732-936C-2D46-A3C6-98775ACCF0C7}" name="Column664"/>
+    <tableColumn id="665" xr3:uid="{962622E1-EEE1-6A47-A33D-F8F2FDDB3B88}" name="Column665"/>
+    <tableColumn id="666" xr3:uid="{AF6FB4C7-847C-8A4E-8A82-E4B3525D0F45}" name="Column666"/>
+    <tableColumn id="667" xr3:uid="{468A3D76-ABF2-1F45-A038-DC3382438997}" name="Column667"/>
+    <tableColumn id="668" xr3:uid="{89814195-96E6-0E4B-B41C-0F711F2954BE}" name="Column668"/>
+    <tableColumn id="669" xr3:uid="{17071851-7273-8044-A826-42C924308DA8}" name="Column669"/>
+    <tableColumn id="670" xr3:uid="{ACBFEBB8-92A9-7E4E-8BF3-399663DEC093}" name="Column670"/>
+    <tableColumn id="671" xr3:uid="{3CEDCC47-08F9-C740-B90A-0D5ED25606EA}" name="Column671"/>
+    <tableColumn id="672" xr3:uid="{9E46CE57-F9FC-5D4C-A36C-F920357233D2}" name="Column672"/>
+    <tableColumn id="673" xr3:uid="{3CBEA5CC-057F-1743-A2C2-8CA40B657D09}" name="Column673"/>
+    <tableColumn id="674" xr3:uid="{43A35F6C-D4DF-6C4D-A248-E4C72C2FCA21}" name="Column674"/>
+    <tableColumn id="675" xr3:uid="{296EB9CA-B217-3243-AB8A-D2F37683C060}" name="Column675"/>
+    <tableColumn id="676" xr3:uid="{2BB04BEB-0FDC-3F4D-B401-98A245AB4BCA}" name="Column676"/>
+    <tableColumn id="677" xr3:uid="{8EA242DE-6BCD-AD46-B6E8-01C5EEB5D9EC}" name="Column677"/>
+    <tableColumn id="678" xr3:uid="{2A04185E-6508-FD44-BD4B-DF84DDC6016F}" name="Column678"/>
+    <tableColumn id="679" xr3:uid="{1B2E72ED-803F-114C-B169-05EF78046040}" name="Column679"/>
+    <tableColumn id="680" xr3:uid="{A743DA6A-FDBC-FA4C-A58C-616067F451C7}" name="Column680"/>
+    <tableColumn id="681" xr3:uid="{B4D9AE25-941D-D24C-B29F-E5065F139E7D}" name="Column681"/>
+    <tableColumn id="682" xr3:uid="{A05C580E-C345-7B44-AA78-DA7C1BC3CCD6}" name="Column682"/>
+    <tableColumn id="683" xr3:uid="{B5F8A354-6C32-624C-A8F0-72C25FE4CDF4}" name="Column683"/>
+    <tableColumn id="684" xr3:uid="{68245C60-FBCB-AB4E-BD8A-0F3028FCB4A0}" name="Column684"/>
+    <tableColumn id="685" xr3:uid="{4908B7F6-606F-4C4E-8385-3336EE069EBA}" name="Column685"/>
+    <tableColumn id="686" xr3:uid="{51E590CC-9EBE-DE49-B957-7848456F87CC}" name="Column686"/>
+    <tableColumn id="687" xr3:uid="{5F4EEE5A-E876-D04B-86DB-78EBCDEA805B}" name="Column687"/>
+    <tableColumn id="688" xr3:uid="{DC1D7024-4A86-AC4A-BD22-01D64D4AF0B2}" name="Column688"/>
+    <tableColumn id="689" xr3:uid="{E45FCE73-349B-9C4A-B959-4E45112B36CF}" name="Column689"/>
+    <tableColumn id="690" xr3:uid="{DB3AE064-D331-A940-87B4-859BD8D4E0A5}" name="Column690"/>
+    <tableColumn id="691" xr3:uid="{D431C8C5-80C7-9E49-918D-4E5AE4F86328}" name="Column691"/>
+    <tableColumn id="692" xr3:uid="{F3D04488-1102-094B-A4C2-531604F642FE}" name="Column692"/>
+    <tableColumn id="693" xr3:uid="{0E2DE1F4-C688-D341-A839-164A0C4EDB66}" name="Column693"/>
+    <tableColumn id="694" xr3:uid="{E69D1D3A-4F7A-224C-957F-877061D721AA}" name="Column694"/>
+    <tableColumn id="695" xr3:uid="{61A89EEC-4581-DA49-8999-A0790E933917}" name="Column695"/>
+    <tableColumn id="696" xr3:uid="{13BE8EB5-90D2-9540-A5D7-E3EF26CB643D}" name="Column696"/>
+    <tableColumn id="697" xr3:uid="{E121AC40-E4AF-E94E-998D-1DFD82AE218A}" name="Column697"/>
+    <tableColumn id="698" xr3:uid="{8356B46A-C7AF-2840-9DE0-3F883209C536}" name="Column698"/>
+    <tableColumn id="699" xr3:uid="{829A98E0-6473-8744-9673-53D223D50D9C}" name="Column699"/>
+    <tableColumn id="700" xr3:uid="{01E07E10-8110-FE4C-BB90-43D17CB41E37}" name="Column700"/>
+    <tableColumn id="701" xr3:uid="{0961C6EC-D91D-1E42-A0C4-F54186F8EDDB}" name="Column701"/>
+    <tableColumn id="702" xr3:uid="{C7A174AB-7EE5-9D46-9DCD-73F3D28ABB8F}" name="Column702"/>
+    <tableColumn id="703" xr3:uid="{DD7851E0-EBCA-C843-AC0C-690BAC6C863B}" name="Column703"/>
+    <tableColumn id="704" xr3:uid="{A1B3271B-4EEA-F248-B704-667E5C92B492}" name="Column704"/>
+    <tableColumn id="705" xr3:uid="{1BFC3D5D-7013-F345-842B-96C8E037C2D8}" name="Column705"/>
+    <tableColumn id="706" xr3:uid="{902291AA-F59B-5F4C-B01F-40A1D68E3947}" name="Column706"/>
+    <tableColumn id="707" xr3:uid="{37CDA9E6-1469-8346-95D6-3587E5C9C587}" name="Column707"/>
+    <tableColumn id="708" xr3:uid="{7AADA959-E928-3A40-93A5-E4E77E4F280B}" name="Column708"/>
+    <tableColumn id="709" xr3:uid="{F0EBA2EE-FED4-1048-AABE-FAA1C2FC4EC8}" name="Column709"/>
+    <tableColumn id="710" xr3:uid="{9B0A0E40-35DC-BB4E-9E7D-91AD71A46344}" name="Column710"/>
+    <tableColumn id="711" xr3:uid="{163455E4-496B-CF41-ABC6-943CFF3CB0B5}" name="Column711"/>
+    <tableColumn id="712" xr3:uid="{FC369DE1-DA6D-2744-9775-7FF2637195E4}" name="Column712"/>
+    <tableColumn id="713" xr3:uid="{C5E0DC27-991A-9E46-9A6C-C6D230D7AAF0}" name="Column713"/>
+    <tableColumn id="714" xr3:uid="{CC28CF74-C595-FC4B-904C-5488C7A840A6}" name="Column714"/>
+    <tableColumn id="715" xr3:uid="{E11A6143-8EBF-BF41-A02C-D5490BCF8724}" name="Column715"/>
+    <tableColumn id="716" xr3:uid="{5439FE8E-43E8-8144-BF99-F31DAA78EB71}" name="Column716"/>
+    <tableColumn id="717" xr3:uid="{5D7B1378-CC2B-8D4B-B800-A13B604067FE}" name="Column717"/>
+    <tableColumn id="718" xr3:uid="{1055808C-1E46-BD4F-AFA5-8BB955E501E7}" name="Column718"/>
+    <tableColumn id="719" xr3:uid="{DA55EBE6-2A24-FF4A-8ADD-71CC66A4F761}" name="Column719"/>
+    <tableColumn id="720" xr3:uid="{4ADDFF4E-ABF9-8349-BFB1-E8A2DB4429EE}" name="Column720"/>
+    <tableColumn id="721" xr3:uid="{6BE35D08-40A9-1D41-BD00-5BDC61F2BFF6}" name="Column721"/>
+    <tableColumn id="722" xr3:uid="{85B5341D-50C9-2A4D-8031-1660F41D286C}" name="Column722"/>
+    <tableColumn id="723" xr3:uid="{0EBA431A-6E05-3F43-847F-5859D29C74EA}" name="Column723"/>
+    <tableColumn id="724" xr3:uid="{B44AA61A-0512-2F46-B69E-C58AFB74CDC4}" name="Column724"/>
+    <tableColumn id="725" xr3:uid="{D4F6A3CF-0C2F-B446-B39E-77837977B346}" name="Column725"/>
+    <tableColumn id="726" xr3:uid="{941194DB-5FF1-2D4D-94CA-E568C6A2D522}" name="Column726"/>
+    <tableColumn id="727" xr3:uid="{88393367-8EAA-5F4E-ACA5-18A91275444B}" name="Column727"/>
+    <tableColumn id="728" xr3:uid="{86D6BBD4-0C80-4B4A-95AE-4144A226E827}" name="Column728"/>
+    <tableColumn id="729" xr3:uid="{8E2D839D-B421-0649-8C45-8FAE5E5579FC}" name="Column729"/>
+    <tableColumn id="730" xr3:uid="{16804634-B453-FC42-8A2A-9EE0AA7789E4}" name="Column730"/>
+    <tableColumn id="731" xr3:uid="{8C03E0BA-0FEA-C64E-8B68-5D91EDECB216}" name="Column731"/>
+    <tableColumn id="732" xr3:uid="{1DE208D1-28BD-CA4E-8DEC-BFCDE9A58FFC}" name="Column732"/>
+    <tableColumn id="733" xr3:uid="{3E12C4FE-3675-0141-BE99-4A1078161FB2}" name="Column733"/>
+    <tableColumn id="734" xr3:uid="{742B556F-196F-CF4E-A30B-D4A2A333A5EF}" name="Column734"/>
+    <tableColumn id="735" xr3:uid="{37273FAB-5743-504C-8E12-F031FBCB87F5}" name="Column735"/>
+    <tableColumn id="736" xr3:uid="{1C3AED26-B453-CB47-86B6-3FE39498B063}" name="Column736"/>
+    <tableColumn id="737" xr3:uid="{EA4EB614-670B-F847-9C34-AAB2017BDB95}" name="Column737"/>
+    <tableColumn id="738" xr3:uid="{A0E73F9D-CD4E-824C-8F07-1A6327182DB8}" name="Column738"/>
+    <tableColumn id="739" xr3:uid="{31E38277-9637-E442-AFFE-5443CC5815F6}" name="Column739"/>
+    <tableColumn id="740" xr3:uid="{25BF8C8E-5802-1E45-86DC-F7C2A8BCCB0D}" name="Column740"/>
+    <tableColumn id="741" xr3:uid="{8982D4AF-6D86-F944-8C49-A431778A375B}" name="Column741"/>
+    <tableColumn id="742" xr3:uid="{6A2BA01A-F5B4-7243-B970-E87798369740}" name="Column742"/>
+    <tableColumn id="743" xr3:uid="{AF6F84FE-87ED-144E-9DBD-B59B939B74D7}" name="Column743"/>
+    <tableColumn id="744" xr3:uid="{E3D24F19-A7BC-4D46-9B8A-AAE3AAED8D6D}" name="Column744"/>
+    <tableColumn id="745" xr3:uid="{778E2B4A-0359-9E4B-B610-6A533D68C6D8}" name="Column745"/>
+    <tableColumn id="746" xr3:uid="{67D8CF4E-836F-AB49-933E-57331BC34491}" name="Column746"/>
+    <tableColumn id="747" xr3:uid="{E2AA72A4-F466-8844-89D1-3174784483E7}" name="Column747"/>
+    <tableColumn id="748" xr3:uid="{1E12425E-8E55-D84C-829D-EFDD7AD81743}" name="Column748"/>
+    <tableColumn id="749" xr3:uid="{22942AA7-5064-864A-B615-02D682B1E4EB}" name="Column749"/>
+    <tableColumn id="750" xr3:uid="{4DA67038-6D0B-D04A-8B94-8CE3DE34E4BC}" name="Column750"/>
+    <tableColumn id="751" xr3:uid="{DD56E9C1-1977-164B-96C8-1E3628F5C5F0}" name="Column751"/>
+    <tableColumn id="752" xr3:uid="{B47D462D-146E-6E4F-8AAD-D2FD87992F1B}" name="Column752"/>
+    <tableColumn id="753" xr3:uid="{1EC6952B-7D26-BD45-9084-024D6F15BF73}" name="Column753"/>
+    <tableColumn id="754" xr3:uid="{465A5E82-3B70-2343-AA48-72B927E05A8F}" name="Column754"/>
+    <tableColumn id="755" xr3:uid="{5763B96B-0E69-E94A-B796-92321A2DBFDF}" name="Column755"/>
+    <tableColumn id="756" xr3:uid="{A744FDFA-BBDA-4947-B801-12316E900581}" name="Column756"/>
+    <tableColumn id="757" xr3:uid="{9B355D79-6F08-FA4F-A6D0-4FE3A9BCD94A}" name="Column757"/>
+    <tableColumn id="758" xr3:uid="{1D027297-DEC2-3048-9305-0C4B675C4182}" name="Column758"/>
+    <tableColumn id="759" xr3:uid="{5E2CFBE3-70FD-644A-BE33-CE3BA415D7DB}" name="Column759"/>
+    <tableColumn id="760" xr3:uid="{C3D25B0B-5CF3-8542-B4D3-5B1DB4AAA81E}" name="Column760"/>
+    <tableColumn id="761" xr3:uid="{CAFA93B0-2D7E-304A-A8D4-B601CB6F6B54}" name="Column761"/>
+    <tableColumn id="762" xr3:uid="{04AC6107-C620-D04F-B515-BB48F3ADF714}" name="Column762"/>
+    <tableColumn id="763" xr3:uid="{FB5748FB-930E-AE4C-9A4B-45A58B3465C4}" name="Column763"/>
+    <tableColumn id="764" xr3:uid="{171C35CD-4581-0E4B-BF4C-A84378A697F4}" name="Column764"/>
+    <tableColumn id="765" xr3:uid="{57FC3A42-05A9-C145-8449-3BA918B94DB1}" name="Column765"/>
+    <tableColumn id="766" xr3:uid="{00108771-9EC7-AE47-95D4-23B885A373A8}" name="Column766"/>
+    <tableColumn id="767" xr3:uid="{3294AFC9-369D-4C4E-A22B-EDA298F19E4D}" name="Column767"/>
+    <tableColumn id="768" xr3:uid="{0324A520-A89E-8444-ACD8-1B966336AD50}" name="Column768"/>
+    <tableColumn id="769" xr3:uid="{2D1EFDD3-09E9-6E43-AB73-0A58A7CF7337}" name="Column769"/>
+    <tableColumn id="770" xr3:uid="{1D624E19-C10E-BF49-924A-FB83C7869284}" name="Column770"/>
+    <tableColumn id="771" xr3:uid="{B5645E03-5577-1A46-9926-EA9617A540F1}" name="Column771"/>
+    <tableColumn id="772" xr3:uid="{A216190B-DB2F-7E45-8E77-851A6D1CE6AC}" name="Column772"/>
+    <tableColumn id="773" xr3:uid="{CBF41944-EFCD-E146-9BC2-ECF36BB53C00}" name="Column773"/>
+    <tableColumn id="774" xr3:uid="{49D83911-B9DB-D247-8812-797DDD3E1238}" name="Column774"/>
+    <tableColumn id="775" xr3:uid="{1CDDABED-5026-544A-AD6D-924043382E4B}" name="Column775"/>
+    <tableColumn id="776" xr3:uid="{7436DF0B-09E3-5D40-B0A1-A06D516389E7}" name="Column776"/>
+    <tableColumn id="777" xr3:uid="{4EE21DF3-5175-E643-9000-D629E448E8D7}" name="Column777"/>
+    <tableColumn id="778" xr3:uid="{ADC996D2-43D4-1C4A-901C-565DA023C4C7}" name="Column778"/>
+    <tableColumn id="779" xr3:uid="{1D6F09F6-1528-B441-B6CA-29DBB9F05F15}" name="Column779"/>
+    <tableColumn id="780" xr3:uid="{D1109EBE-4414-9640-BB19-E2625849D38F}" name="Column780"/>
+    <tableColumn id="781" xr3:uid="{C823DF77-0E8B-2942-AFCC-BB2D44E7E9FC}" name="Column781"/>
+    <tableColumn id="782" xr3:uid="{5DD2979E-2872-C540-BE04-34F88234A65D}" name="Column782"/>
+    <tableColumn id="783" xr3:uid="{12B0094A-2EBE-A444-AB68-FA45F0C20434}" name="Column783"/>
+    <tableColumn id="784" xr3:uid="{86100B17-3285-CB49-82DF-581FE778045B}" name="Column784"/>
+    <tableColumn id="785" xr3:uid="{DD4DB967-A0A1-CD4D-A55D-7BEB963ADF32}" name="Column785"/>
+    <tableColumn id="786" xr3:uid="{6C41C282-76D8-884C-8476-9CB4D54F9713}" name="Column786"/>
+    <tableColumn id="787" xr3:uid="{A9B77B21-1134-F149-9829-7BA76C6BA555}" name="Column787"/>
+    <tableColumn id="788" xr3:uid="{2EBD42DF-B34B-2545-B647-DF53673E7783}" name="Column788"/>
+    <tableColumn id="789" xr3:uid="{E214CD29-F117-BC4F-94C3-94FFB42A69C2}" name="Column789"/>
+    <tableColumn id="790" xr3:uid="{3F4B1344-A226-FF49-AC26-6C71C087513F}" name="Column790"/>
+    <tableColumn id="791" xr3:uid="{42A402F9-5BFD-4448-9F1B-9810605F7E6B}" name="Column791"/>
+    <tableColumn id="792" xr3:uid="{22B184E6-725C-1348-9B8F-160388E40333}" name="Column792"/>
+    <tableColumn id="793" xr3:uid="{77B97E64-AABE-3845-82DF-ED3BA9A56E42}" name="Column793"/>
+    <tableColumn id="794" xr3:uid="{BE0F84A2-BA26-A646-B8D0-192DCA9D1CC0}" name="Column794"/>
+    <tableColumn id="795" xr3:uid="{2B0FAD3F-4239-4B43-BBE4-CFDD94AEDAB5}" name="Column795"/>
+    <tableColumn id="796" xr3:uid="{4590CA56-22D9-7847-874B-B143EC1F3EE0}" name="Column796"/>
+    <tableColumn id="797" xr3:uid="{7DD256A5-CCF8-D440-8906-61E2A8ED1132}" name="Column797"/>
+    <tableColumn id="798" xr3:uid="{DF0E7BA1-A6AF-0243-8362-C8B980959B40}" name="Column798"/>
+    <tableColumn id="799" xr3:uid="{1E07DE99-B16D-B347-98C4-ADCA2A94E835}" name="Column799"/>
+    <tableColumn id="800" xr3:uid="{D5DF19D5-A60E-FD42-A39E-8464C2BA3FB2}" name="Column800"/>
+    <tableColumn id="801" xr3:uid="{3699EE18-6871-534F-936C-30B40DA37929}" name="Column801"/>
+    <tableColumn id="802" xr3:uid="{6E12AC0C-2F62-4A4A-9E3F-83437F65ABAC}" name="Column802"/>
+    <tableColumn id="803" xr3:uid="{D08355A4-3096-7A4A-A31C-02D8183FFB5A}" name="Column803"/>
+    <tableColumn id="804" xr3:uid="{59721D09-DB72-F540-ADD1-1DDCEEE5BD14}" name="Column804"/>
+    <tableColumn id="805" xr3:uid="{4C49FCFF-044E-5349-9810-87B8D728660D}" name="Column805"/>
+    <tableColumn id="806" xr3:uid="{31E8D065-51EE-E949-B23F-7E09466DB4FE}" name="Column806"/>
+    <tableColumn id="807" xr3:uid="{EA6C438A-CF33-4240-9ED8-044105DA72D5}" name="Column807"/>
+    <tableColumn id="808" xr3:uid="{578477F7-A5CB-B94A-8FF0-BFD43171DCF7}" name="Column808"/>
+    <tableColumn id="809" xr3:uid="{940F44ED-C1B9-DD4D-9D9D-9E77924A378F}" name="Column809"/>
+    <tableColumn id="810" xr3:uid="{8C465F2E-174B-D243-9436-8164070AE6A6}" name="Column810"/>
+    <tableColumn id="811" xr3:uid="{A19B4902-906A-F34D-BF61-6EE1E274AA00}" name="Column811"/>
+    <tableColumn id="812" xr3:uid="{1737648F-75AB-DF4C-9C12-4CF748627102}" name="Column812"/>
+    <tableColumn id="813" xr3:uid="{F8C5B18A-F39F-7349-85F5-B73E2D64D141}" name="Column813"/>
+    <tableColumn id="814" xr3:uid="{B93FA2D2-4DB8-E346-9CC0-26E356B61FC2}" name="Column814"/>
+    <tableColumn id="815" xr3:uid="{60921196-FC30-124B-99F1-FBDF712FEDB2}" name="Column815"/>
+    <tableColumn id="816" xr3:uid="{90AA8FF0-C35A-244C-836A-5573193679E4}" name="Column816"/>
+    <tableColumn id="817" xr3:uid="{FB4DB57A-4F08-D644-8575-59E278AD44BA}" name="Column817"/>
+    <tableColumn id="818" xr3:uid="{8D440C91-00DC-1A41-B812-F75D6E8E5D14}" name="Column818"/>
+    <tableColumn id="819" xr3:uid="{9EFB6AE7-D442-F944-9712-7E18D487CBE4}" name="Column819"/>
+    <tableColumn id="820" xr3:uid="{90EEAD2B-65DA-C544-A70E-422A176F817D}" name="Column820"/>
+    <tableColumn id="821" xr3:uid="{1A492537-67B5-C14F-8061-7CD81E672DE2}" name="Column821"/>
+    <tableColumn id="822" xr3:uid="{52CB1E30-700A-2942-9C23-E98DF0517D32}" name="Column822"/>
+    <tableColumn id="823" xr3:uid="{BBBBC712-2B58-8648-9FD0-DA7EC77EF5B4}" name="Column823"/>
+    <tableColumn id="824" xr3:uid="{A1B8AAA8-7B3D-9D45-AB35-2DB8F74F13B1}" name="Column824"/>
+    <tableColumn id="825" xr3:uid="{60789D81-616D-5741-9B1E-05A18101DDEF}" name="Column825"/>
+    <tableColumn id="826" xr3:uid="{28880A05-78E0-DC42-B7BC-995854B36652}" name="Column826"/>
+    <tableColumn id="827" xr3:uid="{99098DA9-8B73-0D4D-8610-EEE8D9A7DD60}" name="Column827"/>
+    <tableColumn id="828" xr3:uid="{B4C4C6FC-A3AD-DD49-82B8-45DD98BB404C}" name="Column828"/>
+    <tableColumn id="829" xr3:uid="{FBC5F369-6544-EF4A-8F3A-9AA850B2B3AF}" name="Column829"/>
+    <tableColumn id="830" xr3:uid="{DDDE9786-DA54-0146-B976-E5281937D188}" name="Column830"/>
+    <tableColumn id="831" xr3:uid="{EABE6F52-AFD8-9944-8902-FB434D94BF04}" name="Column831"/>
+    <tableColumn id="832" xr3:uid="{FFB8BB5A-F8F3-0E41-9026-EF989952C377}" name="Column832"/>
+    <tableColumn id="833" xr3:uid="{C6BAD8D1-A820-B844-A860-C4227ACD56DB}" name="Column833"/>
+    <tableColumn id="834" xr3:uid="{B45B6750-1949-2940-AFCB-F644BE029BC4}" name="Column834"/>
+    <tableColumn id="835" xr3:uid="{6BD7290E-2A62-0C4A-BCBD-A25AAF4034AC}" name="Column835"/>
+    <tableColumn id="836" xr3:uid="{91FC4F63-0217-FB40-B53F-3D4466D0214F}" name="Column836"/>
+    <tableColumn id="837" xr3:uid="{A26580F9-A01A-1D4B-A818-33666C1ADE1D}" name="Column837"/>
+    <tableColumn id="838" xr3:uid="{72DA1830-4E87-4543-A95C-1CCDDE6389A6}" name="Column838"/>
+    <tableColumn id="839" xr3:uid="{BE11CFB7-12D7-3C4D-B840-2BC9BED1C419}" name="Column839"/>
+    <tableColumn id="840" xr3:uid="{5736F265-D3C3-C94D-9311-AA2DFD8F19CB}" name="Column840"/>
+    <tableColumn id="841" xr3:uid="{227ABAF7-1EE2-A24F-9BAA-0633848A898C}" name="Column841"/>
+    <tableColumn id="842" xr3:uid="{1CC88659-435B-7844-A746-EF6EA2149091}" name="Column842"/>
+    <tableColumn id="843" xr3:uid="{9384CA2B-4490-9B46-A137-0C5CD84425BD}" name="Column843"/>
+    <tableColumn id="844" xr3:uid="{7C6A5F3E-2F2C-6C4F-95D7-40A5B1185C5E}" name="Column844"/>
+    <tableColumn id="845" xr3:uid="{919D516A-56C3-E94F-97A4-97D15100F2E7}" name="Column845"/>
+    <tableColumn id="846" xr3:uid="{D1824601-8DB6-FA45-90B0-8EB07CDDC54E}" name="Column846"/>
+    <tableColumn id="847" xr3:uid="{D22DBE46-4304-7946-B8D8-65ED161C6EB5}" name="Column847"/>
+    <tableColumn id="848" xr3:uid="{CE530D9F-46EE-EB4A-8FBB-16C336849EB0}" name="Column848"/>
+    <tableColumn id="849" xr3:uid="{D1410FA1-A9D5-2645-B25E-AB09A2F8BF6C}" name="Column849"/>
+    <tableColumn id="850" xr3:uid="{C62D7B0F-ED6C-B34C-B9AD-5C1132DD4B15}" name="Column850"/>
+    <tableColumn id="851" xr3:uid="{AB2D6CF0-F33E-2D43-AB34-A386B0DA1F22}" name="Column851"/>
+    <tableColumn id="852" xr3:uid="{C6C9B908-229D-804B-9739-C58285A58635}" name="Column852"/>
+    <tableColumn id="853" xr3:uid="{E224AB00-3036-D34B-958B-1666D91924F1}" name="Column853"/>
+    <tableColumn id="854" xr3:uid="{BCC76FDD-6D1F-E348-89DF-C3460B11F868}" name="Column854"/>
+    <tableColumn id="855" xr3:uid="{750B507B-7199-AB47-A1F5-0A98E458D525}" name="Column855"/>
+    <tableColumn id="856" xr3:uid="{4B5435DF-6450-C743-A208-A831E0810CF8}" name="Column856"/>
+    <tableColumn id="857" xr3:uid="{122CC484-537C-6A40-883A-19A1E40E802B}" name="Column857"/>
+    <tableColumn id="858" xr3:uid="{6F46D3EC-C218-DC42-8D90-CF5EE380ABE7}" name="Column858"/>
+    <tableColumn id="859" xr3:uid="{EF9ADE49-5A5B-5942-8F85-AD50A4C3C7D1}" name="Column859"/>
+    <tableColumn id="860" xr3:uid="{B3740371-42EA-9C47-9062-89316F5E3098}" name="Column860"/>
+    <tableColumn id="861" xr3:uid="{4221A90F-9EB0-F94D-A9DD-C613E39A2889}" name="Column861"/>
+    <tableColumn id="862" xr3:uid="{BA196A62-A1D2-BC46-92D8-330F650F836B}" name="Column862"/>
+    <tableColumn id="863" xr3:uid="{A3586F84-9054-FB45-BE10-4B9C55A6C4F8}" name="Column863"/>
+    <tableColumn id="864" xr3:uid="{D80C0ACC-D346-D740-A8FF-6B7CB49846F6}" name="Column864"/>
+    <tableColumn id="865" xr3:uid="{272BB064-3763-7643-A1E1-7FB4B4251A7E}" name="Column865"/>
+    <tableColumn id="866" xr3:uid="{EBAF3C0C-27AC-A04D-B2FD-6568B675DEAD}" name="Column866"/>
+    <tableColumn id="867" xr3:uid="{025FE8FA-2165-2A47-A3E2-33004127E303}" name="Column867"/>
+    <tableColumn id="868" xr3:uid="{585E2D69-730B-9E48-8E1D-E656731CE3A7}" name="Column868"/>
+    <tableColumn id="869" xr3:uid="{BF96AA9A-8558-6F4F-8124-46A5F401495A}" name="Column869"/>
+    <tableColumn id="870" xr3:uid="{45B0CD8B-AFDD-4547-A5C0-8E22049AF049}" name="Column870"/>
+    <tableColumn id="871" xr3:uid="{61A2897F-D37B-E441-893F-570E50AB78E7}" name="Column871"/>
+    <tableColumn id="872" xr3:uid="{C984297A-7293-D441-87DC-6668E5A4EBAC}" name="Column872"/>
+    <tableColumn id="873" xr3:uid="{D37B363B-FF8A-1944-B442-2981E451E492}" name="Column873"/>
+    <tableColumn id="874" xr3:uid="{BF9946AF-A0DC-E144-A8C8-AE93881E71B7}" name="Column874"/>
+    <tableColumn id="875" xr3:uid="{B7BD80FE-EFCF-CF48-8F94-24B394C0D1B8}" name="Column875"/>
+    <tableColumn id="876" xr3:uid="{C6E3591A-A9C1-9347-9863-B00867ABDF87}" name="Column876"/>
+    <tableColumn id="877" xr3:uid="{60149854-7E62-F241-B1E3-69DEF415B433}" name="Column877"/>
+    <tableColumn id="878" xr3:uid="{74AFB522-BED7-B740-BEEA-87B5359FF8D4}" name="Column878"/>
+    <tableColumn id="879" xr3:uid="{096E4FA1-F0F9-B340-8D82-77242C760DC8}" name="Column879"/>
+    <tableColumn id="880" xr3:uid="{D54FBF07-90E0-4A46-873B-9481F9A1AA8A}" name="Column880"/>
+    <tableColumn id="881" xr3:uid="{9B1A35BF-C526-B041-8A63-CFBC6283E88B}" name="Column881"/>
+    <tableColumn id="882" xr3:uid="{638AB73B-B6F6-1245-B3A8-5E945D250299}" name="Column882"/>
+    <tableColumn id="883" xr3:uid="{E5A50F97-B876-C649-89C6-DDCC9171B7C8}" name="Column883"/>
+    <tableColumn id="884" xr3:uid="{8701D7A3-52AD-B349-8EEA-DA231E5D3167}" name="Column884"/>
+    <tableColumn id="885" xr3:uid="{E77408FD-C4BA-2048-B6CD-5B57D21855D6}" name="Column885"/>
+    <tableColumn id="886" xr3:uid="{0F3AE1A7-2A05-5648-8171-A3D40C44D366}" name="Column886"/>
+    <tableColumn id="887" xr3:uid="{3D7AED8F-DC5E-8944-B3B3-446CB9E0B3D2}" name="Column887"/>
+    <tableColumn id="888" xr3:uid="{59FA172A-50AA-544D-844F-14E74C20F62A}" name="Column888"/>
+    <tableColumn id="889" xr3:uid="{DB89DDA1-26CD-8342-9541-E52FAAA60446}" name="Column889"/>
+    <tableColumn id="890" xr3:uid="{7E6A2AF4-8A42-674A-B0BA-EE8D1D015207}" name="Column890"/>
+    <tableColumn id="891" xr3:uid="{6F66A955-AF0B-324F-9E0B-F80A5ACAADBB}" name="Column891"/>
+    <tableColumn id="892" xr3:uid="{EB33BD4A-1B6B-094A-AE0A-9FEE8CB50E04}" name="Column892"/>
+    <tableColumn id="893" xr3:uid="{7BC4C2C3-35FA-B246-BBE7-33A124795DD3}" name="Column893"/>
+    <tableColumn id="894" xr3:uid="{236FCC05-5F72-E842-B95B-F9E50B145515}" name="Column894"/>
+    <tableColumn id="895" xr3:uid="{DD039167-A620-394B-9761-A79FC17C3B20}" name="Column895"/>
+    <tableColumn id="896" xr3:uid="{BEDE54AC-CAEB-464E-849B-631627B1901C}" name="Column896"/>
+    <tableColumn id="897" xr3:uid="{0AA9CC61-F1AD-9F45-9E0D-0C2A7B99A005}" name="Column897"/>
+    <tableColumn id="898" xr3:uid="{B8D95EF1-0F7E-564F-9563-CF2200F9A410}" name="Column898"/>
+    <tableColumn id="899" xr3:uid="{FE81D163-F781-6A44-8FF2-11672B41FAA4}" name="Column899"/>
+    <tableColumn id="900" xr3:uid="{F3040545-3ACF-F649-B379-A6D8041A5355}" name="Column900"/>
+    <tableColumn id="901" xr3:uid="{E5AD846B-8879-5744-B652-3CDE4C5EFDE5}" name="Column901"/>
+    <tableColumn id="902" xr3:uid="{829F369A-6C25-6C43-B5A3-DC9DE592E06A}" name="Column902"/>
+    <tableColumn id="903" xr3:uid="{2BFA5EA5-5330-1F47-B379-A8FAD57C0DED}" name="Column903"/>
+    <tableColumn id="904" xr3:uid="{E0D8E2D1-3631-E240-8843-F3F6E707E8A6}" name="Column904"/>
+    <tableColumn id="905" xr3:uid="{FDE36BE6-D77A-AF44-AA4A-94F4FFD2C1DA}" name="Column905"/>
+    <tableColumn id="906" xr3:uid="{28540525-1866-2D49-BC2F-5E53543186C4}" name="Column906"/>
+    <tableColumn id="907" xr3:uid="{7DDE7BEE-CE0C-CE4C-84F0-BB910FC7C5CA}" name="Column907"/>
+    <tableColumn id="908" xr3:uid="{44EF4A90-0496-3546-BE4B-391E26CCA3C5}" name="Column908"/>
+    <tableColumn id="909" xr3:uid="{EE2EE335-832C-8547-B4B3-11831FD6E401}" name="Column909"/>
+    <tableColumn id="910" xr3:uid="{848781FE-6EDF-B94B-AAA2-2F223E7B0CB6}" name="Column910"/>
+    <tableColumn id="911" xr3:uid="{2AA5163E-7EB8-644D-8BF0-C9DB225F3FCA}" name="Column911"/>
+    <tableColumn id="912" xr3:uid="{A2BD6A5A-2290-2845-A7D7-4F8749568DCC}" name="Column912"/>
+    <tableColumn id="913" xr3:uid="{EE612D98-7D30-7E49-819D-A9BA4D098A94}" name="Column913"/>
+    <tableColumn id="914" xr3:uid="{95EA4E14-EE59-F144-B975-9AECF4330D41}" name="Column914"/>
+    <tableColumn id="915" xr3:uid="{0F45BF91-4690-EA44-A7D0-C8624D53FD13}" name="Column915"/>
+    <tableColumn id="916" xr3:uid="{FB21EDB5-CAF4-F84C-B2D4-4D817BC00800}" name="Column916"/>
+    <tableColumn id="917" xr3:uid="{4C7073F2-3898-2A49-B9FF-25CA2DD243F7}" name="Column917"/>
+    <tableColumn id="918" xr3:uid="{F305CDE7-C300-B545-BC1D-CDBD380FC4EE}" name="Column918"/>
+    <tableColumn id="919" xr3:uid="{7309F54D-8CD2-9848-8888-FE9B0FCCA877}" name="Column919"/>
+    <tableColumn id="920" xr3:uid="{344A1C33-90ED-F447-9287-F127642EE4C4}" name="Column920"/>
+    <tableColumn id="921" xr3:uid="{574C3070-70BF-9542-BEF2-D35D8E90B10F}" name="Column921"/>
+    <tableColumn id="922" xr3:uid="{510C2E9A-7A20-D84E-B075-F0C5E11E9307}" name="Column922"/>
+    <tableColumn id="923" xr3:uid="{23B8D76E-5071-0D44-ABD9-6F88DAB0FAC1}" name="Column923"/>
+    <tableColumn id="924" xr3:uid="{8C2E094E-13F3-784C-AD91-E8FDFA12FA55}" name="Column924"/>
+    <tableColumn id="925" xr3:uid="{E3782629-C8F0-BA45-8820-7D717690366F}" name="Column925"/>
+    <tableColumn id="926" xr3:uid="{D5EE12E7-8F8C-2547-A6D5-B51CCCB01D5B}" name="Column926"/>
+    <tableColumn id="927" xr3:uid="{7D8EBB86-EE7D-9148-8CFD-EDAAC1C8495B}" name="Column927"/>
+    <tableColumn id="928" xr3:uid="{75724F7B-9B03-FA4E-A909-7FCEDE756240}" name="Column928"/>
+    <tableColumn id="929" xr3:uid="{77A7A37C-3DE2-F540-92C3-F5EDBCF83417}" name="Column929"/>
+    <tableColumn id="930" xr3:uid="{5345C2B7-FEE0-6B44-A482-BA66B19F6222}" name="Column930"/>
+    <tableColumn id="931" xr3:uid="{59935992-EB86-BC41-8ECD-B8CF8BD1C08B}" name="Column931"/>
+    <tableColumn id="932" xr3:uid="{0F0AD56C-2F20-F84E-A392-2A57CCBF263E}" name="Column932"/>
+    <tableColumn id="933" xr3:uid="{DCF5701D-0220-FA46-9ECB-6C9A7725FB24}" name="Column933"/>
+    <tableColumn id="934" xr3:uid="{A7D07F76-6F5B-B242-B90F-FD25E58C0CD3}" name="Column934"/>
+    <tableColumn id="935" xr3:uid="{7D71E40F-F61D-284C-94DF-511784739A2E}" name="Column935"/>
+    <tableColumn id="936" xr3:uid="{8941068C-34BB-4E4F-86BE-8469689EFCEF}" name="Column936"/>
+    <tableColumn id="937" xr3:uid="{F226CBC2-6FBF-5346-AAED-79DA316D2AE7}" name="Column937"/>
+    <tableColumn id="938" xr3:uid="{90AF540B-4B94-A940-A355-0BA14BBEEE0D}" name="Column938"/>
+    <tableColumn id="939" xr3:uid="{DFF445D9-64B7-4D4E-89B7-AB39654138D6}" name="Column939"/>
+    <tableColumn id="940" xr3:uid="{4ACBF06C-932C-984E-B70E-6F6224FBF0FB}" name="Column940"/>
+    <tableColumn id="941" xr3:uid="{B3DEE73D-206B-B944-B8ED-11D2AD0744F8}" name="Column941"/>
+    <tableColumn id="942" xr3:uid="{2A1F2FB1-A2DF-3C41-94F0-3185528503D1}" name="Column942"/>
+    <tableColumn id="943" xr3:uid="{6699B517-186A-C043-AB27-AA02EFE59E60}" name="Column943"/>
+    <tableColumn id="944" xr3:uid="{3C241EB9-F5C4-A945-92D1-1C3BFE1AD1F3}" name="Column944"/>
+    <tableColumn id="945" xr3:uid="{0405F160-1E91-3145-B7E6-F87586663FE2}" name="Column945"/>
+    <tableColumn id="946" xr3:uid="{1D841037-CF8A-4A49-9E79-0012B46E5DA1}" name="Column946"/>
+    <tableColumn id="947" xr3:uid="{DAC6AE13-6FC4-BD49-A36D-CAD81612D18E}" name="Column947"/>
+    <tableColumn id="948" xr3:uid="{74CBDAE0-4FE5-3F41-A088-7D80064C07AC}" name="Column948"/>
+    <tableColumn id="949" xr3:uid="{DBC20D16-8CA6-A349-AC5B-AE9578C6690D}" name="Column949"/>
+    <tableColumn id="950" xr3:uid="{EB87B099-C864-4E4C-8918-EC65D7E35C40}" name="Column950"/>
+    <tableColumn id="951" xr3:uid="{9CC58F46-1FB8-DB45-AD1C-C20C2D3120D3}" name="Column951"/>
+    <tableColumn id="952" xr3:uid="{4FC54E83-D5AA-9E4D-BBA7-B0AEEEE57510}" name="Column952"/>
+    <tableColumn id="953" xr3:uid="{49E122FB-4D33-6A4C-B4C6-D7F320D947AE}" name="Column953"/>
+    <tableColumn id="954" xr3:uid="{2012E048-C4A0-9647-A25C-404C858549AF}" name="Column954"/>
+    <tableColumn id="955" xr3:uid="{4F05480B-06BA-814E-BC14-8564DB05B0E0}" name="Column955"/>
+    <tableColumn id="956" xr3:uid="{FCBA105E-8ECA-A64F-950E-07DCB6D8B076}" name="Column956"/>
+    <tableColumn id="957" xr3:uid="{7C4E4437-C5B7-AB4F-AD5A-DD1D2B837353}" name="Column957"/>
+    <tableColumn id="958" xr3:uid="{785A0E9A-64FF-3D48-9443-616F44FF27A8}" name="Column958"/>
+    <tableColumn id="959" xr3:uid="{47299057-84A0-764C-929E-D900DB87FDC3}" name="Column959"/>
+    <tableColumn id="960" xr3:uid="{C93584BF-DCD7-AC42-BA8D-46982C308DF5}" name="Column960"/>
+    <tableColumn id="961" xr3:uid="{FD28DDA2-121D-E54A-ABAF-897045BBAA86}" name="Column961"/>
+    <tableColumn id="962" xr3:uid="{49B36CD5-B37F-324A-8190-091ABD3641E2}" name="Column962"/>
+    <tableColumn id="963" xr3:uid="{F22AF3EB-2F98-D44A-929B-B54F43070CAA}" name="Column963"/>
+    <tableColumn id="964" xr3:uid="{34A8DA6D-333C-8444-9DEA-0366AAD54469}" name="Column964"/>
+    <tableColumn id="965" xr3:uid="{2A835079-14C7-2247-80E0-4D91065B5309}" name="Column965"/>
+    <tableColumn id="966" xr3:uid="{7CEE96B0-EDDF-C040-8F0C-FB1C9CA580CE}" name="Column966"/>
+    <tableColumn id="967" xr3:uid="{AF40F356-85E9-2D44-9436-C55E99D99251}" name="Column967"/>
+    <tableColumn id="968" xr3:uid="{960C7F28-CE3B-1348-AC4A-B3E87CDA7F07}" name="Column968"/>
+    <tableColumn id="969" xr3:uid="{959DCA94-F702-1946-8B66-F1170B9D4596}" name="Column969"/>
+    <tableColumn id="970" xr3:uid="{2D3A1B2B-F5DD-8D46-8CFA-4C68C92585ED}" name="Column970"/>
+    <tableColumn id="971" xr3:uid="{2D3E5FA2-5882-C044-AEAE-7AD8E80C5547}" name="Column971"/>
+    <tableColumn id="972" xr3:uid="{3E6EED6E-B59C-B042-83B7-1CB526985E52}" name="Column972"/>
+    <tableColumn id="973" xr3:uid="{2FF201BB-E4E1-D74E-BD8E-AFDC417C99F5}" name="Column973"/>
+    <tableColumn id="974" xr3:uid="{70A912AC-2573-FB4C-A036-BB40D1BA67C9}" name="Column974"/>
+    <tableColumn id="975" xr3:uid="{05927F7F-D6BD-3C4C-965F-82F34F12650A}" name="Column975"/>
+    <tableColumn id="976" xr3:uid="{29C72D01-447D-7E45-98BD-F5D092EDF962}" name="Column976"/>
+    <tableColumn id="977" xr3:uid="{05718284-C176-624E-995C-B01DA0400A98}" name="Column977"/>
+    <tableColumn id="978" xr3:uid="{C4A79C62-7718-2D48-B707-8FE7BCC1BE29}" name="Column978"/>
+    <tableColumn id="979" xr3:uid="{30D1785D-6379-1849-83D0-F5AB1C0F560E}" name="Column979"/>
+    <tableColumn id="980" xr3:uid="{14518EB1-162A-6244-8879-FD51D5721709}" name="Column980"/>
+    <tableColumn id="981" xr3:uid="{D7503B4F-FE00-074D-B850-96F94662747D}" name="Column981"/>
+    <tableColumn id="982" xr3:uid="{97631D5E-7C7E-0949-8B1A-40EDBBB1E115}" name="Column982"/>
+    <tableColumn id="983" xr3:uid="{B7968BB9-819B-D848-A7DF-0CCE4ADB94F1}" name="Column983"/>
+    <tableColumn id="984" xr3:uid="{358E655F-0547-D741-AA94-88E2E3FDB0E0}" name="Column984"/>
+    <tableColumn id="985" xr3:uid="{6EF220E1-FBA5-D94C-A7C5-8B08E451E75D}" name="Column985"/>
+    <tableColumn id="986" xr3:uid="{C0CAEEAD-65A3-6C4B-81D4-6C6E02E4632F}" name="Column986"/>
+    <tableColumn id="987" xr3:uid="{491C964F-F796-AD45-B198-5EB2AFEF8615}" name="Column987"/>
+    <tableColumn id="988" xr3:uid="{14C06E8D-6412-8644-B98D-1FFF47B87147}" name="Column988"/>
+    <tableColumn id="989" xr3:uid="{7468B9E1-4DF0-364D-8D83-7B320FB2D1EF}" name="Column989"/>
+    <tableColumn id="990" xr3:uid="{A00236A0-8DA2-6B47-94E1-6BAA84C17E20}" name="Column990"/>
+    <tableColumn id="991" xr3:uid="{F06A5E50-DCC8-7744-A85D-2566BFBB9637}" name="Column991"/>
+    <tableColumn id="992" xr3:uid="{7CA6974C-1130-D54E-B8D7-85D13475684C}" name="Column992"/>
+    <tableColumn id="993" xr3:uid="{C137BCF7-8BF2-FC4C-8B5B-A95D60EE0A94}" name="Column993"/>
+    <tableColumn id="994" xr3:uid="{9CC2FD36-350E-4649-8DFB-E838C31B535E}" name="Column994"/>
+    <tableColumn id="995" xr3:uid="{391A1D3F-33A1-414A-9E60-B81635AA240A}" name="Column995"/>
+    <tableColumn id="996" xr3:uid="{E4ACD9B9-53D8-044C-A41A-BD078FC676FA}" name="Column996"/>
+    <tableColumn id="997" xr3:uid="{EE6AA472-BE90-3042-8AD0-F03985AC28F7}" name="Column997"/>
+    <tableColumn id="998" xr3:uid="{FE3E74A5-8DB6-194C-ACF8-48796D2A43ED}" name="Column998"/>
+    <tableColumn id="999" xr3:uid="{D95FC6B7-1DE4-EA4F-B7BE-DE240F2AFD7E}" name="Column999"/>
+    <tableColumn id="1000" xr3:uid="{6985EAB1-8558-9046-9319-76D8740D4E40}" name="Column1000"/>
+    <tableColumn id="1001" xr3:uid="{A893E681-4E70-814C-B8FC-4650A3A877C4}" name="Column1001"/>
+    <tableColumn id="1002" xr3:uid="{F48CDBCA-0E88-F14B-8297-A414955FF70F}" name="Column1002"/>
+    <tableColumn id="1003" xr3:uid="{F4A5AEEF-CA56-2E4C-8FAB-CB75E3CD056A}" name="Column1003"/>
+    <tableColumn id="1004" xr3:uid="{B28BFDAE-0155-6042-9F86-8349D061CB73}" name="Column1004"/>
+    <tableColumn id="1005" xr3:uid="{B381ECA7-2990-0745-9585-A22881BBF32F}" name="Column1005"/>
+    <tableColumn id="1006" xr3:uid="{6490E2E7-9F64-0D4F-BB72-E010546431CD}" name="Column1006"/>
+    <tableColumn id="1007" xr3:uid="{38342F92-90CB-9B4E-B795-BD1EB89FA28E}" name="Column1007"/>
+    <tableColumn id="1008" xr3:uid="{05808DEC-F34A-074C-BA5C-FFF6480CFFF1}" name="Column1008"/>
+    <tableColumn id="1009" xr3:uid="{BFE48FA2-1BA0-594C-AFE9-1C84BA60A86C}" name="Column1009"/>
+    <tableColumn id="1010" xr3:uid="{112CF269-D5FB-D54D-A5E2-E7D8C379DFCF}" name="Column1010"/>
+    <tableColumn id="1011" xr3:uid="{C6CCA8E5-3AB0-8A46-A7F3-3360954667BD}" name="Column1011"/>
+    <tableColumn id="1012" xr3:uid="{1F164C09-6ED5-8948-8C4A-11BC7829C7BF}" name="Column1012"/>
+    <tableColumn id="1013" xr3:uid="{63A88BE4-F3B7-C443-9172-2FFAEAC7BBE5}" name="Column1013"/>
+    <tableColumn id="1014" xr3:uid="{3CFEA5DA-25C8-E040-9C61-681CC6D43500}" name="Column1014"/>
+    <tableColumn id="1015" xr3:uid="{2B829B32-F087-B84C-AE71-CC29348AF725}" name="Column1015"/>
+    <tableColumn id="1016" xr3:uid="{67FB58B7-3BAA-804B-BC86-63BB087C561F}" name="Column1016"/>
+    <tableColumn id="1017" xr3:uid="{588F35C6-C212-5D43-A2A9-41D79DF77A01}" name="Column1017"/>
+    <tableColumn id="1018" xr3:uid="{9EFB7373-1121-7049-AF34-505CD67F5FE6}" name="Column1018"/>
+    <tableColumn id="1019" xr3:uid="{6D35DD2F-FFDF-7641-B056-D1840EAD464C}" name="Column1019"/>
+    <tableColumn id="1020" xr3:uid="{E41C2E70-E0F2-1D43-8875-9BA668C4B151}" name="Column1020"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2374,12 +2387,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE402DE-71D1-6B4F-86B5-15742C540494}">
-  <dimension ref="A1:D167"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF6A92B-36B9-F243-89DF-2828BF9C02CE}">
+  <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="25.33203125" style="8" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -4726,6 +4739,34 @@
         <v>7</v>
       </c>
     </row>
+    <row r="168" spans="1:4" ht="15">
+      <c r="A168" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
+        <v>226</v>
+      </c>
+      <c r="D168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15">
+      <c r="A169" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>227</v>
+      </c>
+      <c r="D169" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/data/cci/cci-platform-programme-mapping.xlsx
+++ b/data/cci/cci-platform-programme-mapping.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony.wilson/git/cci-vocabularies2/data/cci/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amw23\Documents\GitHub\cci-vocabularies\data\cci\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4070AF67-4B1E-7E4D-AC7D-A63F4B048C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B578D75-0C86-42DE-B89F-E3A99152975E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{D6294A95-F961-1A4F-9365-26DAE540CA74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D6294A95-F961-1A4F-9365-26DAE540CA74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="236">
   <si>
     <t>URI 1</t>
   </si>
@@ -728,6 +728,30 @@
   </si>
   <si>
     <t>plat_sentinel6b</t>
+  </si>
+  <si>
+    <t>plat_erbs_prog</t>
+  </si>
+  <si>
+    <t>plat_erbs</t>
+  </si>
+  <si>
+    <t>plat_uars_prog</t>
+  </si>
+  <si>
+    <t>plat_uars</t>
+  </si>
+  <si>
+    <t>plat_meteor3m_prog</t>
+  </si>
+  <si>
+    <t>plat_meteor_3m</t>
+  </si>
+  <si>
+    <t>plat_iss_SAGEIII</t>
+  </si>
+  <si>
+    <t>plat_iss_prog</t>
   </si>
 </sst>
 </file>
@@ -983,26 +1007,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Accent" xfId="7" xr:uid="{60F56625-14C4-3E4F-95E1-C1EFC4D7A21A}"/>
@@ -2388,20 +2407,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF6A92B-36B9-F243-89DF-2828BF9C02CE}">
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="D173" sqref="D173"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" customWidth="1"/>
-    <col min="5" max="64" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="5" max="64" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2415,49 +2436,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -2471,287 +2492,287 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16">
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16">
+    <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16">
+    <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16">
+    <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16">
+    <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16">
+    <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16">
+    <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16">
+    <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16">
+    <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16">
+    <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16">
+    <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16">
+    <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16">
+    <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16">
+    <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16">
+    <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16">
+    <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16">
+    <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16">
+    <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16">
+    <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16">
+    <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
@@ -2765,609 +2786,609 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16">
+    <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16">
+    <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16">
+    <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16">
+    <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16">
+    <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:4">
+      <c r="A37" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:4">
+      <c r="A38" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16">
+    <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16">
+    <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16">
+    <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16">
+    <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16">
+    <row r="43" spans="1:4">
       <c r="A43" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16">
+    <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16">
+    <row r="45" spans="1:4">
       <c r="A45" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16">
+    <row r="46" spans="1:4">
       <c r="A46" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16">
+    <row r="47" spans="1:4">
       <c r="A47" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16">
+    <row r="48" spans="1:4">
       <c r="A48" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16">
+    <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16">
+    <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16">
+    <row r="51" spans="1:4">
       <c r="A51" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16">
+    <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16">
+    <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16">
+    <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16">
+    <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="16">
+    <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16">
+    <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="16">
+    <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="16">
+    <row r="59" spans="1:4">
       <c r="A59" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="16">
+    <row r="60" spans="1:4">
       <c r="A60" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16">
+    <row r="61" spans="1:4">
       <c r="A61" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="16">
+    <row r="62" spans="1:4">
       <c r="A62" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16">
+    <row r="63" spans="1:4">
       <c r="A63" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="16">
+    <row r="64" spans="1:4">
       <c r="A64" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="16">
+    <row r="65" spans="1:4">
       <c r="A65" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="16">
+    <row r="66" spans="1:4">
       <c r="A66" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="16">
+    <row r="67" spans="1:4">
       <c r="A67" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="16">
+    <row r="68" spans="1:4">
       <c r="A68" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="16">
+    <row r="69" spans="1:4">
       <c r="A69" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="16">
+    <row r="70" spans="1:4">
       <c r="A70" s="3" t="s">
         <v>90</v>
       </c>
@@ -3381,7 +3402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="16">
+    <row r="71" spans="1:4">
       <c r="A71" s="3" t="s">
         <v>90</v>
       </c>
@@ -3395,203 +3416,203 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="16">
+    <row r="72" spans="1:4">
       <c r="A72" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="16">
+    <row r="73" spans="1:4">
       <c r="A73" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="16">
+    <row r="74" spans="1:4">
       <c r="A74" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="16">
+    <row r="75" spans="1:4">
       <c r="A75" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="3" t="s">
         <v>98</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="16">
+    <row r="76" spans="1:4">
       <c r="A76" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="16">
+    <row r="77" spans="1:4">
       <c r="A77" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="16">
+    <row r="78" spans="1:4">
       <c r="A78" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="16">
+    <row r="79" spans="1:4">
       <c r="A79" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="3" t="s">
         <v>102</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="16">
+    <row r="80" spans="1:4">
       <c r="A80" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="3" t="s">
         <v>103</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="16">
+    <row r="81" spans="1:4">
       <c r="A81" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="16">
+    <row r="82" spans="1:4">
       <c r="A82" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="3" t="s">
         <v>106</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="16">
+    <row r="83" spans="1:4">
       <c r="A83" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="16">
+    <row r="84" spans="1:4">
       <c r="A84" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="16">
+    <row r="85" spans="1:4">
       <c r="A85" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="16">
+    <row r="86" spans="1:4">
       <c r="A86" s="3" t="s">
         <v>111</v>
       </c>
@@ -3605,7 +3626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="16">
+    <row r="87" spans="1:4">
       <c r="A87" s="3" t="s">
         <v>111</v>
       </c>
@@ -3619,7 +3640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="16">
+    <row r="88" spans="1:4">
       <c r="A88" s="3" t="s">
         <v>111</v>
       </c>
@@ -3633,7 +3654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="16">
+    <row r="89" spans="1:4">
       <c r="A89" s="3" t="s">
         <v>111</v>
       </c>
@@ -3647,371 +3668,371 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="16">
+    <row r="90" spans="1:4">
       <c r="A90" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="3" t="s">
         <v>117</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="16">
+    <row r="91" spans="1:4">
       <c r="A91" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="16">
+    <row r="92" spans="1:4">
       <c r="A92" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="3" t="s">
         <v>119</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="16">
+    <row r="93" spans="1:4">
       <c r="A93" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="3" t="s">
         <v>120</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="16">
+    <row r="94" spans="1:4">
       <c r="A94" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="3" t="s">
         <v>121</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="16">
+    <row r="95" spans="1:4">
       <c r="A95" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="16">
+    <row r="96" spans="1:4">
       <c r="A96" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="16">
-      <c r="A97" s="6" t="s">
+    <row r="97" spans="1:4">
+      <c r="A97" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="16">
-      <c r="A98" s="6" t="s">
+    <row r="98" spans="1:4">
+      <c r="A98" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="16">
-      <c r="A99" s="6" t="s">
+    <row r="99" spans="1:4">
+      <c r="A99" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="16">
-      <c r="A100" s="6" t="s">
+    <row r="100" spans="1:4">
+      <c r="A100" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="16">
-      <c r="A101" s="6" t="s">
+    <row r="101" spans="1:4">
+      <c r="A101" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="3" t="s">
         <v>129</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="17">
-      <c r="A102" s="6" t="s">
+    <row r="102" spans="1:4" ht="17.25">
+      <c r="A102" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="17">
-      <c r="A103" s="6" t="s">
+    <row r="103" spans="1:4" ht="17.25">
+      <c r="A103" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="3" t="s">
         <v>132</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="17">
-      <c r="A104" s="6" t="s">
+    <row r="104" spans="1:4" ht="17.25">
+      <c r="A104" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="3" t="s">
         <v>133</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="17">
-      <c r="A105" s="6" t="s">
+    <row r="105" spans="1:4" ht="17.25">
+      <c r="A105" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="3" t="s">
         <v>134</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="17">
-      <c r="A106" s="6" t="s">
+    <row r="106" spans="1:4" ht="17.25">
+      <c r="A106" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="3" t="s">
         <v>135</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="17">
-      <c r="A107" s="6" t="s">
+    <row r="107" spans="1:4" ht="17.25">
+      <c r="A107" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="3" t="s">
         <v>136</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="17">
-      <c r="A108" s="6" t="s">
+    <row r="108" spans="1:4" ht="17.25">
+      <c r="A108" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="3" t="s">
         <v>137</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="17">
-      <c r="A109" s="6" t="s">
+    <row r="109" spans="1:4" ht="17.25">
+      <c r="A109" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="3" t="s">
         <v>138</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="17">
-      <c r="A110" s="6" t="s">
+    <row r="110" spans="1:4" ht="17.25">
+      <c r="A110" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="3" t="s">
         <v>139</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="17">
+    <row r="111" spans="1:4" ht="17.25">
       <c r="A111" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="3" t="s">
         <v>141</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="17">
+    <row r="112" spans="1:4" ht="17.25">
       <c r="A112" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="17">
+    <row r="113" spans="1:4" ht="17.25">
       <c r="A113" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="3" t="s">
         <v>143</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="17">
+    <row r="114" spans="1:4" ht="17.25">
       <c r="A114" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="3" t="s">
         <v>144</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="17">
+    <row r="115" spans="1:4" ht="17.25">
       <c r="A115" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="3" t="s">
         <v>145</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="16">
+    <row r="116" spans="1:4">
       <c r="A116" s="3" t="s">
         <v>146</v>
       </c>
@@ -4025,7 +4046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="16">
+    <row r="117" spans="1:4">
       <c r="A117" s="3" t="s">
         <v>148</v>
       </c>
@@ -4039,7 +4060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="16">
+    <row r="118" spans="1:4">
       <c r="A118" s="3" t="s">
         <v>150</v>
       </c>
@@ -4053,7 +4074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="16">
+    <row r="119" spans="1:4">
       <c r="A119" s="3" t="s">
         <v>152</v>
       </c>
@@ -4067,106 +4088,106 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="16">
+    <row r="120" spans="1:4">
       <c r="A120" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C120" s="3" t="s">
         <v>155</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="16">
+    <row r="121" spans="1:4">
       <c r="A121" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C121" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="16">
+    <row r="122" spans="1:4">
       <c r="A122" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="3" t="s">
         <v>157</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="16">
+    <row r="123" spans="1:4">
       <c r="A123" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C123" s="3" t="s">
         <v>158</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="16">
+    <row r="124" spans="1:4">
       <c r="A124" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="3" t="s">
         <v>159</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="16">
-      <c r="A125" s="7" t="s">
+    <row r="125" spans="1:4">
+      <c r="A125" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C125" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="16">
-      <c r="A126" s="7" t="s">
+    <row r="126" spans="1:4">
+      <c r="A126" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C126" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="16">
-      <c r="A127" s="7" t="s">
+    <row r="127" spans="1:4">
+      <c r="A127" s="5" t="s">
         <v>163</v>
       </c>
       <c r="B127" s="4" t="s">
@@ -4179,8 +4200,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="16">
-      <c r="A128" s="7" t="s">
+    <row r="128" spans="1:4">
+      <c r="A128" s="5" t="s">
         <v>165</v>
       </c>
       <c r="B128" s="4" t="s">
@@ -4193,8 +4214,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15">
-      <c r="A129" s="6" t="s">
+    <row r="129" spans="1:4">
+      <c r="A129" s="4" t="s">
         <v>167</v>
       </c>
       <c r="B129" s="4" t="s">
@@ -4207,8 +4228,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15">
-      <c r="A130" s="6" t="s">
+    <row r="130" spans="1:4">
+      <c r="A130" s="4" t="s">
         <v>167</v>
       </c>
       <c r="B130" s="4" t="s">
@@ -4221,8 +4242,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15">
-      <c r="A131" s="6" t="s">
+    <row r="131" spans="1:4">
+      <c r="A131" s="4" t="s">
         <v>167</v>
       </c>
       <c r="B131" s="4" t="s">
@@ -4235,8 +4256,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15">
-      <c r="A132" s="6" t="s">
+    <row r="132" spans="1:4">
+      <c r="A132" s="4" t="s">
         <v>167</v>
       </c>
       <c r="B132" s="4" t="s">
@@ -4249,106 +4270,106 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="16">
-      <c r="A133" s="8" t="s">
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
         <v>172</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C133" s="9" t="s">
+      <c r="C133" s="6" t="s">
         <v>173</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="16">
-      <c r="A134" s="8" t="s">
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
         <v>172</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="C134" s="6" t="s">
         <v>174</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="16">
-      <c r="A135" s="8" t="s">
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
         <v>175</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C135" s="9" t="s">
+      <c r="C135" s="6" t="s">
         <v>176</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="16">
-      <c r="A136" s="8" t="s">
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
         <v>175</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C136" s="9" t="s">
+      <c r="C136" s="6" t="s">
         <v>177</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="16">
-      <c r="A137" s="8" t="s">
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
         <v>178</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C137" s="9" t="s">
+      <c r="C137" s="6" t="s">
         <v>179</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="16">
-      <c r="A138" s="8" t="s">
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
         <v>178</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="C138" s="6" t="s">
         <v>180</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="16">
-      <c r="A139" s="10" t="s">
+    <row r="139" spans="1:4">
+      <c r="A139" s="7" t="s">
         <v>181</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="C139" s="6" t="s">
         <v>182</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15">
-      <c r="A140" s="10" t="s">
+    <row r="140" spans="1:4">
+      <c r="A140" s="7" t="s">
         <v>183</v>
       </c>
       <c r="B140" s="4" t="s">
@@ -4361,8 +4382,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15">
-      <c r="A141" s="10" t="s">
+    <row r="141" spans="1:4">
+      <c r="A141" s="7" t="s">
         <v>185</v>
       </c>
       <c r="B141" s="4" t="s">
@@ -4375,8 +4396,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15">
-      <c r="A142" s="8" t="s">
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
         <v>187</v>
       </c>
       <c r="B142" t="s">
@@ -4389,8 +4410,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15">
-      <c r="A143" s="8" t="s">
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
         <v>189</v>
       </c>
       <c r="B143" t="s">
@@ -4403,176 +4424,176 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15">
-      <c r="A144" s="8" t="s">
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
         <v>191</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
       </c>
-      <c r="C144" s="8" t="s">
+      <c r="C144" t="s">
         <v>192</v>
       </c>
       <c r="D144" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15">
-      <c r="A145" s="8" t="s">
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
         <v>191</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="C145" t="s">
         <v>193</v>
       </c>
       <c r="D145" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15">
-      <c r="A146" s="8" t="s">
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
         <v>191</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
       </c>
-      <c r="C146" s="8" t="s">
+      <c r="C146" t="s">
         <v>194</v>
       </c>
       <c r="D146" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15">
-      <c r="A147" s="8" t="s">
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
         <v>191</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
       </c>
-      <c r="C147" s="8" t="s">
+      <c r="C147" t="s">
         <v>195</v>
       </c>
       <c r="D147" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15">
-      <c r="A148" s="8" t="s">
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
         <v>191</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
       </c>
-      <c r="C148" s="8" t="s">
+      <c r="C148" t="s">
         <v>196</v>
       </c>
       <c r="D148" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15">
-      <c r="A149" s="8" t="s">
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
         <v>191</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
       </c>
-      <c r="C149" s="8" t="s">
+      <c r="C149" t="s">
         <v>197</v>
       </c>
       <c r="D149" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15">
-      <c r="A150" s="8" t="s">
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
         <v>191</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
       </c>
-      <c r="C150" s="8" t="s">
+      <c r="C150" t="s">
         <v>198</v>
       </c>
       <c r="D150" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15">
-      <c r="A151" s="8" t="s">
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
         <v>191</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
       </c>
-      <c r="C151" s="8" t="s">
+      <c r="C151" t="s">
         <v>199</v>
       </c>
       <c r="D151" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15">
-      <c r="A152" s="8" t="s">
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
         <v>191</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
       </c>
-      <c r="C152" s="8" t="s">
+      <c r="C152" t="s">
         <v>200</v>
       </c>
       <c r="D152" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15">
-      <c r="A153" s="8" t="s">
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
         <v>191</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
       </c>
-      <c r="C153" s="8" t="s">
+      <c r="C153" t="s">
         <v>201</v>
       </c>
       <c r="D153" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15">
-      <c r="A154" s="8" t="s">
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
         <v>191</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
       </c>
-      <c r="C154" s="8" t="s">
+      <c r="C154" t="s">
         <v>202</v>
       </c>
       <c r="D154" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15">
-      <c r="A155" s="8" t="s">
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
         <v>191</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
       </c>
-      <c r="C155" s="8" t="s">
+      <c r="C155" t="s">
         <v>203</v>
       </c>
       <c r="D155" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15">
-      <c r="A156" s="8" t="s">
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
         <v>204</v>
       </c>
       <c r="B156" t="s">
@@ -4585,8 +4606,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15">
-      <c r="A157" s="8" t="s">
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
         <v>206</v>
       </c>
       <c r="B157" t="s">
@@ -4599,8 +4620,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15">
-      <c r="A158" s="8" t="s">
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
         <v>208</v>
       </c>
       <c r="B158" t="s">
@@ -4613,8 +4634,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15">
-      <c r="A159" s="8" t="s">
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
         <v>210</v>
       </c>
       <c r="B159" t="s">
@@ -4627,8 +4648,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15">
-      <c r="A160" s="8" t="s">
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
         <v>212</v>
       </c>
       <c r="B160" t="s">
@@ -4641,8 +4662,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15">
-      <c r="A161" s="8" t="s">
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
         <v>214</v>
       </c>
       <c r="B161" t="s">
@@ -4655,8 +4676,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15">
-      <c r="A162" s="8" t="s">
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
         <v>216</v>
       </c>
       <c r="B162" t="s">
@@ -4669,8 +4690,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15">
-      <c r="A163" s="8" t="s">
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
         <v>218</v>
       </c>
       <c r="B163" t="s">
@@ -4683,8 +4704,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15">
-      <c r="A164" s="8" t="s">
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
         <v>218</v>
       </c>
       <c r="B164" t="s">
@@ -4697,8 +4718,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15">
-      <c r="A165" s="8" t="s">
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
         <v>218</v>
       </c>
       <c r="B165" t="s">
@@ -4711,8 +4732,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15">
-      <c r="A166" s="8" t="s">
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
         <v>218</v>
       </c>
       <c r="B166" t="s">
@@ -4725,8 +4746,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15">
-      <c r="A167" s="8" t="s">
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
         <v>223</v>
       </c>
       <c r="B167" t="s">
@@ -4739,8 +4760,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15">
-      <c r="A168" s="8" t="s">
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
         <v>225</v>
       </c>
       <c r="B168" t="s">
@@ -4753,8 +4774,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15">
-      <c r="A169" s="8" t="s">
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
         <v>225</v>
       </c>
       <c r="B169" t="s">
@@ -4764,6 +4785,62 @@
         <v>227</v>
       </c>
       <c r="D169" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>228</v>
+      </c>
+      <c r="B170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" t="s">
+        <v>229</v>
+      </c>
+      <c r="D170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>230</v>
+      </c>
+      <c r="B171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" t="s">
+        <v>231</v>
+      </c>
+      <c r="D171" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>232</v>
+      </c>
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" t="s">
+        <v>233</v>
+      </c>
+      <c r="D172" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>235</v>
+      </c>
+      <c r="B173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" t="s">
+        <v>234</v>
+      </c>
+      <c r="D173" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/cci/cci-platform-programme-mapping.xlsx
+++ b/data/cci/cci-platform-programme-mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amw23\Documents\GitHub\cci-vocabularies\data\cci\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsl11288\DOCUME~1\Moba\slash\RemoteFiles\262446_2_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B578D75-0C86-42DE-B89F-E3A99152975E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFFCBF6-AA4F-4E3F-8EBA-4AA3B5070369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D6294A95-F961-1A4F-9365-26DAE540CA74}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D6294A95-F961-1A4F-9365-26DAE540CA74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="237">
   <si>
     <t>URI 1</t>
   </si>
@@ -752,6 +752,9 @@
   </si>
   <si>
     <t>plat_iss_prog</t>
+  </si>
+  <si>
+    <t>plat_noaa_20</t>
   </si>
 </sst>
 </file>
@@ -2407,19 +2410,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF6A92B-36B9-F243-89DF-2828BF9C02CE}">
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:D174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="D173" sqref="D173"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" customWidth="1"/>
-    <col min="5" max="64" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" customWidth="1"/>
+    <col min="2" max="2" width="31.7265625" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" customWidth="1"/>
+    <col min="5" max="64" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3836,7 +3839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="17.25">
+    <row r="102" spans="1:4" ht="16.5">
       <c r="A102" s="4" t="s">
         <v>130</v>
       </c>
@@ -3850,7 +3853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="17.25">
+    <row r="103" spans="1:4" ht="16.5">
       <c r="A103" s="4" t="s">
         <v>130</v>
       </c>
@@ -3864,7 +3867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="17.25">
+    <row r="104" spans="1:4" ht="16.5">
       <c r="A104" s="4" t="s">
         <v>130</v>
       </c>
@@ -3878,7 +3881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="17.25">
+    <row r="105" spans="1:4" ht="16.5">
       <c r="A105" s="4" t="s">
         <v>130</v>
       </c>
@@ -3892,7 +3895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="17.25">
+    <row r="106" spans="1:4" ht="16.5">
       <c r="A106" s="4" t="s">
         <v>130</v>
       </c>
@@ -3906,7 +3909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="17.25">
+    <row r="107" spans="1:4" ht="16.5">
       <c r="A107" s="4" t="s">
         <v>130</v>
       </c>
@@ -3920,7 +3923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="17.25">
+    <row r="108" spans="1:4" ht="16.5">
       <c r="A108" s="4" t="s">
         <v>130</v>
       </c>
@@ -3934,7 +3937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="17.25">
+    <row r="109" spans="1:4" ht="16.5">
       <c r="A109" s="4" t="s">
         <v>130</v>
       </c>
@@ -3948,7 +3951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="17.25">
+    <row r="110" spans="1:4" ht="16.5">
       <c r="A110" s="4" t="s">
         <v>130</v>
       </c>
@@ -3962,7 +3965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="17.25">
+    <row r="111" spans="1:4" ht="16.5">
       <c r="A111" s="3" t="s">
         <v>140</v>
       </c>
@@ -3976,7 +3979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="17.25">
+    <row r="112" spans="1:4" ht="16.5">
       <c r="A112" s="3" t="s">
         <v>140</v>
       </c>
@@ -3990,7 +3993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="17.25">
+    <row r="113" spans="1:4" ht="16.5">
       <c r="A113" s="3" t="s">
         <v>140</v>
       </c>
@@ -4004,7 +4007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="17.25">
+    <row r="114" spans="1:4" ht="16.5">
       <c r="A114" s="3" t="s">
         <v>140</v>
       </c>
@@ -4018,7 +4021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="17.25">
+    <row r="115" spans="1:4" ht="16.5">
       <c r="A115" s="3" t="s">
         <v>140</v>
       </c>
@@ -4841,6 +4844,20 @@
         <v>234</v>
       </c>
       <c r="D173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>187</v>
+      </c>
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" t="s">
+        <v>236</v>
+      </c>
+      <c r="D174" t="s">
         <v>7</v>
       </c>
     </row>
